--- a/comparacio_quali_minima_sol_fitxers_prova.xlsx
+++ b/comparacio_quali_minima_sol_fitxers_prova.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\Desktop\MASTER\_Q3cuc\MÈTODES QUANTITATIUS D'ORGANITZACIÓ INDUSTRIAL II\Treball d'avaluació\Entrega parcial del programa informàtic\program_parcial\mqoi2-algo-parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089E376E-E744-4C0F-A3D8-3BED8506BB18}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3272F823-0340-4320-B5E7-E51624ACE7A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{DD10B349-A6DC-41D0-A261-0581506FDB24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{DD10B349-A6DC-41D0-A261-0581506FDB24}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2 (2)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="251">
   <si>
     <t>0*1*0*1</t>
   </si>
@@ -731,13 +732,64 @@
   </si>
   <si>
     <t>dins2</t>
+  </si>
+  <si>
+    <t>heuri 2</t>
+  </si>
+  <si>
+    <t>dif calidad</t>
+  </si>
+  <si>
+    <t>heuri 3</t>
+  </si>
+  <si>
+    <t>heuri 3 postpro ela</t>
+  </si>
+  <si>
+    <t>dif 3 i 2</t>
+  </si>
+  <si>
+    <t>dif 3 i 3</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>dif canvis i postpro</t>
+  </si>
+  <si>
+    <t>heuri 2+ canvis 3</t>
+  </si>
+  <si>
+    <t>dif</t>
+  </si>
+  <si>
+    <t>millora total</t>
+  </si>
+  <si>
+    <t>millora candidats postpro</t>
+  </si>
+  <si>
+    <t>millora candidats h3</t>
+  </si>
+  <si>
+    <t>dif 2 i 2+canvis elas candidats</t>
+  </si>
+  <si>
+    <t>dif millo post + millor h3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="0.000%"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -747,6 +799,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -771,17 +830,51 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percentatge" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC4A4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFC4A4A"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -815,9 +908,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de l'Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Oficina">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -855,7 +948,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Oficina">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -961,7 +1054,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Oficina">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3384,8 +3477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF627B8D-0597-490A-89E4-9C0199E84F53}">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D101"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5618,6 +5711,7011 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E102:E1048576 E1:F101">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8042EF6E-2447-4D2F-8411-0E2466629B25}">
+  <dimension ref="A1:S101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2">
+        <v>356500</v>
+      </c>
+      <c r="C2">
+        <v>377500</v>
+      </c>
+      <c r="D2">
+        <v>376000</v>
+      </c>
+      <c r="E2">
+        <f>C2-D2</f>
+        <v>1500</v>
+      </c>
+      <c r="F2">
+        <v>376000</v>
+      </c>
+      <c r="G2">
+        <f>D2-F2</f>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>376000</v>
+      </c>
+      <c r="I2">
+        <f>F2-H2</f>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>376000</v>
+      </c>
+      <c r="K2">
+        <f>H2-J2</f>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>375000</v>
+      </c>
+      <c r="M2">
+        <f>J2-L2</f>
+        <v>1000</v>
+      </c>
+      <c r="N2">
+        <v>374000</v>
+      </c>
+      <c r="O2">
+        <f>L2-N2</f>
+        <v>1000</v>
+      </c>
+      <c r="P2">
+        <f>N2-B2</f>
+        <v>17500</v>
+      </c>
+      <c r="Q2" s="2">
+        <f>P2/B2</f>
+        <v>4.9088359046283309E-2</v>
+      </c>
+      <c r="R2">
+        <f>C2-N2</f>
+        <v>3500</v>
+      </c>
+      <c r="S2" t="b">
+        <f>J2&lt;B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3">
+        <v>215500</v>
+      </c>
+      <c r="C3">
+        <v>229000</v>
+      </c>
+      <c r="D3">
+        <v>229000</v>
+      </c>
+      <c r="E3">
+        <f>C3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>229000</v>
+      </c>
+      <c r="G3">
+        <f>D3-F3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>229000</v>
+      </c>
+      <c r="I3">
+        <f>F3-H3</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>224500</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K66" si="0">H3-J3</f>
+        <v>4500</v>
+      </c>
+      <c r="L3">
+        <v>224500</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="1">J3-L3</f>
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>224500</v>
+      </c>
+      <c r="O3">
+        <f t="shared" ref="O3:O66" si="2">L3-N3</f>
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <f t="shared" ref="P3:P66" si="3">N3-B3</f>
+        <v>9000</v>
+      </c>
+      <c r="Q3" s="2">
+        <f>P3/B3</f>
+        <v>4.1763341067285381E-2</v>
+      </c>
+      <c r="R3">
+        <f>C3-J3</f>
+        <v>4500</v>
+      </c>
+      <c r="S3" t="b">
+        <f>J3&lt;B3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4">
+        <v>141000</v>
+      </c>
+      <c r="C4">
+        <v>151500</v>
+      </c>
+      <c r="D4">
+        <v>151500</v>
+      </c>
+      <c r="E4">
+        <f>C4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>150000</v>
+      </c>
+      <c r="G4">
+        <f>D4-F4</f>
+        <v>1500</v>
+      </c>
+      <c r="H4">
+        <v>150000</v>
+      </c>
+      <c r="I4">
+        <f>F4-H4</f>
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>150000</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>150000</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>148000</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="3"/>
+        <v>7000</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>P4/B4</f>
+        <v>4.9645390070921988E-2</v>
+      </c>
+      <c r="R4">
+        <f>C4-J4</f>
+        <v>1500</v>
+      </c>
+      <c r="S4" t="b">
+        <f>J4&lt;B4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5">
+        <v>395500</v>
+      </c>
+      <c r="C5">
+        <v>414500</v>
+      </c>
+      <c r="D5">
+        <v>414500</v>
+      </c>
+      <c r="E5">
+        <f>C5-D5</f>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>414500</v>
+      </c>
+      <c r="G5">
+        <f>D5-F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>414500</v>
+      </c>
+      <c r="I5">
+        <f>F5-H5</f>
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>410500</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="L5">
+        <v>410500</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>410500</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="3"/>
+        <v>15000</v>
+      </c>
+      <c r="Q5" s="2">
+        <f>P5/B5</f>
+        <v>3.7926675094816689E-2</v>
+      </c>
+      <c r="R5">
+        <f>C5-J5</f>
+        <v>4000</v>
+      </c>
+      <c r="S5" t="b">
+        <f>J5&lt;B5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6">
+        <v>443500</v>
+      </c>
+      <c r="C6">
+        <v>466500</v>
+      </c>
+      <c r="D6">
+        <v>466500</v>
+      </c>
+      <c r="E6">
+        <f>C6-D6</f>
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>466500</v>
+      </c>
+      <c r="G6">
+        <f>D6-F6</f>
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>466500</v>
+      </c>
+      <c r="I6">
+        <f>F6-H6</f>
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>465500</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="L6">
+        <v>465500</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>465500</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="3"/>
+        <v>22000</v>
+      </c>
+      <c r="Q6" s="2">
+        <f>P6/B6</f>
+        <v>4.96054114994363E-2</v>
+      </c>
+      <c r="R6">
+        <f>C6-J6</f>
+        <v>1000</v>
+      </c>
+      <c r="S6" t="b">
+        <f>J6&lt;B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7">
+        <v>418500</v>
+      </c>
+      <c r="C7">
+        <v>443500</v>
+      </c>
+      <c r="D7">
+        <v>443500</v>
+      </c>
+      <c r="E7">
+        <f>C7-D7</f>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>443500</v>
+      </c>
+      <c r="G7">
+        <f>D7-F7</f>
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>443500</v>
+      </c>
+      <c r="I7">
+        <f>F7-H7</f>
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>441000</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="L7">
+        <v>438500</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+      <c r="N7">
+        <v>438500</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="Q7" s="2">
+        <f>P7/B7</f>
+        <v>4.778972520908005E-2</v>
+      </c>
+      <c r="R7">
+        <f>C7-J7</f>
+        <v>2500</v>
+      </c>
+      <c r="S7" t="b">
+        <f>J7&lt;B7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B8">
+        <v>271000</v>
+      </c>
+      <c r="C8">
+        <v>287000</v>
+      </c>
+      <c r="D8">
+        <v>287000</v>
+      </c>
+      <c r="E8">
+        <f>C8-D8</f>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>287000</v>
+      </c>
+      <c r="G8">
+        <f>D8-F8</f>
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>287000</v>
+      </c>
+      <c r="I8">
+        <f>F8-H8</f>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>286000</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="L8">
+        <v>286000</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>286000</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="3"/>
+        <v>15000</v>
+      </c>
+      <c r="Q8" s="2">
+        <f>P8/B8</f>
+        <v>5.5350553505535055E-2</v>
+      </c>
+      <c r="R8">
+        <f>C8-J8</f>
+        <v>1000</v>
+      </c>
+      <c r="S8" t="b">
+        <f>J8&lt;B8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>137500</v>
+      </c>
+      <c r="C9">
+        <v>145000</v>
+      </c>
+      <c r="D9">
+        <v>145000</v>
+      </c>
+      <c r="E9">
+        <f>C9-D9</f>
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>145000</v>
+      </c>
+      <c r="G9">
+        <f>D9-F9</f>
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>145000</v>
+      </c>
+      <c r="I9">
+        <f>F9-H9</f>
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>145000</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>145000</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>145000</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>7500</v>
+      </c>
+      <c r="Q9" s="2">
+        <f>P9/B9</f>
+        <v>5.4545454545454543E-2</v>
+      </c>
+      <c r="R9">
+        <f>C9-J9</f>
+        <v>0</v>
+      </c>
+      <c r="S9" t="b">
+        <f>J9&lt;B9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10">
+        <v>396500</v>
+      </c>
+      <c r="C10">
+        <v>421000</v>
+      </c>
+      <c r="D10">
+        <v>419500</v>
+      </c>
+      <c r="E10">
+        <f>C10-D10</f>
+        <v>1500</v>
+      </c>
+      <c r="F10">
+        <v>419500</v>
+      </c>
+      <c r="G10">
+        <f>D10-F10</f>
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>419500</v>
+      </c>
+      <c r="I10">
+        <f>F10-H10</f>
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>419500</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>419500</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>419500</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="3"/>
+        <v>23000</v>
+      </c>
+      <c r="Q10" s="2">
+        <f>P10/B10</f>
+        <v>5.8007566204287514E-2</v>
+      </c>
+      <c r="R10">
+        <f>C10-J10</f>
+        <v>1500</v>
+      </c>
+      <c r="S10" t="b">
+        <f>J10&lt;B10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11">
+        <v>322000</v>
+      </c>
+      <c r="C11">
+        <v>341500</v>
+      </c>
+      <c r="D11">
+        <v>341500</v>
+      </c>
+      <c r="E11">
+        <f>C11-D11</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>341500</v>
+      </c>
+      <c r="G11">
+        <f>D11-F11</f>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>341500</v>
+      </c>
+      <c r="I11">
+        <f>F11-H11</f>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>338500</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="L11">
+        <v>338500</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>338500</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="3"/>
+        <v>16500</v>
+      </c>
+      <c r="Q11" s="2">
+        <f>P11/B11</f>
+        <v>5.124223602484472E-2</v>
+      </c>
+      <c r="R11">
+        <f>C11-J11</f>
+        <v>3000</v>
+      </c>
+      <c r="S11" t="b">
+        <f>J11&lt;B11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12">
+        <v>232500</v>
+      </c>
+      <c r="C12">
+        <v>245500</v>
+      </c>
+      <c r="D12">
+        <v>244000</v>
+      </c>
+      <c r="E12">
+        <f>C12-D12</f>
+        <v>1500</v>
+      </c>
+      <c r="F12">
+        <v>244000</v>
+      </c>
+      <c r="G12">
+        <f>D12-F12</f>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>244000</v>
+      </c>
+      <c r="I12">
+        <f>F12-H12</f>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>244000</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>244000</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>244000</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="3"/>
+        <v>11500</v>
+      </c>
+      <c r="Q12" s="2">
+        <f>P12/B12</f>
+        <v>4.9462365591397849E-2</v>
+      </c>
+      <c r="R12">
+        <f>C12-J12</f>
+        <v>1500</v>
+      </c>
+      <c r="S12" t="b">
+        <f>J12&lt;B12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13">
+        <v>297000</v>
+      </c>
+      <c r="C13">
+        <v>316500</v>
+      </c>
+      <c r="D13">
+        <v>316500</v>
+      </c>
+      <c r="E13">
+        <f>C13-D13</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>316500</v>
+      </c>
+      <c r="G13">
+        <f>D13-F13</f>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>316500</v>
+      </c>
+      <c r="I13">
+        <f>F13-H13</f>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>312500</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+      <c r="L13">
+        <v>312500</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>312500</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="3"/>
+        <v>15500</v>
+      </c>
+      <c r="Q13" s="2">
+        <f>P13/B13</f>
+        <v>5.2188552188552187E-2</v>
+      </c>
+      <c r="R13">
+        <f>C13-J13</f>
+        <v>4000</v>
+      </c>
+      <c r="S13" t="b">
+        <f>J13&lt;B13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14">
+        <v>275500</v>
+      </c>
+      <c r="C14">
+        <v>294000</v>
+      </c>
+      <c r="D14">
+        <v>294000</v>
+      </c>
+      <c r="E14">
+        <f>C14-D14</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>290000</v>
+      </c>
+      <c r="G14">
+        <f>D14-F14</f>
+        <v>4000</v>
+      </c>
+      <c r="H14">
+        <v>290000</v>
+      </c>
+      <c r="I14">
+        <f>F14-H14</f>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>290000</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>290000</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>290000</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="3"/>
+        <v>14500</v>
+      </c>
+      <c r="Q14" s="2">
+        <f>P14/B14</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="R14">
+        <f>C14-J14</f>
+        <v>4000</v>
+      </c>
+      <c r="S14" t="b">
+        <f>J14&lt;B14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15">
+        <v>192500</v>
+      </c>
+      <c r="C15">
+        <v>206500</v>
+      </c>
+      <c r="D15">
+        <v>206500</v>
+      </c>
+      <c r="E15">
+        <f>C15-D15</f>
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>205500</v>
+      </c>
+      <c r="G15">
+        <f>D15-F15</f>
+        <v>1000</v>
+      </c>
+      <c r="H15">
+        <v>205500</v>
+      </c>
+      <c r="I15">
+        <f>F15-H15</f>
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>204000</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="L15">
+        <v>204000</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>204000</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="3"/>
+        <v>11500</v>
+      </c>
+      <c r="Q15" s="2">
+        <f>P15/B15</f>
+        <v>5.9740259740259739E-2</v>
+      </c>
+      <c r="R15">
+        <f>C15-J15</f>
+        <v>2500</v>
+      </c>
+      <c r="S15" t="b">
+        <f>J15&lt;B15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16">
+        <v>255500</v>
+      </c>
+      <c r="C16">
+        <v>271000</v>
+      </c>
+      <c r="D16">
+        <v>271000</v>
+      </c>
+      <c r="E16">
+        <f>C16-D16</f>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>271000</v>
+      </c>
+      <c r="G16">
+        <f>D16-F16</f>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>271000</v>
+      </c>
+      <c r="I16">
+        <f>F16-H16</f>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>270000</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="L16">
+        <v>267000</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>3000</v>
+      </c>
+      <c r="N16">
+        <v>267000</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="3"/>
+        <v>11500</v>
+      </c>
+      <c r="Q16" s="2">
+        <f>P16/B16</f>
+        <v>4.5009784735812131E-2</v>
+      </c>
+      <c r="R16">
+        <f>C16-J16</f>
+        <v>1000</v>
+      </c>
+      <c r="S16" t="b">
+        <f>J16&lt;B16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>231500</v>
+      </c>
+      <c r="C17">
+        <v>245000</v>
+      </c>
+      <c r="D17">
+        <v>245000</v>
+      </c>
+      <c r="E17">
+        <f>C17-D17</f>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>245000</v>
+      </c>
+      <c r="G17">
+        <f>D17-F17</f>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>245000</v>
+      </c>
+      <c r="I17">
+        <f>F17-H17</f>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>245000</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>245000</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>245000</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="3"/>
+        <v>13500</v>
+      </c>
+      <c r="Q17" s="2">
+        <f>P17/B17</f>
+        <v>5.8315334773218146E-2</v>
+      </c>
+      <c r="R17">
+        <f>C17-J17</f>
+        <v>0</v>
+      </c>
+      <c r="S17" t="b">
+        <f>J17&lt;B17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18">
+        <v>282000</v>
+      </c>
+      <c r="C18">
+        <v>298000</v>
+      </c>
+      <c r="D18">
+        <v>298000</v>
+      </c>
+      <c r="E18">
+        <f>C18-D18</f>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>298000</v>
+      </c>
+      <c r="G18">
+        <f>D18-F18</f>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>298000</v>
+      </c>
+      <c r="I18">
+        <f>F18-H18</f>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>298000</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>298000</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>298000</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="3"/>
+        <v>16000</v>
+      </c>
+      <c r="Q18" s="2">
+        <f>P18/B18</f>
+        <v>5.6737588652482268E-2</v>
+      </c>
+      <c r="R18">
+        <f>C18-J18</f>
+        <v>0</v>
+      </c>
+      <c r="S18" t="b">
+        <f>J18&lt;B18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <v>133000</v>
+      </c>
+      <c r="C19">
+        <v>142000</v>
+      </c>
+      <c r="D19">
+        <v>142000</v>
+      </c>
+      <c r="E19">
+        <f>C19-D19</f>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>142000</v>
+      </c>
+      <c r="G19">
+        <f>D19-F19</f>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>142000</v>
+      </c>
+      <c r="I19">
+        <f>F19-H19</f>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>142000</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>142000</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>142000</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="Q19" s="2">
+        <f>P19/B19</f>
+        <v>6.7669172932330823E-2</v>
+      </c>
+      <c r="R19">
+        <f>C19-J19</f>
+        <v>0</v>
+      </c>
+      <c r="S19" t="b">
+        <f>J19&lt;B19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>197000</v>
+      </c>
+      <c r="C20">
+        <v>210000</v>
+      </c>
+      <c r="D20">
+        <v>210000</v>
+      </c>
+      <c r="E20">
+        <f>C20-D20</f>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>210000</v>
+      </c>
+      <c r="G20">
+        <f>D20-F20</f>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>210000</v>
+      </c>
+      <c r="I20">
+        <f>F20-H20</f>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>207500</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="L20">
+        <v>207500</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>207500</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="3"/>
+        <v>10500</v>
+      </c>
+      <c r="Q20" s="2">
+        <f>P20/B20</f>
+        <v>5.3299492385786802E-2</v>
+      </c>
+      <c r="R20">
+        <f>C20-J20</f>
+        <v>2500</v>
+      </c>
+      <c r="S20" t="b">
+        <f>J20&lt;B20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>363000</v>
+      </c>
+      <c r="C21">
+        <v>385500</v>
+      </c>
+      <c r="D21">
+        <v>385500</v>
+      </c>
+      <c r="E21">
+        <f>C21-D21</f>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>385500</v>
+      </c>
+      <c r="G21">
+        <f>D21-F21</f>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>382500</v>
+      </c>
+      <c r="I21">
+        <f>F21-H21</f>
+        <v>3000</v>
+      </c>
+      <c r="J21">
+        <v>382500</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>381500</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="N21">
+        <v>381500</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="3"/>
+        <v>18500</v>
+      </c>
+      <c r="Q21" s="2">
+        <f>P21/B21</f>
+        <v>5.0964187327823693E-2</v>
+      </c>
+      <c r="R21">
+        <f>C21-J21</f>
+        <v>3000</v>
+      </c>
+      <c r="S21" t="b">
+        <f>J21&lt;B21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22">
+        <v>435500</v>
+      </c>
+      <c r="C22">
+        <v>463000</v>
+      </c>
+      <c r="D22">
+        <v>463000</v>
+      </c>
+      <c r="E22">
+        <f>C22-D22</f>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>463000</v>
+      </c>
+      <c r="G22">
+        <f>D22-F22</f>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>463000</v>
+      </c>
+      <c r="I22">
+        <f>F22-H22</f>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>463000</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>459000</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>4000</v>
+      </c>
+      <c r="N22">
+        <v>459000</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="3"/>
+        <v>23500</v>
+      </c>
+      <c r="Q22" s="2">
+        <f>P22/B22</f>
+        <v>5.3960964408725602E-2</v>
+      </c>
+      <c r="R22">
+        <f>C22-J22</f>
+        <v>0</v>
+      </c>
+      <c r="S22" t="b">
+        <f>J22&lt;B22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23">
+        <v>207000</v>
+      </c>
+      <c r="C23">
+        <v>219000</v>
+      </c>
+      <c r="D23">
+        <v>219000</v>
+      </c>
+      <c r="E23">
+        <f>C23-D23</f>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>219000</v>
+      </c>
+      <c r="G23">
+        <f>D23-F23</f>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>219000</v>
+      </c>
+      <c r="I23">
+        <f>F23-H23</f>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>219000</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>219000</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>219000</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="Q23" s="2">
+        <f>P23/B23</f>
+        <v>5.7971014492753624E-2</v>
+      </c>
+      <c r="R23">
+        <f>C23-J23</f>
+        <v>0</v>
+      </c>
+      <c r="S23" t="b">
+        <f>J23&lt;B23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24">
+        <v>181500</v>
+      </c>
+      <c r="C24">
+        <v>197000</v>
+      </c>
+      <c r="D24">
+        <v>196500</v>
+      </c>
+      <c r="E24">
+        <f>C24-D24</f>
+        <v>500</v>
+      </c>
+      <c r="F24">
+        <v>194500</v>
+      </c>
+      <c r="G24">
+        <f>D24-F24</f>
+        <v>2000</v>
+      </c>
+      <c r="H24">
+        <v>194500</v>
+      </c>
+      <c r="I24">
+        <f>F24-H24</f>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>194500</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>194500</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>194500</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="3"/>
+        <v>13000</v>
+      </c>
+      <c r="Q24" s="2">
+        <f>P24/B24</f>
+        <v>7.1625344352617082E-2</v>
+      </c>
+      <c r="R24">
+        <f>C24-J24</f>
+        <v>2500</v>
+      </c>
+      <c r="S24" t="b">
+        <f>J24&lt;B24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>344500</v>
+      </c>
+      <c r="C25">
+        <v>364500</v>
+      </c>
+      <c r="D25">
+        <v>364500</v>
+      </c>
+      <c r="E25">
+        <f>C25-D25</f>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>364500</v>
+      </c>
+      <c r="G25">
+        <f>D25-F25</f>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>364500</v>
+      </c>
+      <c r="I25">
+        <f>F25-H25</f>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>364500</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>364500</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>364500</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="Q25" s="2">
+        <f>P25/B25</f>
+        <v>5.8055152394775038E-2</v>
+      </c>
+      <c r="R25">
+        <f>C25-J25</f>
+        <v>0</v>
+      </c>
+      <c r="S25" t="b">
+        <f>J25&lt;B25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26">
+        <v>183000</v>
+      </c>
+      <c r="C26">
+        <v>194000</v>
+      </c>
+      <c r="D26">
+        <v>194000</v>
+      </c>
+      <c r="E26">
+        <f>C26-D26</f>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>194000</v>
+      </c>
+      <c r="G26">
+        <f>D26-F26</f>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>194000</v>
+      </c>
+      <c r="I26">
+        <f>F26-H26</f>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>194000</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>194000</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>194000</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="3"/>
+        <v>11000</v>
+      </c>
+      <c r="Q26" s="2">
+        <f>P26/B26</f>
+        <v>6.0109289617486336E-2</v>
+      </c>
+      <c r="R26">
+        <f>C26-J26</f>
+        <v>0</v>
+      </c>
+      <c r="S26" t="b">
+        <f>J26&lt;B26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <v>163000</v>
+      </c>
+      <c r="C27">
+        <v>175000</v>
+      </c>
+      <c r="D27">
+        <v>175000</v>
+      </c>
+      <c r="E27">
+        <f>C27-D27</f>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>175000</v>
+      </c>
+      <c r="G27">
+        <f>D27-F27</f>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>173500</v>
+      </c>
+      <c r="I27">
+        <f>F27-H27</f>
+        <v>1500</v>
+      </c>
+      <c r="J27">
+        <v>173500</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>172000</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="N27">
+        <v>172000</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>9000</v>
+      </c>
+      <c r="Q27" s="2">
+        <f>P27/B27</f>
+        <v>5.5214723926380369E-2</v>
+      </c>
+      <c r="R27">
+        <f>C27-J27</f>
+        <v>1500</v>
+      </c>
+      <c r="S27" t="b">
+        <f>J27&lt;B27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28">
+        <v>224000</v>
+      </c>
+      <c r="C28">
+        <v>237000</v>
+      </c>
+      <c r="D28">
+        <v>237000</v>
+      </c>
+      <c r="E28">
+        <f>C28-D28</f>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>237000</v>
+      </c>
+      <c r="G28">
+        <f>D28-F28</f>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>237000</v>
+      </c>
+      <c r="I28">
+        <f>F28-H28</f>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>237000</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>237000</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>237000</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="3"/>
+        <v>13000</v>
+      </c>
+      <c r="Q28" s="2">
+        <f>P28/B28</f>
+        <v>5.8035714285714288E-2</v>
+      </c>
+      <c r="R28">
+        <f>C28-J28</f>
+        <v>0</v>
+      </c>
+      <c r="S28" t="b">
+        <f>J28&lt;B28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29">
+        <v>297500</v>
+      </c>
+      <c r="C29">
+        <v>317500</v>
+      </c>
+      <c r="D29">
+        <v>317500</v>
+      </c>
+      <c r="E29">
+        <f>C29-D29</f>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>317500</v>
+      </c>
+      <c r="G29">
+        <f>D29-F29</f>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>317500</v>
+      </c>
+      <c r="I29">
+        <f>F29-H29</f>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>317500</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>316500</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="N29">
+        <v>316500</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="3"/>
+        <v>19000</v>
+      </c>
+      <c r="Q29" s="2">
+        <f>P29/B29</f>
+        <v>6.386554621848739E-2</v>
+      </c>
+      <c r="R29">
+        <f>C29-J29</f>
+        <v>0</v>
+      </c>
+      <c r="S29" t="b">
+        <f>J29&lt;B29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>192500</v>
+      </c>
+      <c r="C30">
+        <v>208000</v>
+      </c>
+      <c r="D30">
+        <v>206500</v>
+      </c>
+      <c r="E30">
+        <f>C30-D30</f>
+        <v>1500</v>
+      </c>
+      <c r="F30">
+        <v>205000</v>
+      </c>
+      <c r="G30">
+        <f>D30-F30</f>
+        <v>1500</v>
+      </c>
+      <c r="H30">
+        <v>205000</v>
+      </c>
+      <c r="I30">
+        <f>F30-H30</f>
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>205000</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>205000</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>205000</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="3"/>
+        <v>12500</v>
+      </c>
+      <c r="Q30" s="2">
+        <f>P30/B30</f>
+        <v>6.4935064935064929E-2</v>
+      </c>
+      <c r="R30">
+        <f>C30-J30</f>
+        <v>3000</v>
+      </c>
+      <c r="S30" t="b">
+        <f>J30&lt;B30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31">
+        <v>136500</v>
+      </c>
+      <c r="C31">
+        <v>146500</v>
+      </c>
+      <c r="D31">
+        <v>146500</v>
+      </c>
+      <c r="E31">
+        <f>C31-D31</f>
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>145500</v>
+      </c>
+      <c r="G31">
+        <f>D31-F31</f>
+        <v>1000</v>
+      </c>
+      <c r="H31">
+        <v>145500</v>
+      </c>
+      <c r="I31">
+        <f>F31-H31</f>
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>144500</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="L31">
+        <v>144500</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>144500</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="3"/>
+        <v>8000</v>
+      </c>
+      <c r="Q31" s="2">
+        <f>P31/B31</f>
+        <v>5.8608058608058608E-2</v>
+      </c>
+      <c r="R31">
+        <f>C31-J31</f>
+        <v>2000</v>
+      </c>
+      <c r="S31" t="b">
+        <f>J31&lt;B31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32">
+        <v>256000</v>
+      </c>
+      <c r="C32">
+        <v>270000</v>
+      </c>
+      <c r="D32">
+        <v>270000</v>
+      </c>
+      <c r="E32">
+        <f>C32-D32</f>
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>270000</v>
+      </c>
+      <c r="G32">
+        <f>D32-F32</f>
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>270000</v>
+      </c>
+      <c r="I32">
+        <f>F32-H32</f>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>270000</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>269000</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="N32">
+        <v>269000</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="3"/>
+        <v>13000</v>
+      </c>
+      <c r="Q32" s="2">
+        <f>P32/B32</f>
+        <v>5.078125E-2</v>
+      </c>
+      <c r="R32">
+        <f>C32-J32</f>
+        <v>0</v>
+      </c>
+      <c r="S32" t="b">
+        <f>J32&lt;B32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33">
+        <v>325000</v>
+      </c>
+      <c r="C33">
+        <v>346000</v>
+      </c>
+      <c r="D33">
+        <v>345500</v>
+      </c>
+      <c r="E33">
+        <f>C33-D33</f>
+        <v>500</v>
+      </c>
+      <c r="F33">
+        <v>345500</v>
+      </c>
+      <c r="G33">
+        <f>D33-F33</f>
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>344500</v>
+      </c>
+      <c r="I33">
+        <f>F33-H33</f>
+        <v>1000</v>
+      </c>
+      <c r="J33">
+        <v>344000</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="L33">
+        <v>342000</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="N33">
+        <v>342000</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="3"/>
+        <v>17000</v>
+      </c>
+      <c r="Q33" s="2">
+        <f>P33/B33</f>
+        <v>5.2307692307692305E-2</v>
+      </c>
+      <c r="R33">
+        <f>C33-J33</f>
+        <v>2000</v>
+      </c>
+      <c r="S33" t="b">
+        <f>J33&lt;B33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34">
+        <v>163000</v>
+      </c>
+      <c r="C34">
+        <v>174500</v>
+      </c>
+      <c r="D34">
+        <v>174500</v>
+      </c>
+      <c r="E34">
+        <f>C34-D34</f>
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>174500</v>
+      </c>
+      <c r="G34">
+        <f>D34-F34</f>
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>174500</v>
+      </c>
+      <c r="I34">
+        <f>F34-H34</f>
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>174000</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="L34">
+        <v>172500</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="N34">
+        <v>172500</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="3"/>
+        <v>9500</v>
+      </c>
+      <c r="Q34" s="2">
+        <f>P34/B34</f>
+        <v>5.8282208588957052E-2</v>
+      </c>
+      <c r="R34">
+        <f>C34-J34</f>
+        <v>500</v>
+      </c>
+      <c r="S34" t="b">
+        <f>J34&lt;B34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35">
+        <v>304500</v>
+      </c>
+      <c r="C35">
+        <v>321000</v>
+      </c>
+      <c r="D35">
+        <v>321000</v>
+      </c>
+      <c r="E35">
+        <f>C35-D35</f>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>321000</v>
+      </c>
+      <c r="G35">
+        <f>D35-F35</f>
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>321000</v>
+      </c>
+      <c r="I35">
+        <f>F35-H35</f>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>321000</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>321000</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>321000</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="3"/>
+        <v>16500</v>
+      </c>
+      <c r="Q35" s="2">
+        <f>P35/B35</f>
+        <v>5.4187192118226604E-2</v>
+      </c>
+      <c r="R35">
+        <f>C35-J35</f>
+        <v>0</v>
+      </c>
+      <c r="S35" t="b">
+        <f>J35&lt;B35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36">
+        <v>180500</v>
+      </c>
+      <c r="C36">
+        <v>191000</v>
+      </c>
+      <c r="D36">
+        <v>191000</v>
+      </c>
+      <c r="E36">
+        <f>C36-D36</f>
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>191000</v>
+      </c>
+      <c r="G36">
+        <f>D36-F36</f>
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>191000</v>
+      </c>
+      <c r="I36">
+        <f>F36-H36</f>
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>191000</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>191000</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>191000</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="3"/>
+        <v>10500</v>
+      </c>
+      <c r="Q36" s="2">
+        <f>P36/B36</f>
+        <v>5.817174515235457E-2</v>
+      </c>
+      <c r="R36">
+        <f>C36-J36</f>
+        <v>0</v>
+      </c>
+      <c r="S36" t="b">
+        <f>J36&lt;B36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37">
+        <v>362000</v>
+      </c>
+      <c r="C37">
+        <v>383500</v>
+      </c>
+      <c r="D37">
+        <v>383500</v>
+      </c>
+      <c r="E37">
+        <f>C37-D37</f>
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>383500</v>
+      </c>
+      <c r="G37">
+        <f>D37-F37</f>
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>383500</v>
+      </c>
+      <c r="I37">
+        <f>F37-H37</f>
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>383500</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>383500</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>382000</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="Q37" s="2">
+        <f>P37/B37</f>
+        <v>5.5248618784530384E-2</v>
+      </c>
+      <c r="R37">
+        <f>C37-J37</f>
+        <v>0</v>
+      </c>
+      <c r="S37" t="b">
+        <f>J37&lt;B37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38">
+        <v>458500</v>
+      </c>
+      <c r="C38">
+        <v>485000</v>
+      </c>
+      <c r="D38">
+        <v>485000</v>
+      </c>
+      <c r="E38">
+        <f>C38-D38</f>
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>485000</v>
+      </c>
+      <c r="G38">
+        <f>D38-F38</f>
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>485000</v>
+      </c>
+      <c r="I38">
+        <f>F38-H38</f>
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>485000</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>485000</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>485000</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="3"/>
+        <v>26500</v>
+      </c>
+      <c r="Q38" s="2">
+        <f>P38/B38</f>
+        <v>5.7797164667393673E-2</v>
+      </c>
+      <c r="R38">
+        <f>C38-J38</f>
+        <v>0</v>
+      </c>
+      <c r="S38" t="b">
+        <f>J38&lt;B38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="B39">
+        <v>484500</v>
+      </c>
+      <c r="C39">
+        <v>515000</v>
+      </c>
+      <c r="D39">
+        <v>515000</v>
+      </c>
+      <c r="E39">
+        <f>C39-D39</f>
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>515000</v>
+      </c>
+      <c r="G39">
+        <f>D39-F39</f>
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>510500</v>
+      </c>
+      <c r="I39">
+        <f>F39-H39</f>
+        <v>4500</v>
+      </c>
+      <c r="J39">
+        <v>510500</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>510500</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>510500</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="3"/>
+        <v>26000</v>
+      </c>
+      <c r="Q39" s="2">
+        <f>P39/B39</f>
+        <v>5.3663570691434466E-2</v>
+      </c>
+      <c r="R39">
+        <f>C39-J39</f>
+        <v>4500</v>
+      </c>
+      <c r="S39" t="b">
+        <f>J39&lt;B39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40">
+        <v>321500</v>
+      </c>
+      <c r="C40">
+        <v>343000</v>
+      </c>
+      <c r="D40">
+        <v>343000</v>
+      </c>
+      <c r="E40">
+        <f>C40-D40</f>
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>343000</v>
+      </c>
+      <c r="G40">
+        <f>D40-F40</f>
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>343000</v>
+      </c>
+      <c r="I40">
+        <f>F40-H40</f>
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>340000</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="L40">
+        <v>338500</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="N40">
+        <v>338500</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="3"/>
+        <v>17000</v>
+      </c>
+      <c r="Q40" s="2">
+        <f>P40/B40</f>
+        <v>5.2877138413685847E-2</v>
+      </c>
+      <c r="R40">
+        <f>C40-J40</f>
+        <v>3000</v>
+      </c>
+      <c r="S40" t="b">
+        <f>J40&lt;B40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41">
+        <v>199500</v>
+      </c>
+      <c r="C41">
+        <v>217000</v>
+      </c>
+      <c r="D41">
+        <v>216000</v>
+      </c>
+      <c r="E41">
+        <f>C41-D41</f>
+        <v>1000</v>
+      </c>
+      <c r="F41">
+        <v>216000</v>
+      </c>
+      <c r="G41">
+        <f>D41-F41</f>
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>216000</v>
+      </c>
+      <c r="I41">
+        <f>F41-H41</f>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>212500</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="L41">
+        <v>212500</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>212500</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="3"/>
+        <v>13000</v>
+      </c>
+      <c r="Q41" s="2">
+        <f>P41/B41</f>
+        <v>6.5162907268170422E-2</v>
+      </c>
+      <c r="R41">
+        <f>C41-J41</f>
+        <v>4500</v>
+      </c>
+      <c r="S41" t="b">
+        <f>J41&lt;B41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B42">
+        <v>427000</v>
+      </c>
+      <c r="C42">
+        <v>451500</v>
+      </c>
+      <c r="D42">
+        <v>451500</v>
+      </c>
+      <c r="E42">
+        <f>C42-D42</f>
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>451500</v>
+      </c>
+      <c r="G42">
+        <f>D42-F42</f>
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>451500</v>
+      </c>
+      <c r="I42">
+        <f>F42-H42</f>
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>449000</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="L42">
+        <v>449000</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>449000</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="3"/>
+        <v>22000</v>
+      </c>
+      <c r="Q42" s="2">
+        <f>P42/B42</f>
+        <v>5.1522248243559721E-2</v>
+      </c>
+      <c r="R42">
+        <f>C42-J42</f>
+        <v>2500</v>
+      </c>
+      <c r="S42" t="b">
+        <f>J42&lt;B42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43">
+        <v>276500</v>
+      </c>
+      <c r="C43">
+        <v>296000</v>
+      </c>
+      <c r="D43">
+        <v>296000</v>
+      </c>
+      <c r="E43">
+        <f>C43-D43</f>
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>296000</v>
+      </c>
+      <c r="G43">
+        <f>D43-F43</f>
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>294500</v>
+      </c>
+      <c r="I43">
+        <f>F43-H43</f>
+        <v>1500</v>
+      </c>
+      <c r="J43">
+        <v>288500</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="L43">
+        <v>288500</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>288500</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="Q43" s="2">
+        <f>P43/B43</f>
+        <v>4.3399638336347197E-2</v>
+      </c>
+      <c r="R43">
+        <f>C43-J43</f>
+        <v>7500</v>
+      </c>
+      <c r="S43" t="b">
+        <f>J43&lt;B43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44">
+        <v>287500</v>
+      </c>
+      <c r="C44">
+        <v>306500</v>
+      </c>
+      <c r="D44">
+        <v>306500</v>
+      </c>
+      <c r="E44">
+        <f>C44-D44</f>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>306500</v>
+      </c>
+      <c r="G44">
+        <f>D44-F44</f>
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>306500</v>
+      </c>
+      <c r="I44">
+        <f>F44-H44</f>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>306500</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>306500</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>306500</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="3"/>
+        <v>19000</v>
+      </c>
+      <c r="Q44" s="2">
+        <f>P44/B44</f>
+        <v>6.6086956521739126E-2</v>
+      </c>
+      <c r="R44">
+        <f>C44-J44</f>
+        <v>0</v>
+      </c>
+      <c r="S44" t="b">
+        <f>J44&lt;B44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45">
+        <v>139000</v>
+      </c>
+      <c r="C45">
+        <v>147500</v>
+      </c>
+      <c r="D45">
+        <v>147500</v>
+      </c>
+      <c r="E45">
+        <f>C45-D45</f>
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>146000</v>
+      </c>
+      <c r="G45">
+        <f>D45-F45</f>
+        <v>1500</v>
+      </c>
+      <c r="H45">
+        <v>146000</v>
+      </c>
+      <c r="I45">
+        <f>F45-H45</f>
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>146000</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>146000</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>146000</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="3"/>
+        <v>7000</v>
+      </c>
+      <c r="Q45" s="2">
+        <f>P45/B45</f>
+        <v>5.0359712230215826E-2</v>
+      </c>
+      <c r="R45">
+        <f>C45-J45</f>
+        <v>1500</v>
+      </c>
+      <c r="S45" t="b">
+        <f>J45&lt;B45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>81</v>
+      </c>
+      <c r="B46">
+        <v>262500</v>
+      </c>
+      <c r="C46">
+        <v>277500</v>
+      </c>
+      <c r="D46">
+        <v>277500</v>
+      </c>
+      <c r="E46">
+        <f>C46-D46</f>
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>277500</v>
+      </c>
+      <c r="G46">
+        <f>D46-F46</f>
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>277500</v>
+      </c>
+      <c r="I46">
+        <f>F46-H46</f>
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>275500</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="L46">
+        <v>275500</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>275500</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="3"/>
+        <v>13000</v>
+      </c>
+      <c r="Q46" s="2">
+        <f>P46/B46</f>
+        <v>4.9523809523809526E-2</v>
+      </c>
+      <c r="R46">
+        <f>C46-J46</f>
+        <v>2000</v>
+      </c>
+      <c r="S46" t="b">
+        <f>J46&lt;B46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>82</v>
+      </c>
+      <c r="B47">
+        <v>237500</v>
+      </c>
+      <c r="C47">
+        <v>254000</v>
+      </c>
+      <c r="D47">
+        <v>254000</v>
+      </c>
+      <c r="E47">
+        <f>C47-D47</f>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>252500</v>
+      </c>
+      <c r="G47">
+        <f>D47-F47</f>
+        <v>1500</v>
+      </c>
+      <c r="H47">
+        <v>252500</v>
+      </c>
+      <c r="I47">
+        <f>F47-H47</f>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>250000</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="L47">
+        <v>250000</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>250000</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="3"/>
+        <v>12500</v>
+      </c>
+      <c r="Q47" s="2">
+        <f>P47/B47</f>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="R47">
+        <f>C47-J47</f>
+        <v>4000</v>
+      </c>
+      <c r="S47" t="b">
+        <f>J47&lt;B47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>83</v>
+      </c>
+      <c r="B48">
+        <v>218500</v>
+      </c>
+      <c r="C48">
+        <v>233000</v>
+      </c>
+      <c r="D48">
+        <v>233000</v>
+      </c>
+      <c r="E48">
+        <f>C48-D48</f>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>233000</v>
+      </c>
+      <c r="G48">
+        <f>D48-F48</f>
+        <v>0</v>
+      </c>
+      <c r="H48">
+        <v>233000</v>
+      </c>
+      <c r="I48">
+        <f>F48-H48</f>
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>233000</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>233000</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>233000</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="3"/>
+        <v>14500</v>
+      </c>
+      <c r="Q48" s="2">
+        <f>P48/B48</f>
+        <v>6.6361556064073221E-2</v>
+      </c>
+      <c r="R48">
+        <f>C48-J48</f>
+        <v>0</v>
+      </c>
+      <c r="S48" t="b">
+        <f>J48&lt;B48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49">
+        <v>397500</v>
+      </c>
+      <c r="C49">
+        <v>422500</v>
+      </c>
+      <c r="D49">
+        <v>422500</v>
+      </c>
+      <c r="E49">
+        <f>C49-D49</f>
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>421000</v>
+      </c>
+      <c r="G49">
+        <f>D49-F49</f>
+        <v>1500</v>
+      </c>
+      <c r="H49">
+        <v>421000</v>
+      </c>
+      <c r="I49">
+        <f>F49-H49</f>
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>421000</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>421000</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>421000</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P49">
+        <f t="shared" si="3"/>
+        <v>23500</v>
+      </c>
+      <c r="Q49" s="2">
+        <f>P49/B49</f>
+        <v>5.9119496855345913E-2</v>
+      </c>
+      <c r="R49">
+        <f>C49-J49</f>
+        <v>1500</v>
+      </c>
+      <c r="S49" t="b">
+        <f>J49&lt;B49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B50">
+        <v>367000</v>
+      </c>
+      <c r="C50">
+        <v>392500</v>
+      </c>
+      <c r="D50">
+        <v>390500</v>
+      </c>
+      <c r="E50">
+        <f>C50-D50</f>
+        <v>2000</v>
+      </c>
+      <c r="F50">
+        <v>390500</v>
+      </c>
+      <c r="G50">
+        <f>D50-F50</f>
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>390500</v>
+      </c>
+      <c r="I50">
+        <f>F50-H50</f>
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>387000</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="L50">
+        <v>387000</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>387000</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P50">
+        <f t="shared" si="3"/>
+        <v>20000</v>
+      </c>
+      <c r="Q50" s="2">
+        <f>P50/B50</f>
+        <v>5.4495912806539509E-2</v>
+      </c>
+      <c r="R50">
+        <f>C50-J50</f>
+        <v>5500</v>
+      </c>
+      <c r="S50" t="b">
+        <f>J50&lt;B50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51">
+        <v>274000</v>
+      </c>
+      <c r="C51">
+        <v>291000</v>
+      </c>
+      <c r="D51">
+        <v>289500</v>
+      </c>
+      <c r="E51">
+        <f>C51-D51</f>
+        <v>1500</v>
+      </c>
+      <c r="F51">
+        <v>289500</v>
+      </c>
+      <c r="G51">
+        <f>D51-F51</f>
+        <v>0</v>
+      </c>
+      <c r="H51">
+        <v>289500</v>
+      </c>
+      <c r="I51">
+        <f>F51-H51</f>
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>289500</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>289500</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>289500</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P51">
+        <f t="shared" si="3"/>
+        <v>15500</v>
+      </c>
+      <c r="Q51" s="2">
+        <f>P51/B51</f>
+        <v>5.6569343065693431E-2</v>
+      </c>
+      <c r="R51">
+        <f>C51-J51</f>
+        <v>1500</v>
+      </c>
+      <c r="S51" t="b">
+        <f>J51&lt;B51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52">
+        <v>243000</v>
+      </c>
+      <c r="C52">
+        <v>259000</v>
+      </c>
+      <c r="D52">
+        <v>259000</v>
+      </c>
+      <c r="E52">
+        <f>C52-D52</f>
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>259000</v>
+      </c>
+      <c r="G52">
+        <f>D52-F52</f>
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>259000</v>
+      </c>
+      <c r="I52">
+        <f>F52-H52</f>
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>259000</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>259000</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>257500</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="P52">
+        <f t="shared" si="3"/>
+        <v>14500</v>
+      </c>
+      <c r="Q52" s="2">
+        <f>P52/B52</f>
+        <v>5.9670781893004114E-2</v>
+      </c>
+      <c r="R52">
+        <f>C52-J52</f>
+        <v>0</v>
+      </c>
+      <c r="S52" t="b">
+        <f>J52&lt;B52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53">
+        <v>409000</v>
+      </c>
+      <c r="C53">
+        <v>434000</v>
+      </c>
+      <c r="D53">
+        <v>432500</v>
+      </c>
+      <c r="E53">
+        <f>C53-D53</f>
+        <v>1500</v>
+      </c>
+      <c r="F53">
+        <v>432500</v>
+      </c>
+      <c r="G53">
+        <f>D53-F53</f>
+        <v>0</v>
+      </c>
+      <c r="H53">
+        <v>432500</v>
+      </c>
+      <c r="I53">
+        <f>F53-H53</f>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <v>432500</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>432500</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>432500</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P53">
+        <f t="shared" si="3"/>
+        <v>23500</v>
+      </c>
+      <c r="Q53" s="2">
+        <f>P53/B53</f>
+        <v>5.7457212713936431E-2</v>
+      </c>
+      <c r="R53">
+        <f>C53-J53</f>
+        <v>1500</v>
+      </c>
+      <c r="S53" t="b">
+        <f>J53&lt;B53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>89</v>
+      </c>
+      <c r="B54">
+        <v>130500</v>
+      </c>
+      <c r="C54">
+        <v>139000</v>
+      </c>
+      <c r="D54">
+        <v>139000</v>
+      </c>
+      <c r="E54">
+        <f>C54-D54</f>
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>139000</v>
+      </c>
+      <c r="G54">
+        <f>D54-F54</f>
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>139000</v>
+      </c>
+      <c r="I54">
+        <f>F54-H54</f>
+        <v>0</v>
+      </c>
+      <c r="J54">
+        <v>139000</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>139000</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>139000</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P54">
+        <f t="shared" si="3"/>
+        <v>8500</v>
+      </c>
+      <c r="Q54" s="2">
+        <f>P54/B54</f>
+        <v>6.5134099616858232E-2</v>
+      </c>
+      <c r="R54">
+        <f>C54-J54</f>
+        <v>0</v>
+      </c>
+      <c r="S54" t="b">
+        <f>J54&lt;B54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B55">
+        <v>272000</v>
+      </c>
+      <c r="C55">
+        <v>289500</v>
+      </c>
+      <c r="D55">
+        <v>289500</v>
+      </c>
+      <c r="E55">
+        <f>C55-D55</f>
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>289500</v>
+      </c>
+      <c r="G55">
+        <f>D55-F55</f>
+        <v>0</v>
+      </c>
+      <c r="H55">
+        <v>289500</v>
+      </c>
+      <c r="I55">
+        <f>F55-H55</f>
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>289000</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="L55">
+        <v>284000</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="1"/>
+        <v>5000</v>
+      </c>
+      <c r="N55">
+        <v>284000</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P55">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+      <c r="Q55" s="2">
+        <f>P55/B55</f>
+        <v>4.4117647058823532E-2</v>
+      </c>
+      <c r="R55">
+        <f>C55-J55</f>
+        <v>500</v>
+      </c>
+      <c r="S55" t="b">
+        <f>J55&lt;B55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56">
+        <v>114500</v>
+      </c>
+      <c r="C56">
+        <v>124000</v>
+      </c>
+      <c r="D56">
+        <v>123500</v>
+      </c>
+      <c r="E56">
+        <f>C56-D56</f>
+        <v>500</v>
+      </c>
+      <c r="F56">
+        <v>121500</v>
+      </c>
+      <c r="G56">
+        <f>D56-F56</f>
+        <v>2000</v>
+      </c>
+      <c r="H56">
+        <v>121000</v>
+      </c>
+      <c r="I56">
+        <f>F56-H56</f>
+        <v>500</v>
+      </c>
+      <c r="J56">
+        <v>121000</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>121000</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>121000</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <f t="shared" si="3"/>
+        <v>6500</v>
+      </c>
+      <c r="Q56" s="2">
+        <f>P56/B56</f>
+        <v>5.6768558951965066E-2</v>
+      </c>
+      <c r="R56">
+        <f>C56-J56</f>
+        <v>3000</v>
+      </c>
+      <c r="S56" t="b">
+        <f>J56&lt;B56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B57">
+        <v>268000</v>
+      </c>
+      <c r="C57">
+        <v>287500</v>
+      </c>
+      <c r="D57">
+        <v>285000</v>
+      </c>
+      <c r="E57">
+        <f>C57-D57</f>
+        <v>2500</v>
+      </c>
+      <c r="F57">
+        <v>284000</v>
+      </c>
+      <c r="G57">
+        <f>D57-F57</f>
+        <v>1000</v>
+      </c>
+      <c r="H57">
+        <v>284000</v>
+      </c>
+      <c r="I57">
+        <f>F57-H57</f>
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>284000</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>284000</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>284000</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <f t="shared" si="3"/>
+        <v>16000</v>
+      </c>
+      <c r="Q57" s="2">
+        <f>P57/B57</f>
+        <v>5.9701492537313432E-2</v>
+      </c>
+      <c r="R57">
+        <f>C57-J57</f>
+        <v>3500</v>
+      </c>
+      <c r="S57" t="b">
+        <f>J57&lt;B57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>93</v>
+      </c>
+      <c r="B58">
+        <v>397500</v>
+      </c>
+      <c r="C58">
+        <v>421500</v>
+      </c>
+      <c r="D58">
+        <v>421500</v>
+      </c>
+      <c r="E58">
+        <f>C58-D58</f>
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>420500</v>
+      </c>
+      <c r="G58">
+        <f>D58-F58</f>
+        <v>1000</v>
+      </c>
+      <c r="H58">
+        <v>420500</v>
+      </c>
+      <c r="I58">
+        <f>F58-H58</f>
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>420000</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="L58">
+        <v>420000</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>420000</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <f t="shared" si="3"/>
+        <v>22500</v>
+      </c>
+      <c r="Q58" s="2">
+        <f>P58/B58</f>
+        <v>5.6603773584905662E-2</v>
+      </c>
+      <c r="R58">
+        <f>C58-J58</f>
+        <v>1500</v>
+      </c>
+      <c r="S58" t="b">
+        <f>J58&lt;B58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59">
+        <v>291000</v>
+      </c>
+      <c r="C59">
+        <v>308500</v>
+      </c>
+      <c r="D59">
+        <v>308500</v>
+      </c>
+      <c r="E59">
+        <f>C59-D59</f>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>308500</v>
+      </c>
+      <c r="G59">
+        <f>D59-F59</f>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <v>308500</v>
+      </c>
+      <c r="I59">
+        <f>F59-H59</f>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>308500</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>308500</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>308500</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <f t="shared" si="3"/>
+        <v>17500</v>
+      </c>
+      <c r="Q59" s="2">
+        <f>P59/B59</f>
+        <v>6.0137457044673541E-2</v>
+      </c>
+      <c r="R59">
+        <f>C59-J59</f>
+        <v>0</v>
+      </c>
+      <c r="S59" t="b">
+        <f>J59&lt;B59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>95</v>
+      </c>
+      <c r="B60">
+        <v>140500</v>
+      </c>
+      <c r="C60">
+        <v>151500</v>
+      </c>
+      <c r="D60">
+        <v>150000</v>
+      </c>
+      <c r="E60">
+        <f>C60-D60</f>
+        <v>1500</v>
+      </c>
+      <c r="F60">
+        <v>149000</v>
+      </c>
+      <c r="G60">
+        <f>D60-F60</f>
+        <v>1000</v>
+      </c>
+      <c r="H60">
+        <v>149000</v>
+      </c>
+      <c r="I60">
+        <f>F60-H60</f>
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>149000</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>149000</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>149000</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P60">
+        <f t="shared" si="3"/>
+        <v>8500</v>
+      </c>
+      <c r="Q60" s="2">
+        <f>P60/B60</f>
+        <v>6.0498220640569395E-2</v>
+      </c>
+      <c r="R60">
+        <f>C60-J60</f>
+        <v>2500</v>
+      </c>
+      <c r="S60" t="b">
+        <f>J60&lt;B60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>96</v>
+      </c>
+      <c r="B61">
+        <v>325000</v>
+      </c>
+      <c r="C61">
+        <v>345500</v>
+      </c>
+      <c r="D61">
+        <v>345500</v>
+      </c>
+      <c r="E61">
+        <f>C61-D61</f>
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>345500</v>
+      </c>
+      <c r="G61">
+        <f>D61-F61</f>
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>345500</v>
+      </c>
+      <c r="I61">
+        <f>F61-H61</f>
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>345500</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>345500</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>345500</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <f t="shared" si="3"/>
+        <v>20500</v>
+      </c>
+      <c r="Q61" s="2">
+        <f>P61/B61</f>
+        <v>6.3076923076923072E-2</v>
+      </c>
+      <c r="R61">
+        <f>C61-J61</f>
+        <v>0</v>
+      </c>
+      <c r="S61" t="b">
+        <f>J61&lt;B61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>97</v>
+      </c>
+      <c r="B62">
+        <v>299000</v>
+      </c>
+      <c r="C62">
+        <v>319000</v>
+      </c>
+      <c r="D62">
+        <v>319000</v>
+      </c>
+      <c r="E62">
+        <f>C62-D62</f>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>319000</v>
+      </c>
+      <c r="G62">
+        <f>D62-F62</f>
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>319000</v>
+      </c>
+      <c r="I62">
+        <f>F62-H62</f>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>313000</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="L62">
+        <v>313000</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>313000</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P62">
+        <f t="shared" si="3"/>
+        <v>14000</v>
+      </c>
+      <c r="Q62" s="2">
+        <f>P62/B62</f>
+        <v>4.6822742474916385E-2</v>
+      </c>
+      <c r="R62">
+        <f>C62-J62</f>
+        <v>6000</v>
+      </c>
+      <c r="S62" t="b">
+        <f>J62&lt;B62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>98</v>
+      </c>
+      <c r="B63">
+        <v>321000</v>
+      </c>
+      <c r="C63">
+        <v>341000</v>
+      </c>
+      <c r="D63">
+        <v>341000</v>
+      </c>
+      <c r="E63">
+        <f>C63-D63</f>
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>341000</v>
+      </c>
+      <c r="G63">
+        <f>D63-F63</f>
+        <v>0</v>
+      </c>
+      <c r="H63">
+        <v>340000</v>
+      </c>
+      <c r="I63">
+        <f>F63-H63</f>
+        <v>1000</v>
+      </c>
+      <c r="J63">
+        <v>340000</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>340000</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>338000</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="2"/>
+        <v>2000</v>
+      </c>
+      <c r="P63">
+        <f t="shared" si="3"/>
+        <v>17000</v>
+      </c>
+      <c r="Q63" s="2">
+        <f>P63/B63</f>
+        <v>5.2959501557632398E-2</v>
+      </c>
+      <c r="R63">
+        <f>C63-J63</f>
+        <v>1000</v>
+      </c>
+      <c r="S63" t="b">
+        <f>J63&lt;B63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>99</v>
+      </c>
+      <c r="B64">
+        <v>391000</v>
+      </c>
+      <c r="C64">
+        <v>415500</v>
+      </c>
+      <c r="D64">
+        <v>415500</v>
+      </c>
+      <c r="E64">
+        <f>C64-D64</f>
+        <v>0</v>
+      </c>
+      <c r="F64">
+        <v>415500</v>
+      </c>
+      <c r="G64">
+        <f>D64-F64</f>
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>413500</v>
+      </c>
+      <c r="I64">
+        <f>F64-H64</f>
+        <v>2000</v>
+      </c>
+      <c r="J64">
+        <v>413500</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>413500</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>413500</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <f t="shared" si="3"/>
+        <v>22500</v>
+      </c>
+      <c r="Q64" s="2">
+        <f>P64/B64</f>
+        <v>5.754475703324808E-2</v>
+      </c>
+      <c r="R64">
+        <f>C64-J64</f>
+        <v>2000</v>
+      </c>
+      <c r="S64" t="b">
+        <f>J64&lt;B64</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65">
+        <v>214000</v>
+      </c>
+      <c r="C65">
+        <v>230000</v>
+      </c>
+      <c r="D65">
+        <v>230000</v>
+      </c>
+      <c r="E65">
+        <f>C65-D65</f>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>229500</v>
+      </c>
+      <c r="G65">
+        <f>D65-F65</f>
+        <v>500</v>
+      </c>
+      <c r="H65">
+        <v>229500</v>
+      </c>
+      <c r="I65">
+        <f>F65-H65</f>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>229500</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>229500</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>229500</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <f t="shared" si="3"/>
+        <v>15500</v>
+      </c>
+      <c r="Q65" s="2">
+        <f>P65/B65</f>
+        <v>7.2429906542056069E-2</v>
+      </c>
+      <c r="R65">
+        <f>C65-J65</f>
+        <v>500</v>
+      </c>
+      <c r="S65" t="b">
+        <f>J65&lt;B65</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>101</v>
+      </c>
+      <c r="B66">
+        <v>406500</v>
+      </c>
+      <c r="C66">
+        <v>433500</v>
+      </c>
+      <c r="D66">
+        <v>433500</v>
+      </c>
+      <c r="E66">
+        <f>C66-D66</f>
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>433500</v>
+      </c>
+      <c r="G66">
+        <f>D66-F66</f>
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>433500</v>
+      </c>
+      <c r="I66">
+        <f>F66-H66</f>
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>433000</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="L66">
+        <v>431000</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="N66">
+        <v>431000</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <f t="shared" si="3"/>
+        <v>24500</v>
+      </c>
+      <c r="Q66" s="2">
+        <f>P66/B66</f>
+        <v>6.0270602706027063E-2</v>
+      </c>
+      <c r="R66">
+        <f>C66-J66</f>
+        <v>500</v>
+      </c>
+      <c r="S66" t="b">
+        <f>J66&lt;B66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67">
+        <v>463500</v>
+      </c>
+      <c r="C67">
+        <v>494000</v>
+      </c>
+      <c r="D67">
+        <v>491500</v>
+      </c>
+      <c r="E67">
+        <f>C67-D67</f>
+        <v>2500</v>
+      </c>
+      <c r="F67">
+        <v>491500</v>
+      </c>
+      <c r="G67">
+        <f>D67-F67</f>
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>488000</v>
+      </c>
+      <c r="I67">
+        <f>F67-H67</f>
+        <v>3500</v>
+      </c>
+      <c r="J67">
+        <v>488000</v>
+      </c>
+      <c r="K67">
+        <f t="shared" ref="K67:K101" si="4">H67-J67</f>
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>488000</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M101" si="5">J67-L67</f>
+        <v>0</v>
+      </c>
+      <c r="N67">
+        <v>488000</v>
+      </c>
+      <c r="O67">
+        <f t="shared" ref="O67:O101" si="6">L67-N67</f>
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <f t="shared" ref="P67:P101" si="7">N67-B67</f>
+        <v>24500</v>
+      </c>
+      <c r="Q67" s="2">
+        <f>P67/B67</f>
+        <v>5.2858683926645091E-2</v>
+      </c>
+      <c r="R67">
+        <f>C67-J67</f>
+        <v>6000</v>
+      </c>
+      <c r="S67" t="b">
+        <f>J67&lt;B67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>103</v>
+      </c>
+      <c r="B68">
+        <v>245000</v>
+      </c>
+      <c r="C68">
+        <v>259500</v>
+      </c>
+      <c r="D68">
+        <v>259500</v>
+      </c>
+      <c r="E68">
+        <f>C68-D68</f>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>259500</v>
+      </c>
+      <c r="G68">
+        <f>D68-F68</f>
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>259500</v>
+      </c>
+      <c r="I68">
+        <f>F68-H68</f>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>255000</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="4"/>
+        <v>4500</v>
+      </c>
+      <c r="L68">
+        <v>255000</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>255000</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <f t="shared" si="7"/>
+        <v>10000</v>
+      </c>
+      <c r="Q68" s="2">
+        <f>P68/B68</f>
+        <v>4.0816326530612242E-2</v>
+      </c>
+      <c r="R68">
+        <f>C68-J68</f>
+        <v>4500</v>
+      </c>
+      <c r="S68" t="b">
+        <f>J68&lt;B68</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69">
+        <v>360500</v>
+      </c>
+      <c r="C69">
+        <v>381000</v>
+      </c>
+      <c r="D69">
+        <v>381000</v>
+      </c>
+      <c r="E69">
+        <f>C69-D69</f>
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>381000</v>
+      </c>
+      <c r="G69">
+        <f>D69-F69</f>
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>381000</v>
+      </c>
+      <c r="I69">
+        <f>F69-H69</f>
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>381000</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>381000</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>381000</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <f t="shared" si="7"/>
+        <v>20500</v>
+      </c>
+      <c r="Q69" s="2">
+        <f>P69/B69</f>
+        <v>5.6865464632454926E-2</v>
+      </c>
+      <c r="R69">
+        <f>C69-J69</f>
+        <v>0</v>
+      </c>
+      <c r="S69" t="b">
+        <f>J69&lt;B69</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>105</v>
+      </c>
+      <c r="B70">
+        <v>453000</v>
+      </c>
+      <c r="C70">
+        <v>481500</v>
+      </c>
+      <c r="D70">
+        <v>481500</v>
+      </c>
+      <c r="E70">
+        <f>C70-D70</f>
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>479500</v>
+      </c>
+      <c r="G70">
+        <f>D70-F70</f>
+        <v>2000</v>
+      </c>
+      <c r="H70">
+        <v>479500</v>
+      </c>
+      <c r="I70">
+        <f>F70-H70</f>
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>479500</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>479500</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>479500</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <f t="shared" si="7"/>
+        <v>26500</v>
+      </c>
+      <c r="Q70" s="2">
+        <f>P70/B70</f>
+        <v>5.8498896247240618E-2</v>
+      </c>
+      <c r="R70">
+        <f>C70-J70</f>
+        <v>2000</v>
+      </c>
+      <c r="S70" t="b">
+        <f>J70&lt;B70</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>106</v>
+      </c>
+      <c r="B71">
+        <v>220500</v>
+      </c>
+      <c r="C71">
+        <v>235500</v>
+      </c>
+      <c r="D71">
+        <v>235500</v>
+      </c>
+      <c r="E71">
+        <f>C71-D71</f>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>235500</v>
+      </c>
+      <c r="G71">
+        <f>D71-F71</f>
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>235500</v>
+      </c>
+      <c r="I71">
+        <f>F71-H71</f>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>234500</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="L71">
+        <v>234500</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N71">
+        <v>234500</v>
+      </c>
+      <c r="O71">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P71">
+        <f t="shared" si="7"/>
+        <v>14000</v>
+      </c>
+      <c r="Q71" s="2">
+        <f>P71/B71</f>
+        <v>6.3492063492063489E-2</v>
+      </c>
+      <c r="R71">
+        <f>C71-J71</f>
+        <v>1000</v>
+      </c>
+      <c r="S71" t="b">
+        <f>J71&lt;B71</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>107</v>
+      </c>
+      <c r="B72">
+        <v>337500</v>
+      </c>
+      <c r="C72">
+        <v>359000</v>
+      </c>
+      <c r="D72">
+        <v>359000</v>
+      </c>
+      <c r="E72">
+        <f>C72-D72</f>
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>359000</v>
+      </c>
+      <c r="G72">
+        <f>D72-F72</f>
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>359000</v>
+      </c>
+      <c r="I72">
+        <f>F72-H72</f>
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>353500</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="4"/>
+        <v>5500</v>
+      </c>
+      <c r="L72">
+        <v>352000</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="5"/>
+        <v>1500</v>
+      </c>
+      <c r="N72">
+        <v>352000</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P72">
+        <f t="shared" si="7"/>
+        <v>14500</v>
+      </c>
+      <c r="Q72" s="2">
+        <f>P72/B72</f>
+        <v>4.296296296296296E-2</v>
+      </c>
+      <c r="R72">
+        <f>C72-J72</f>
+        <v>5500</v>
+      </c>
+      <c r="S72" t="b">
+        <f>J72&lt;B72</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>108</v>
+      </c>
+      <c r="B73">
+        <v>267000</v>
+      </c>
+      <c r="C73">
+        <v>286000</v>
+      </c>
+      <c r="D73">
+        <v>286000</v>
+      </c>
+      <c r="E73">
+        <f>C73-D73</f>
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>285000</v>
+      </c>
+      <c r="G73">
+        <f>D73-F73</f>
+        <v>1000</v>
+      </c>
+      <c r="H73">
+        <v>285000</v>
+      </c>
+      <c r="I73">
+        <f>F73-H73</f>
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>285000</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>285000</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>282500</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="6"/>
+        <v>2500</v>
+      </c>
+      <c r="P73">
+        <f t="shared" si="7"/>
+        <v>15500</v>
+      </c>
+      <c r="Q73" s="2">
+        <f>P73/B73</f>
+        <v>5.8052434456928842E-2</v>
+      </c>
+      <c r="R73">
+        <f>C73-J73</f>
+        <v>1000</v>
+      </c>
+      <c r="S73" t="b">
+        <f>J73&lt;B73</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>109</v>
+      </c>
+      <c r="B74">
+        <v>441000</v>
+      </c>
+      <c r="C74">
+        <v>469500</v>
+      </c>
+      <c r="D74">
+        <v>468500</v>
+      </c>
+      <c r="E74">
+        <f>C74-D74</f>
+        <v>1000</v>
+      </c>
+      <c r="F74">
+        <v>468500</v>
+      </c>
+      <c r="G74">
+        <f>D74-F74</f>
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>468500</v>
+      </c>
+      <c r="I74">
+        <f>F74-H74</f>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>465500</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="L74">
+        <v>465500</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>465500</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P74">
+        <f t="shared" si="7"/>
+        <v>24500</v>
+      </c>
+      <c r="Q74" s="2">
+        <f>P74/B74</f>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="R74">
+        <f>C74-J74</f>
+        <v>4000</v>
+      </c>
+      <c r="S74" t="b">
+        <f>J74&lt;B74</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>110</v>
+      </c>
+      <c r="B75">
+        <v>353000</v>
+      </c>
+      <c r="C75">
+        <v>372000</v>
+      </c>
+      <c r="D75">
+        <v>372000</v>
+      </c>
+      <c r="E75">
+        <f>C75-D75</f>
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>372000</v>
+      </c>
+      <c r="G75">
+        <f>D75-F75</f>
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>372000</v>
+      </c>
+      <c r="I75">
+        <f>F75-H75</f>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <v>369500</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="L75">
+        <v>369500</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>369500</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <f t="shared" si="7"/>
+        <v>16500</v>
+      </c>
+      <c r="Q75" s="2">
+        <f>P75/B75</f>
+        <v>4.6742209631728045E-2</v>
+      </c>
+      <c r="R75">
+        <f>C75-J75</f>
+        <v>2500</v>
+      </c>
+      <c r="S75" t="b">
+        <f>J75&lt;B75</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76">
+        <v>218000</v>
+      </c>
+      <c r="C76">
+        <v>235500</v>
+      </c>
+      <c r="D76">
+        <v>234500</v>
+      </c>
+      <c r="E76">
+        <f>C76-D76</f>
+        <v>1000</v>
+      </c>
+      <c r="F76">
+        <v>234500</v>
+      </c>
+      <c r="G76">
+        <f>D76-F76</f>
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>234500</v>
+      </c>
+      <c r="I76">
+        <f>F76-H76</f>
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>234500</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>234500</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>231000</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="6"/>
+        <v>3500</v>
+      </c>
+      <c r="P76">
+        <f t="shared" si="7"/>
+        <v>13000</v>
+      </c>
+      <c r="Q76" s="2">
+        <f>P76/B76</f>
+        <v>5.9633027522935783E-2</v>
+      </c>
+      <c r="R76">
+        <f>C76-J76</f>
+        <v>1000</v>
+      </c>
+      <c r="S76" t="b">
+        <f>J76&lt;B76</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>112</v>
+      </c>
+      <c r="B77">
+        <v>274500</v>
+      </c>
+      <c r="C77">
+        <v>292500</v>
+      </c>
+      <c r="D77">
+        <v>292500</v>
+      </c>
+      <c r="E77">
+        <f>C77-D77</f>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>292500</v>
+      </c>
+      <c r="G77">
+        <f>D77-F77</f>
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>292500</v>
+      </c>
+      <c r="I77">
+        <f>F77-H77</f>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>290000</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="L77">
+        <v>288500</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="5"/>
+        <v>1500</v>
+      </c>
+      <c r="N77">
+        <v>288500</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P77">
+        <f t="shared" si="7"/>
+        <v>14000</v>
+      </c>
+      <c r="Q77" s="2">
+        <f>P77/B77</f>
+        <v>5.1001821493624776E-2</v>
+      </c>
+      <c r="R77">
+        <f>C77-J77</f>
+        <v>2500</v>
+      </c>
+      <c r="S77" t="b">
+        <f>J77&lt;B77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78">
+        <v>339000</v>
+      </c>
+      <c r="C78">
+        <v>358000</v>
+      </c>
+      <c r="D78">
+        <v>358000</v>
+      </c>
+      <c r="E78">
+        <f>C78-D78</f>
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>358000</v>
+      </c>
+      <c r="G78">
+        <f>D78-F78</f>
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>358000</v>
+      </c>
+      <c r="I78">
+        <f>F78-H78</f>
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>358000</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>358000</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>358000</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <f t="shared" si="7"/>
+        <v>19000</v>
+      </c>
+      <c r="Q78" s="2">
+        <f>P78/B78</f>
+        <v>5.6047197640117993E-2</v>
+      </c>
+      <c r="R78">
+        <f>C78-J78</f>
+        <v>0</v>
+      </c>
+      <c r="S78" t="b">
+        <f>J78&lt;B78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79">
+        <v>319000</v>
+      </c>
+      <c r="C79">
+        <v>342000</v>
+      </c>
+      <c r="D79">
+        <v>342000</v>
+      </c>
+      <c r="E79">
+        <f>C79-D79</f>
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>339000</v>
+      </c>
+      <c r="G79">
+        <f>D79-F79</f>
+        <v>3000</v>
+      </c>
+      <c r="H79">
+        <v>339000</v>
+      </c>
+      <c r="I79">
+        <f>F79-H79</f>
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>336500</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="4"/>
+        <v>2500</v>
+      </c>
+      <c r="L79">
+        <v>336500</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>336500</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <f t="shared" si="7"/>
+        <v>17500</v>
+      </c>
+      <c r="Q79" s="2">
+        <f>P79/B79</f>
+        <v>5.4858934169278999E-2</v>
+      </c>
+      <c r="R79">
+        <f>C79-J79</f>
+        <v>5500</v>
+      </c>
+      <c r="S79" t="b">
+        <f>J79&lt;B79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>115</v>
+      </c>
+      <c r="B80">
+        <v>309000</v>
+      </c>
+      <c r="C80">
+        <v>327000</v>
+      </c>
+      <c r="D80">
+        <v>327000</v>
+      </c>
+      <c r="E80">
+        <f>C80-D80</f>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>327000</v>
+      </c>
+      <c r="G80">
+        <f>D80-F80</f>
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>327000</v>
+      </c>
+      <c r="I80">
+        <f>F80-H80</f>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>326500</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="4"/>
+        <v>500</v>
+      </c>
+      <c r="L80">
+        <v>326500</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>326500</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P80">
+        <f t="shared" si="7"/>
+        <v>17500</v>
+      </c>
+      <c r="Q80" s="2">
+        <f>P80/B80</f>
+        <v>5.6634304207119741E-2</v>
+      </c>
+      <c r="R80">
+        <f>C80-J80</f>
+        <v>500</v>
+      </c>
+      <c r="S80" t="b">
+        <f>J80&lt;B80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81">
+        <v>485500</v>
+      </c>
+      <c r="C81">
+        <v>511000</v>
+      </c>
+      <c r="D81">
+        <v>511000</v>
+      </c>
+      <c r="E81">
+        <f>C81-D81</f>
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>511000</v>
+      </c>
+      <c r="G81">
+        <f>D81-F81</f>
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>511000</v>
+      </c>
+      <c r="I81">
+        <f>F81-H81</f>
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>507500</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="4"/>
+        <v>3500</v>
+      </c>
+      <c r="L81">
+        <v>507500</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>507500</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P81">
+        <f t="shared" si="7"/>
+        <v>22000</v>
+      </c>
+      <c r="Q81" s="2">
+        <f>P81/B81</f>
+        <v>4.5314109165808442E-2</v>
+      </c>
+      <c r="R81">
+        <f>C81-J81</f>
+        <v>3500</v>
+      </c>
+      <c r="S81" t="b">
+        <f>J81&lt;B81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82">
+        <v>228000</v>
+      </c>
+      <c r="C82">
+        <v>243000</v>
+      </c>
+      <c r="D82">
+        <v>243000</v>
+      </c>
+      <c r="E82">
+        <f>C82-D82</f>
+        <v>0</v>
+      </c>
+      <c r="F82">
+        <v>243000</v>
+      </c>
+      <c r="G82">
+        <f>D82-F82</f>
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>243000</v>
+      </c>
+      <c r="I82">
+        <f>F82-H82</f>
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>243000</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>242000</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="N82">
+        <v>242000</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P82">
+        <f t="shared" si="7"/>
+        <v>14000</v>
+      </c>
+      <c r="Q82" s="2">
+        <f>P82/B82</f>
+        <v>6.1403508771929821E-2</v>
+      </c>
+      <c r="R82">
+        <f>C82-J82</f>
+        <v>0</v>
+      </c>
+      <c r="S82" t="b">
+        <f>J82&lt;B82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>118</v>
+      </c>
+      <c r="B83">
+        <v>157500</v>
+      </c>
+      <c r="C83">
+        <v>170000</v>
+      </c>
+      <c r="D83">
+        <v>170000</v>
+      </c>
+      <c r="E83">
+        <f>C83-D83</f>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>170000</v>
+      </c>
+      <c r="G83">
+        <f>D83-F83</f>
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>170000</v>
+      </c>
+      <c r="I83">
+        <f>F83-H83</f>
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>166000</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="4"/>
+        <v>4000</v>
+      </c>
+      <c r="L83">
+        <v>166000</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>166000</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P83">
+        <f t="shared" si="7"/>
+        <v>8500</v>
+      </c>
+      <c r="Q83" s="2">
+        <f>P83/B83</f>
+        <v>5.3968253968253971E-2</v>
+      </c>
+      <c r="R83">
+        <f>C83-J83</f>
+        <v>4000</v>
+      </c>
+      <c r="S83" t="b">
+        <f>J83&lt;B83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>119</v>
+      </c>
+      <c r="B84">
+        <v>204000</v>
+      </c>
+      <c r="C84">
+        <v>219000</v>
+      </c>
+      <c r="D84">
+        <v>219000</v>
+      </c>
+      <c r="E84">
+        <f>C84-D84</f>
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>217500</v>
+      </c>
+      <c r="G84">
+        <f>D84-F84</f>
+        <v>1500</v>
+      </c>
+      <c r="H84">
+        <v>217500</v>
+      </c>
+      <c r="I84">
+        <f>F84-H84</f>
+        <v>0</v>
+      </c>
+      <c r="J84">
+        <v>216500</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="L84">
+        <v>215500</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="N84">
+        <v>215500</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P84">
+        <f t="shared" si="7"/>
+        <v>11500</v>
+      </c>
+      <c r="Q84" s="2">
+        <f>P84/B84</f>
+        <v>5.6372549019607844E-2</v>
+      </c>
+      <c r="R84">
+        <f>C84-J84</f>
+        <v>2500</v>
+      </c>
+      <c r="S84" t="b">
+        <f>J84&lt;B84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85">
+        <v>160500</v>
+      </c>
+      <c r="C85">
+        <v>172000</v>
+      </c>
+      <c r="D85">
+        <v>172000</v>
+      </c>
+      <c r="E85">
+        <f>C85-D85</f>
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>172000</v>
+      </c>
+      <c r="G85">
+        <f>D85-F85</f>
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>172000</v>
+      </c>
+      <c r="I85">
+        <f>F85-H85</f>
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>169000</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="L85">
+        <v>169000</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>169000</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P85">
+        <f t="shared" si="7"/>
+        <v>8500</v>
+      </c>
+      <c r="Q85" s="2">
+        <f>P85/B85</f>
+        <v>5.2959501557632398E-2</v>
+      </c>
+      <c r="R85">
+        <f>C85-J85</f>
+        <v>3000</v>
+      </c>
+      <c r="S85" t="b">
+        <f>J85&lt;B85</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86">
+        <v>452000</v>
+      </c>
+      <c r="C86">
+        <v>478500</v>
+      </c>
+      <c r="D86">
+        <v>478500</v>
+      </c>
+      <c r="E86">
+        <f>C86-D86</f>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>478500</v>
+      </c>
+      <c r="G86">
+        <f>D86-F86</f>
+        <v>0</v>
+      </c>
+      <c r="H86">
+        <v>478500</v>
+      </c>
+      <c r="I86">
+        <f>F86-H86</f>
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>476500</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="4"/>
+        <v>2000</v>
+      </c>
+      <c r="L86">
+        <v>476500</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>476500</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P86">
+        <f t="shared" si="7"/>
+        <v>24500</v>
+      </c>
+      <c r="Q86" s="2">
+        <f>P86/B86</f>
+        <v>5.4203539823008851E-2</v>
+      </c>
+      <c r="R86">
+        <f>C86-J86</f>
+        <v>2000</v>
+      </c>
+      <c r="S86" t="b">
+        <f>J86&lt;B86</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87">
+        <v>430000</v>
+      </c>
+      <c r="C87">
+        <v>460000</v>
+      </c>
+      <c r="D87">
+        <v>458000</v>
+      </c>
+      <c r="E87">
+        <f>C87-D87</f>
+        <v>2000</v>
+      </c>
+      <c r="F87">
+        <v>453000</v>
+      </c>
+      <c r="G87">
+        <f>D87-F87</f>
+        <v>5000</v>
+      </c>
+      <c r="H87">
+        <v>453000</v>
+      </c>
+      <c r="I87">
+        <f>F87-H87</f>
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>453000</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>453000</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N87">
+        <v>453000</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P87">
+        <f t="shared" si="7"/>
+        <v>23000</v>
+      </c>
+      <c r="Q87" s="2">
+        <f>P87/B87</f>
+        <v>5.3488372093023255E-2</v>
+      </c>
+      <c r="R87">
+        <f>C87-J87</f>
+        <v>7000</v>
+      </c>
+      <c r="S87" t="b">
+        <f>J87&lt;B87</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88">
+        <v>366000</v>
+      </c>
+      <c r="C88">
+        <v>386500</v>
+      </c>
+      <c r="D88">
+        <v>386500</v>
+      </c>
+      <c r="E88">
+        <f>C88-D88</f>
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>386500</v>
+      </c>
+      <c r="G88">
+        <f>D88-F88</f>
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>386500</v>
+      </c>
+      <c r="I88">
+        <f>F88-H88</f>
+        <v>0</v>
+      </c>
+      <c r="J88">
+        <v>383500</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="4"/>
+        <v>3000</v>
+      </c>
+      <c r="L88">
+        <v>383500</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>383500</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P88">
+        <f t="shared" si="7"/>
+        <v>17500</v>
+      </c>
+      <c r="Q88" s="2">
+        <f>P88/B88</f>
+        <v>4.7814207650273222E-2</v>
+      </c>
+      <c r="R88">
+        <f>C88-J88</f>
+        <v>3000</v>
+      </c>
+      <c r="S88" t="b">
+        <f>J88&lt;B88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89">
+        <v>222000</v>
+      </c>
+      <c r="C89">
+        <v>240000</v>
+      </c>
+      <c r="D89">
+        <v>240000</v>
+      </c>
+      <c r="E89">
+        <f>C89-D89</f>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>240000</v>
+      </c>
+      <c r="G89">
+        <f>D89-F89</f>
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>240000</v>
+      </c>
+      <c r="I89">
+        <f>F89-H89</f>
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <v>239000</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="4"/>
+        <v>1000</v>
+      </c>
+      <c r="L89">
+        <v>239000</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>239000</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P89">
+        <f t="shared" si="7"/>
+        <v>17000</v>
+      </c>
+      <c r="Q89" s="2">
+        <f>P89/B89</f>
+        <v>7.6576576576576572E-2</v>
+      </c>
+      <c r="R89">
+        <f>C89-J89</f>
+        <v>1000</v>
+      </c>
+      <c r="S89" t="b">
+        <f>J89&lt;B89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>125</v>
+      </c>
+      <c r="B90">
+        <v>496000</v>
+      </c>
+      <c r="C90">
+        <v>527500</v>
+      </c>
+      <c r="D90">
+        <v>526000</v>
+      </c>
+      <c r="E90">
+        <f>C90-D90</f>
+        <v>1500</v>
+      </c>
+      <c r="F90">
+        <v>523500</v>
+      </c>
+      <c r="G90">
+        <f>D90-F90</f>
+        <v>2500</v>
+      </c>
+      <c r="H90">
+        <v>523500</v>
+      </c>
+      <c r="I90">
+        <f>F90-H90</f>
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>523500</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>523500</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>523500</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P90">
+        <f t="shared" si="7"/>
+        <v>27500</v>
+      </c>
+      <c r="Q90" s="2">
+        <f>P90/B90</f>
+        <v>5.5443548387096774E-2</v>
+      </c>
+      <c r="R90">
+        <f>C90-J90</f>
+        <v>4000</v>
+      </c>
+      <c r="S90" t="b">
+        <f>J90&lt;B90</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91">
+        <v>339500</v>
+      </c>
+      <c r="C91">
+        <v>360500</v>
+      </c>
+      <c r="D91">
+        <v>360500</v>
+      </c>
+      <c r="E91">
+        <f>C91-D91</f>
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>360500</v>
+      </c>
+      <c r="G91">
+        <f>D91-F91</f>
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>360500</v>
+      </c>
+      <c r="I91">
+        <f>F91-H91</f>
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>360500</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>360500</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N91">
+        <v>360500</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <f t="shared" si="7"/>
+        <v>21000</v>
+      </c>
+      <c r="Q91" s="2">
+        <f>P91/B91</f>
+        <v>6.1855670103092786E-2</v>
+      </c>
+      <c r="R91">
+        <f>C91-J91</f>
+        <v>0</v>
+      </c>
+      <c r="S91" t="b">
+        <f>J91&lt;B91</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>127</v>
+      </c>
+      <c r="B92">
+        <v>142000</v>
+      </c>
+      <c r="C92">
+        <v>152000</v>
+      </c>
+      <c r="D92">
+        <v>149500</v>
+      </c>
+      <c r="E92">
+        <f>C92-D92</f>
+        <v>2500</v>
+      </c>
+      <c r="F92">
+        <v>149500</v>
+      </c>
+      <c r="G92">
+        <f>D92-F92</f>
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>149500</v>
+      </c>
+      <c r="I92">
+        <f>F92-H92</f>
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <v>149500</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>149500</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>149500</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <f t="shared" si="7"/>
+        <v>7500</v>
+      </c>
+      <c r="Q92" s="2">
+        <f>P92/B92</f>
+        <v>5.2816901408450703E-2</v>
+      </c>
+      <c r="R92">
+        <f>C92-J92</f>
+        <v>2500</v>
+      </c>
+      <c r="S92" t="b">
+        <f>J92&lt;B92</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>128</v>
+      </c>
+      <c r="B93">
+        <v>254500</v>
+      </c>
+      <c r="C93">
+        <v>272000</v>
+      </c>
+      <c r="D93">
+        <v>272000</v>
+      </c>
+      <c r="E93">
+        <f>C93-D93</f>
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>272000</v>
+      </c>
+      <c r="G93">
+        <f>D93-F93</f>
+        <v>0</v>
+      </c>
+      <c r="H93">
+        <v>272000</v>
+      </c>
+      <c r="I93">
+        <f>F93-H93</f>
+        <v>0</v>
+      </c>
+      <c r="J93">
+        <v>270500</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="L93">
+        <v>270500</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>270500</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P93">
+        <f t="shared" si="7"/>
+        <v>16000</v>
+      </c>
+      <c r="Q93" s="2">
+        <f>P93/B93</f>
+        <v>6.2868369351669937E-2</v>
+      </c>
+      <c r="R93">
+        <f>C93-J93</f>
+        <v>1500</v>
+      </c>
+      <c r="S93" t="b">
+        <f>J93&lt;B93</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>129</v>
+      </c>
+      <c r="B94">
+        <v>323500</v>
+      </c>
+      <c r="C94">
+        <v>345000</v>
+      </c>
+      <c r="D94">
+        <v>345000</v>
+      </c>
+      <c r="E94">
+        <f>C94-D94</f>
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>345000</v>
+      </c>
+      <c r="G94">
+        <f>D94-F94</f>
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>345000</v>
+      </c>
+      <c r="I94">
+        <f>F94-H94</f>
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>345000</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>344000</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="N94">
+        <v>342000</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="6"/>
+        <v>2000</v>
+      </c>
+      <c r="P94">
+        <f t="shared" si="7"/>
+        <v>18500</v>
+      </c>
+      <c r="Q94" s="2">
+        <f>P94/B94</f>
+        <v>5.7187017001545597E-2</v>
+      </c>
+      <c r="R94">
+        <f>C94-J94</f>
+        <v>0</v>
+      </c>
+      <c r="S94" t="b">
+        <f>J94&lt;B94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>130</v>
+      </c>
+      <c r="B95">
+        <v>323000</v>
+      </c>
+      <c r="C95">
+        <v>344000</v>
+      </c>
+      <c r="D95">
+        <v>344000</v>
+      </c>
+      <c r="E95">
+        <f>C95-D95</f>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <v>343000</v>
+      </c>
+      <c r="G95">
+        <f>D95-F95</f>
+        <v>1000</v>
+      </c>
+      <c r="H95">
+        <v>343000</v>
+      </c>
+      <c r="I95">
+        <f>F95-H95</f>
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>343000</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>343000</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>342500</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="6"/>
+        <v>500</v>
+      </c>
+      <c r="P95">
+        <f t="shared" si="7"/>
+        <v>19500</v>
+      </c>
+      <c r="Q95" s="2">
+        <f>P95/B95</f>
+        <v>6.037151702786378E-2</v>
+      </c>
+      <c r="R95">
+        <f>C95-J95</f>
+        <v>1000</v>
+      </c>
+      <c r="S95" t="b">
+        <f>J95&lt;B95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>131</v>
+      </c>
+      <c r="B96">
+        <v>436000</v>
+      </c>
+      <c r="C96">
+        <v>465000</v>
+      </c>
+      <c r="D96">
+        <v>465000</v>
+      </c>
+      <c r="E96">
+        <f>C96-D96</f>
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>461000</v>
+      </c>
+      <c r="G96">
+        <f>D96-F96</f>
+        <v>4000</v>
+      </c>
+      <c r="H96">
+        <v>461000</v>
+      </c>
+      <c r="I96">
+        <f>F96-H96</f>
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>452000</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="4"/>
+        <v>9000</v>
+      </c>
+      <c r="L96">
+        <v>452000</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>452000</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P96">
+        <f t="shared" si="7"/>
+        <v>16000</v>
+      </c>
+      <c r="Q96" s="2">
+        <f>P96/B96</f>
+        <v>3.669724770642202E-2</v>
+      </c>
+      <c r="R96">
+        <f>C96-J96</f>
+        <v>13000</v>
+      </c>
+      <c r="S96" t="b">
+        <f>J96&lt;B96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97">
+        <v>359000</v>
+      </c>
+      <c r="C97">
+        <v>378500</v>
+      </c>
+      <c r="D97">
+        <v>378500</v>
+      </c>
+      <c r="E97">
+        <f>C97-D97</f>
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>378500</v>
+      </c>
+      <c r="G97">
+        <f>D97-F97</f>
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>378500</v>
+      </c>
+      <c r="I97">
+        <f>F97-H97</f>
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>378500</v>
+      </c>
+      <c r="K97">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>378500</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>378500</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P97">
+        <f t="shared" si="7"/>
+        <v>19500</v>
+      </c>
+      <c r="Q97" s="2">
+        <f>P97/B97</f>
+        <v>5.4317548746518104E-2</v>
+      </c>
+      <c r="R97">
+        <f>C97-J97</f>
+        <v>0</v>
+      </c>
+      <c r="S97" t="b">
+        <f>J97&lt;B97</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>133</v>
+      </c>
+      <c r="B98">
+        <v>186000</v>
+      </c>
+      <c r="C98">
+        <v>197500</v>
+      </c>
+      <c r="D98">
+        <v>196500</v>
+      </c>
+      <c r="E98">
+        <f>C98-D98</f>
+        <v>1000</v>
+      </c>
+      <c r="F98">
+        <v>196500</v>
+      </c>
+      <c r="G98">
+        <f>D98-F98</f>
+        <v>0</v>
+      </c>
+      <c r="H98">
+        <v>196500</v>
+      </c>
+      <c r="I98">
+        <f>F98-H98</f>
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>196500</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>196500</v>
+      </c>
+      <c r="M98">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>196500</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P98">
+        <f t="shared" si="7"/>
+        <v>10500</v>
+      </c>
+      <c r="Q98" s="2">
+        <f>P98/B98</f>
+        <v>5.6451612903225805E-2</v>
+      </c>
+      <c r="R98">
+        <f>C98-J98</f>
+        <v>1000</v>
+      </c>
+      <c r="S98" t="b">
+        <f>J98&lt;B98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>134</v>
+      </c>
+      <c r="B99">
+        <v>338000</v>
+      </c>
+      <c r="C99">
+        <v>362000</v>
+      </c>
+      <c r="D99">
+        <v>362000</v>
+      </c>
+      <c r="E99">
+        <f>C99-D99</f>
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>362000</v>
+      </c>
+      <c r="G99">
+        <f>D99-F99</f>
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>354500</v>
+      </c>
+      <c r="I99">
+        <f>F99-H99</f>
+        <v>7500</v>
+      </c>
+      <c r="J99">
+        <v>354500</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>354500</v>
+      </c>
+      <c r="M99">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>354500</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P99">
+        <f t="shared" si="7"/>
+        <v>16500</v>
+      </c>
+      <c r="Q99" s="2">
+        <f>P99/B99</f>
+        <v>4.8816568047337278E-2</v>
+      </c>
+      <c r="R99">
+        <f>C99-J99</f>
+        <v>7500</v>
+      </c>
+      <c r="S99" t="b">
+        <f>J99&lt;B99</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>135</v>
+      </c>
+      <c r="B100">
+        <v>264000</v>
+      </c>
+      <c r="C100">
+        <v>282500</v>
+      </c>
+      <c r="D100">
+        <v>282500</v>
+      </c>
+      <c r="E100">
+        <f>C100-D100</f>
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>282500</v>
+      </c>
+      <c r="G100">
+        <f>D100-F100</f>
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>282500</v>
+      </c>
+      <c r="I100">
+        <f>F100-H100</f>
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>282500</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>282500</v>
+      </c>
+      <c r="M100">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N100">
+        <v>281000</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="P100">
+        <f t="shared" si="7"/>
+        <v>17000</v>
+      </c>
+      <c r="Q100" s="2">
+        <f>P100/B100</f>
+        <v>6.4393939393939392E-2</v>
+      </c>
+      <c r="R100">
+        <f>C100-J100</f>
+        <v>0</v>
+      </c>
+      <c r="S100" t="b">
+        <f>J100&lt;B100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>136</v>
+      </c>
+      <c r="B101">
+        <v>318000</v>
+      </c>
+      <c r="C101">
+        <v>340000</v>
+      </c>
+      <c r="D101">
+        <v>340000</v>
+      </c>
+      <c r="E101">
+        <f>C101-D101</f>
+        <v>0</v>
+      </c>
+      <c r="F101">
+        <v>339000</v>
+      </c>
+      <c r="G101">
+        <f>D101-F101</f>
+        <v>1000</v>
+      </c>
+      <c r="H101">
+        <v>339000</v>
+      </c>
+      <c r="I101">
+        <f>F101-H101</f>
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>334500</v>
+      </c>
+      <c r="K101">
+        <f t="shared" si="4"/>
+        <v>4500</v>
+      </c>
+      <c r="L101">
+        <v>334500</v>
+      </c>
+      <c r="M101">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>334500</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P101">
+        <f t="shared" si="7"/>
+        <v>16500</v>
+      </c>
+      <c r="Q101" s="2">
+        <f>P101/B101</f>
+        <v>5.1886792452830191E-2</v>
+      </c>
+      <c r="R101">
+        <f>C101-J101</f>
+        <v>5500</v>
+      </c>
+      <c r="S101" t="b">
+        <f>J101&lt;B101</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1:Q1 E1:E101 S1:S101">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -5626,5 +12724,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/comparacio_quali_minima_sol_fitxers_prova.xlsx
+++ b/comparacio_quali_minima_sol_fitxers_prova.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maria\Desktop\MASTER\_Q3cuc\MÈTODES QUANTITATIUS D'ORGANITZACIÓ INDUSTRIAL II\Treball d'avaluació\Entrega parcial del programa informàtic\program_parcial\mqoi2-algo-parcial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3272F823-0340-4320-B5E7-E51624ACE7A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D38C20A-98F7-4B36-87DB-94AD4CF730CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="2" xr2:uid="{DD10B349-A6DC-41D0-A261-0581506FDB24}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="252">
   <si>
     <t>0*1*0*1</t>
   </si>
@@ -780,6 +780,9 @@
   </si>
   <si>
     <t>dif millo post + millor h3</t>
+  </si>
+  <si>
+    <t>3 aleat</t>
   </si>
 </sst>
 </file>
@@ -787,7 +790,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="0.000%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -837,7 +840,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -5724,10 +5727,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8042EF6E-2447-4D2F-8411-0E2466629B25}">
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5744,10 +5747,11 @@
     <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="10.140625" customWidth="1"/>
+    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>137</v>
       </c>
@@ -5797,16 +5801,20 @@
         <v>236</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="T1" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="U1" s="3" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -5820,21 +5828,21 @@
         <v>376000</v>
       </c>
       <c r="E2">
-        <f>C2-D2</f>
+        <f t="shared" ref="E2:E33" si="0">C2-D2</f>
         <v>1500</v>
       </c>
       <c r="F2">
         <v>376000</v>
       </c>
       <c r="G2">
-        <f>D2-F2</f>
+        <f t="shared" ref="G2:G33" si="1">D2-F2</f>
         <v>0</v>
       </c>
       <c r="H2">
         <v>376000</v>
       </c>
       <c r="I2">
-        <f>F2-H2</f>
+        <f t="shared" ref="I2:I33" si="2">F2-H2</f>
         <v>0</v>
       </c>
       <c r="J2">
@@ -5862,20 +5870,27 @@
         <f>N2-B2</f>
         <v>17500</v>
       </c>
-      <c r="Q2" s="2">
-        <f>P2/B2</f>
+      <c r="Q2">
+        <v>374000</v>
+      </c>
+      <c r="R2">
+        <f>N2-Q2</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <f t="shared" ref="S2:S33" si="3">P2/B2</f>
         <v>4.9088359046283309E-2</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <f>C2-N2</f>
         <v>3500</v>
       </c>
-      <c r="S2" t="b">
-        <f>J2&lt;B2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U2" t="b">
+        <f t="shared" ref="U2:U33" si="4">J2&lt;B2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>38</v>
       </c>
@@ -5889,62 +5904,69 @@
         <v>229000</v>
       </c>
       <c r="E3">
-        <f>C3-D3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F3">
         <v>229000</v>
       </c>
       <c r="G3">
-        <f>D3-F3</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H3">
         <v>229000</v>
       </c>
       <c r="I3">
-        <f>F3-H3</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J3">
         <v>224500</v>
       </c>
       <c r="K3">
-        <f t="shared" ref="K3:K66" si="0">H3-J3</f>
+        <f t="shared" ref="K3:K66" si="5">H3-J3</f>
         <v>4500</v>
       </c>
       <c r="L3">
         <v>224500</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M3:M66" si="1">J3-L3</f>
+        <f t="shared" ref="M3:M66" si="6">J3-L3</f>
         <v>0</v>
       </c>
       <c r="N3">
         <v>224500</v>
       </c>
       <c r="O3">
-        <f t="shared" ref="O3:O66" si="2">L3-N3</f>
+        <f t="shared" ref="O3:O66" si="7">L3-N3</f>
         <v>0</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P66" si="3">N3-B3</f>
+        <f t="shared" ref="P3:P66" si="8">N3-B3</f>
         <v>9000</v>
       </c>
-      <c r="Q3" s="2">
-        <f>P3/B3</f>
+      <c r="Q3">
+        <v>224500</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3:R66" si="9">N3-Q3</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" si="3"/>
         <v>4.1763341067285381E-2</v>
       </c>
-      <c r="R3">
-        <f>C3-J3</f>
+      <c r="T3">
+        <f t="shared" ref="T3:T34" si="10">C3-J3</f>
         <v>4500</v>
       </c>
-      <c r="S3" t="b">
-        <f>J3&lt;B3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U3" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>39</v>
       </c>
@@ -5958,62 +5980,69 @@
         <v>151500</v>
       </c>
       <c r="E4">
-        <f>C4-D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F4">
         <v>150000</v>
       </c>
       <c r="G4">
-        <f>D4-F4</f>
+        <f t="shared" si="1"/>
         <v>1500</v>
       </c>
       <c r="H4">
         <v>150000</v>
       </c>
       <c r="I4">
-        <f>F4-H4</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J4">
         <v>150000</v>
       </c>
       <c r="K4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L4">
         <v>150000</v>
       </c>
       <c r="M4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N4">
         <v>148000</v>
       </c>
       <c r="O4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="P4">
+        <f t="shared" si="8"/>
+        <v>7000</v>
+      </c>
+      <c r="Q4">
+        <v>148000</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S4" s="2">
         <f t="shared" si="3"/>
-        <v>7000</v>
-      </c>
-      <c r="Q4" s="2">
-        <f>P4/B4</f>
         <v>4.9645390070921988E-2</v>
       </c>
-      <c r="R4">
-        <f>C4-J4</f>
+      <c r="T4">
+        <f t="shared" si="10"/>
         <v>1500</v>
       </c>
-      <c r="S4" t="b">
-        <f>J4&lt;B4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U4" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>40</v>
       </c>
@@ -6027,62 +6056,69 @@
         <v>414500</v>
       </c>
       <c r="E5">
-        <f>C5-D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F5">
         <v>414500</v>
       </c>
       <c r="G5">
-        <f>D5-F5</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5">
         <v>414500</v>
       </c>
       <c r="I5">
-        <f>F5-H5</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J5">
         <v>410500</v>
       </c>
       <c r="K5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="L5">
         <v>410500</v>
       </c>
       <c r="M5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N5">
         <v>410500</v>
       </c>
       <c r="O5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P5">
+        <f t="shared" si="8"/>
+        <v>15000</v>
+      </c>
+      <c r="Q5">
+        <v>410500</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S5" s="2">
         <f t="shared" si="3"/>
-        <v>15000</v>
-      </c>
-      <c r="Q5" s="2">
-        <f>P5/B5</f>
         <v>3.7926675094816689E-2</v>
       </c>
-      <c r="R5">
-        <f>C5-J5</f>
+      <c r="T5">
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
-      <c r="S5" t="b">
-        <f>J5&lt;B5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U5" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -6096,62 +6132,69 @@
         <v>466500</v>
       </c>
       <c r="E6">
-        <f>C6-D6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F6">
         <v>466500</v>
       </c>
       <c r="G6">
-        <f>D6-F6</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H6">
         <v>466500</v>
       </c>
       <c r="I6">
-        <f>F6-H6</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J6">
         <v>465500</v>
       </c>
       <c r="K6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="L6">
         <v>465500</v>
       </c>
       <c r="M6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N6">
         <v>465500</v>
       </c>
       <c r="O6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P6">
+        <f t="shared" si="8"/>
+        <v>22000</v>
+      </c>
+      <c r="Q6">
+        <v>465500</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="2">
         <f t="shared" si="3"/>
-        <v>22000</v>
-      </c>
-      <c r="Q6" s="2">
-        <f>P6/B6</f>
         <v>4.96054114994363E-2</v>
       </c>
-      <c r="R6">
-        <f>C6-J6</f>
+      <c r="T6">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
-      <c r="S6" t="b">
-        <f>J6&lt;B6</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U6" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -6165,62 +6208,69 @@
         <v>443500</v>
       </c>
       <c r="E7">
-        <f>C7-D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F7">
         <v>443500</v>
       </c>
       <c r="G7">
-        <f>D7-F7</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H7">
         <v>443500</v>
       </c>
       <c r="I7">
-        <f>F7-H7</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J7">
         <v>441000</v>
       </c>
       <c r="K7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2500</v>
       </c>
       <c r="L7">
         <v>438500</v>
       </c>
       <c r="M7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2500</v>
       </c>
       <c r="N7">
         <v>438500</v>
       </c>
       <c r="O7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P7">
+        <f t="shared" si="8"/>
+        <v>20000</v>
+      </c>
+      <c r="Q7">
+        <v>438500</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
         <f t="shared" si="3"/>
-        <v>20000</v>
-      </c>
-      <c r="Q7" s="2">
-        <f>P7/B7</f>
         <v>4.778972520908005E-2</v>
       </c>
-      <c r="R7">
-        <f>C7-J7</f>
+      <c r="T7">
+        <f t="shared" si="10"/>
         <v>2500</v>
       </c>
-      <c r="S7" t="b">
-        <f>J7&lt;B7</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U7" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
@@ -6234,62 +6284,69 @@
         <v>287000</v>
       </c>
       <c r="E8">
-        <f>C8-D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F8">
         <v>287000</v>
       </c>
       <c r="G8">
-        <f>D8-F8</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H8">
         <v>287000</v>
       </c>
       <c r="I8">
-        <f>F8-H8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J8">
         <v>286000</v>
       </c>
       <c r="K8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="L8">
         <v>286000</v>
       </c>
       <c r="M8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N8">
         <v>286000</v>
       </c>
       <c r="O8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P8">
+        <f t="shared" si="8"/>
+        <v>15000</v>
+      </c>
+      <c r="Q8">
+        <v>286000</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
         <f t="shared" si="3"/>
-        <v>15000</v>
-      </c>
-      <c r="Q8" s="2">
-        <f>P8/B8</f>
         <v>5.5350553505535055E-2</v>
       </c>
-      <c r="R8">
-        <f>C8-J8</f>
+      <c r="T8">
+        <f t="shared" si="10"/>
         <v>1000</v>
       </c>
-      <c r="S8" t="b">
-        <f>J8&lt;B8</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U8" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
@@ -6303,62 +6360,69 @@
         <v>145000</v>
       </c>
       <c r="E9">
-        <f>C9-D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F9">
         <v>145000</v>
       </c>
       <c r="G9">
-        <f>D9-F9</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9">
         <v>145000</v>
       </c>
       <c r="I9">
-        <f>F9-H9</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J9">
         <v>145000</v>
       </c>
       <c r="K9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L9">
         <v>145000</v>
       </c>
       <c r="M9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N9">
         <v>145000</v>
       </c>
       <c r="O9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P9">
+        <f t="shared" si="8"/>
+        <v>7500</v>
+      </c>
+      <c r="Q9">
+        <v>145000</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
         <f t="shared" si="3"/>
-        <v>7500</v>
-      </c>
-      <c r="Q9" s="2">
-        <f>P9/B9</f>
         <v>5.4545454545454543E-2</v>
       </c>
-      <c r="R9">
-        <f>C9-J9</f>
-        <v>0</v>
-      </c>
-      <c r="S9" t="b">
-        <f>J9&lt;B9</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T9">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U9" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>45</v>
       </c>
@@ -6372,62 +6436,69 @@
         <v>419500</v>
       </c>
       <c r="E10">
-        <f>C10-D10</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="F10">
         <v>419500</v>
       </c>
       <c r="G10">
-        <f>D10-F10</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10">
         <v>419500</v>
       </c>
       <c r="I10">
-        <f>F10-H10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J10">
         <v>419500</v>
       </c>
       <c r="K10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L10">
         <v>419500</v>
       </c>
       <c r="M10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N10">
         <v>419500</v>
       </c>
       <c r="O10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P10">
+        <f t="shared" si="8"/>
+        <v>23000</v>
+      </c>
+      <c r="Q10">
+        <v>419500</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
         <f t="shared" si="3"/>
-        <v>23000</v>
-      </c>
-      <c r="Q10" s="2">
-        <f>P10/B10</f>
         <v>5.8007566204287514E-2</v>
       </c>
-      <c r="R10">
-        <f>C10-J10</f>
+      <c r="T10">
+        <f t="shared" si="10"/>
         <v>1500</v>
       </c>
-      <c r="S10" t="b">
-        <f>J10&lt;B10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U10" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -6441,62 +6512,69 @@
         <v>341500</v>
       </c>
       <c r="E11">
-        <f>C11-D11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F11">
         <v>341500</v>
       </c>
       <c r="G11">
-        <f>D11-F11</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H11">
         <v>341500</v>
       </c>
       <c r="I11">
-        <f>F11-H11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J11">
         <v>338500</v>
       </c>
       <c r="K11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="L11">
         <v>338500</v>
       </c>
       <c r="M11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N11">
         <v>338500</v>
       </c>
       <c r="O11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P11">
+        <f t="shared" si="8"/>
+        <v>16500</v>
+      </c>
+      <c r="Q11">
+        <v>338500</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
         <f t="shared" si="3"/>
-        <v>16500</v>
-      </c>
-      <c r="Q11" s="2">
-        <f>P11/B11</f>
         <v>5.124223602484472E-2</v>
       </c>
-      <c r="R11">
-        <f>C11-J11</f>
+      <c r="T11">
+        <f t="shared" si="10"/>
         <v>3000</v>
       </c>
-      <c r="S11" t="b">
-        <f>J11&lt;B11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U11" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -6510,62 +6588,69 @@
         <v>244000</v>
       </c>
       <c r="E12">
-        <f>C12-D12</f>
+        <f t="shared" si="0"/>
         <v>1500</v>
       </c>
       <c r="F12">
         <v>244000</v>
       </c>
       <c r="G12">
-        <f>D12-F12</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12">
         <v>244000</v>
       </c>
       <c r="I12">
-        <f>F12-H12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J12">
         <v>244000</v>
       </c>
       <c r="K12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L12">
         <v>244000</v>
       </c>
       <c r="M12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N12">
         <v>244000</v>
       </c>
       <c r="O12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P12">
+        <f t="shared" si="8"/>
+        <v>11500</v>
+      </c>
+      <c r="Q12">
+        <v>244000</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
         <f t="shared" si="3"/>
-        <v>11500</v>
-      </c>
-      <c r="Q12" s="2">
-        <f>P12/B12</f>
         <v>4.9462365591397849E-2</v>
       </c>
-      <c r="R12">
-        <f>C12-J12</f>
+      <c r="T12">
+        <f t="shared" si="10"/>
         <v>1500</v>
       </c>
-      <c r="S12" t="b">
-        <f>J12&lt;B12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U12" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>48</v>
       </c>
@@ -6579,62 +6664,69 @@
         <v>316500</v>
       </c>
       <c r="E13">
-        <f>C13-D13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F13">
         <v>316500</v>
       </c>
       <c r="G13">
-        <f>D13-F13</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H13">
         <v>316500</v>
       </c>
       <c r="I13">
-        <f>F13-H13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J13">
         <v>312500</v>
       </c>
       <c r="K13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>4000</v>
       </c>
       <c r="L13">
         <v>312500</v>
       </c>
       <c r="M13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N13">
         <v>312500</v>
       </c>
       <c r="O13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P13">
+        <f t="shared" si="8"/>
+        <v>15500</v>
+      </c>
+      <c r="Q13">
+        <v>312500</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
         <f t="shared" si="3"/>
-        <v>15500</v>
-      </c>
-      <c r="Q13" s="2">
-        <f>P13/B13</f>
         <v>5.2188552188552187E-2</v>
       </c>
-      <c r="R13">
-        <f>C13-J13</f>
+      <c r="T13">
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
-      <c r="S13" t="b">
-        <f>J13&lt;B13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U13" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>49</v>
       </c>
@@ -6648,62 +6740,69 @@
         <v>294000</v>
       </c>
       <c r="E14">
-        <f>C14-D14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F14">
         <v>290000</v>
       </c>
       <c r="G14">
-        <f>D14-F14</f>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="H14">
         <v>290000</v>
       </c>
       <c r="I14">
-        <f>F14-H14</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J14">
         <v>290000</v>
       </c>
       <c r="K14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L14">
         <v>290000</v>
       </c>
       <c r="M14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N14">
         <v>290000</v>
       </c>
       <c r="O14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P14">
+        <f t="shared" si="8"/>
+        <v>14500</v>
+      </c>
+      <c r="Q14">
+        <v>290000</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
         <f t="shared" si="3"/>
-        <v>14500</v>
-      </c>
-      <c r="Q14" s="2">
-        <f>P14/B14</f>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="R14">
-        <f>C14-J14</f>
+      <c r="T14">
+        <f t="shared" si="10"/>
         <v>4000</v>
       </c>
-      <c r="S14" t="b">
-        <f>J14&lt;B14</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U14" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -6717,1166 +6816,1285 @@
         <v>206500</v>
       </c>
       <c r="E15">
-        <f>C15-D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F15">
         <v>205500</v>
       </c>
       <c r="G15">
-        <f>D15-F15</f>
+        <f t="shared" si="1"/>
         <v>1000</v>
       </c>
       <c r="H15">
         <v>205500</v>
       </c>
       <c r="I15">
-        <f>F15-H15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J15">
         <v>204000</v>
       </c>
       <c r="K15">
+        <f t="shared" si="5"/>
+        <v>1500</v>
+      </c>
+      <c r="L15">
+        <v>204000</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>204000</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>11500</v>
+      </c>
+      <c r="Q15">
+        <v>204000</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="3"/>
+        <v>5.9740259740259739E-2</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="10"/>
+        <v>2500</v>
+      </c>
+      <c r="U15" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B16">
+        <v>255500</v>
+      </c>
+      <c r="C16">
+        <v>271000</v>
+      </c>
+      <c r="D16">
+        <v>271000</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>271000</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>271000</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>270000</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="5"/>
+        <v>1000</v>
+      </c>
+      <c r="L16">
+        <v>267000</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>3000</v>
+      </c>
+      <c r="N16">
+        <v>267000</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>11500</v>
+      </c>
+      <c r="Q16">
+        <v>267000</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="3"/>
+        <v>4.5009784735812131E-2</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="10"/>
+        <v>1000</v>
+      </c>
+      <c r="U16" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B17">
+        <v>231500</v>
+      </c>
+      <c r="C17">
+        <v>245000</v>
+      </c>
+      <c r="D17">
+        <v>245000</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>245000</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>245000</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>245000</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>245000</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>245000</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>13500</v>
+      </c>
+      <c r="Q17">
+        <v>245000</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="3"/>
+        <v>5.8315334773218146E-2</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U17" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18">
+        <v>282000</v>
+      </c>
+      <c r="C18">
+        <v>298000</v>
+      </c>
+      <c r="D18">
+        <v>298000</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>298000</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>298000</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>298000</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>298000</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>298000</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>16000</v>
+      </c>
+      <c r="Q18">
+        <v>298000</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="3"/>
+        <v>5.6737588652482268E-2</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U18" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <v>133000</v>
+      </c>
+      <c r="C19">
+        <v>142000</v>
+      </c>
+      <c r="D19">
+        <v>142000</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>142000</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>142000</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>142000</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>142000</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>142000</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="Q19">
+        <v>142000</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="3"/>
+        <v>6.7669172932330823E-2</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U19" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20">
+        <v>197000</v>
+      </c>
+      <c r="C20">
+        <v>210000</v>
+      </c>
+      <c r="D20">
+        <v>210000</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>210000</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>210000</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>207500</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="5"/>
+        <v>2500</v>
+      </c>
+      <c r="L20">
+        <v>207500</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>207500</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>10500</v>
+      </c>
+      <c r="Q20">
+        <v>207500</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="3"/>
+        <v>5.3299492385786802E-2</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="10"/>
+        <v>2500</v>
+      </c>
+      <c r="U20" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21">
+        <v>363000</v>
+      </c>
+      <c r="C21">
+        <v>385500</v>
+      </c>
+      <c r="D21">
+        <v>385500</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>385500</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>382500</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="2"/>
+        <v>3000</v>
+      </c>
+      <c r="J21">
+        <v>382500</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>381500</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="N21">
+        <v>381500</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>18500</v>
+      </c>
+      <c r="Q21">
+        <v>381500</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="3"/>
+        <v>5.0964187327823693E-2</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="U21" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22">
+        <v>435500</v>
+      </c>
+      <c r="C22">
+        <v>463000</v>
+      </c>
+      <c r="D22">
+        <v>463000</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>463000</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>463000</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>463000</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>459000</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>4000</v>
+      </c>
+      <c r="N22">
+        <v>459000</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>23500</v>
+      </c>
+      <c r="Q22">
+        <v>459000</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="3"/>
+        <v>5.3960964408725602E-2</v>
+      </c>
+      <c r="T22">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U22" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23">
+        <v>207000</v>
+      </c>
+      <c r="C23">
+        <v>219000</v>
+      </c>
+      <c r="D23">
+        <v>219000</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>219000</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>219000</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>219000</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>219000</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>219000</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>12000</v>
+      </c>
+      <c r="Q23">
+        <v>219000</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="3"/>
+        <v>5.7971014492753624E-2</v>
+      </c>
+      <c r="T23">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U23" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24">
+        <v>181500</v>
+      </c>
+      <c r="C24">
+        <v>197000</v>
+      </c>
+      <c r="D24">
+        <v>196500</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="F24">
+        <v>194500</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>2000</v>
+      </c>
+      <c r="H24">
+        <v>194500</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>194500</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>194500</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>194500</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>13000</v>
+      </c>
+      <c r="Q24">
+        <v>194500</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" si="3"/>
+        <v>7.1625344352617082E-2</v>
+      </c>
+      <c r="T24">
+        <f t="shared" si="10"/>
+        <v>2500</v>
+      </c>
+      <c r="U24" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25">
+        <v>344500</v>
+      </c>
+      <c r="C25">
+        <v>364500</v>
+      </c>
+      <c r="D25">
+        <v>364500</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>364500</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>364500</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>364500</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>364500</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>364500</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>20000</v>
+      </c>
+      <c r="Q25">
+        <v>364500</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="3"/>
+        <v>5.8055152394775038E-2</v>
+      </c>
+      <c r="T25">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U25" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26">
+        <v>183000</v>
+      </c>
+      <c r="C26">
+        <v>194000</v>
+      </c>
+      <c r="D26">
+        <v>194000</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>194000</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>194000</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>194000</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>194000</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>194000</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>11000</v>
+      </c>
+      <c r="Q26">
+        <v>194000</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="3"/>
+        <v>6.0109289617486336E-2</v>
+      </c>
+      <c r="T26">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U26" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27">
+        <v>163000</v>
+      </c>
+      <c r="C27">
+        <v>175000</v>
+      </c>
+      <c r="D27">
+        <v>175000</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>175000</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>173500</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="2"/>
+        <v>1500</v>
+      </c>
+      <c r="J27">
+        <v>173500</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>172000</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="N27">
+        <v>172000</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="8"/>
+        <v>9000</v>
+      </c>
+      <c r="Q27">
+        <v>172000</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="3"/>
+        <v>5.5214723926380369E-2</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="10"/>
+        <v>1500</v>
+      </c>
+      <c r="U27" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B28">
+        <v>224000</v>
+      </c>
+      <c r="C28">
+        <v>237000</v>
+      </c>
+      <c r="D28">
+        <v>237000</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>237000</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>237000</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>237000</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>237000</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>237000</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>13000</v>
+      </c>
+      <c r="Q28">
+        <v>237000</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="3"/>
+        <v>5.8035714285714288E-2</v>
+      </c>
+      <c r="T28">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U28" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B29">
+        <v>297500</v>
+      </c>
+      <c r="C29">
+        <v>317500</v>
+      </c>
+      <c r="D29">
+        <v>317500</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>317500</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>317500</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>317500</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>316500</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>1000</v>
+      </c>
+      <c r="N29">
+        <v>316500</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>19000</v>
+      </c>
+      <c r="Q29">
+        <v>316500</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="3"/>
+        <v>6.386554621848739E-2</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U29" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30">
+        <v>192500</v>
+      </c>
+      <c r="C30">
+        <v>208000</v>
+      </c>
+      <c r="D30">
+        <v>206500</v>
+      </c>
+      <c r="E30">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="L15">
-        <v>204000</v>
-      </c>
-      <c r="M15">
+      <c r="F30">
+        <v>205000</v>
+      </c>
+      <c r="G30">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>204000</v>
-      </c>
-      <c r="O15">
+        <v>1500</v>
+      </c>
+      <c r="H30">
+        <v>205000</v>
+      </c>
+      <c r="I30">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="P15">
+      <c r="J30">
+        <v>205000</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>205000</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>205000</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>12500</v>
+      </c>
+      <c r="Q30">
+        <v>205000</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="2">
         <f t="shared" si="3"/>
-        <v>11500</v>
-      </c>
-      <c r="Q15" s="2">
-        <f>P15/B15</f>
-        <v>5.9740259740259739E-2</v>
-      </c>
-      <c r="R15">
-        <f>C15-J15</f>
-        <v>2500</v>
-      </c>
-      <c r="S15" t="b">
-        <f>J15&lt;B15</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>51</v>
-      </c>
-      <c r="B16">
-        <v>255500</v>
-      </c>
-      <c r="C16">
-        <v>271000</v>
-      </c>
-      <c r="D16">
-        <v>271000</v>
-      </c>
-      <c r="E16">
-        <f>C16-D16</f>
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>271000</v>
-      </c>
-      <c r="G16">
-        <f>D16-F16</f>
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>271000</v>
-      </c>
-      <c r="I16">
-        <f>F16-H16</f>
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>270000</v>
-      </c>
-      <c r="K16">
+        <v>6.4935064935064929E-2</v>
+      </c>
+      <c r="T30">
+        <f t="shared" si="10"/>
+        <v>3000</v>
+      </c>
+      <c r="U30" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31">
+        <v>136500</v>
+      </c>
+      <c r="C31">
+        <v>146500</v>
+      </c>
+      <c r="D31">
+        <v>146500</v>
+      </c>
+      <c r="E31">
         <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="L16">
-        <v>267000</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="1"/>
-        <v>3000</v>
-      </c>
-      <c r="N16">
-        <v>267000</v>
-      </c>
-      <c r="O16">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <f t="shared" si="3"/>
-        <v>11500</v>
-      </c>
-      <c r="Q16" s="2">
-        <f>P16/B16</f>
-        <v>4.5009784735812131E-2</v>
-      </c>
-      <c r="R16">
-        <f>C16-J16</f>
-        <v>1000</v>
-      </c>
-      <c r="S16" t="b">
-        <f>J16&lt;B16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17">
-        <v>231500</v>
-      </c>
-      <c r="C17">
-        <v>245000</v>
-      </c>
-      <c r="D17">
-        <v>245000</v>
-      </c>
-      <c r="E17">
-        <f>C17-D17</f>
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>245000</v>
-      </c>
-      <c r="G17">
-        <f>D17-F17</f>
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>245000</v>
-      </c>
-      <c r="I17">
-        <f>F17-H17</f>
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>245000</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>245000</v>
-      </c>
-      <c r="M17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>245000</v>
-      </c>
-      <c r="O17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <f t="shared" si="3"/>
-        <v>13500</v>
-      </c>
-      <c r="Q17" s="2">
-        <f>P17/B17</f>
-        <v>5.8315334773218146E-2</v>
-      </c>
-      <c r="R17">
-        <f>C17-J17</f>
-        <v>0</v>
-      </c>
-      <c r="S17" t="b">
-        <f>J17&lt;B17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18">
-        <v>282000</v>
-      </c>
-      <c r="C18">
-        <v>298000</v>
-      </c>
-      <c r="D18">
-        <v>298000</v>
-      </c>
-      <c r="E18">
-        <f>C18-D18</f>
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>298000</v>
-      </c>
-      <c r="G18">
-        <f>D18-F18</f>
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>298000</v>
-      </c>
-      <c r="I18">
-        <f>F18-H18</f>
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>298000</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>298000</v>
-      </c>
-      <c r="M18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>298000</v>
-      </c>
-      <c r="O18">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <f t="shared" si="3"/>
-        <v>16000</v>
-      </c>
-      <c r="Q18" s="2">
-        <f>P18/B18</f>
-        <v>5.6737588652482268E-2</v>
-      </c>
-      <c r="R18">
-        <f>C18-J18</f>
-        <v>0</v>
-      </c>
-      <c r="S18" t="b">
-        <f>J18&lt;B18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19">
-        <v>133000</v>
-      </c>
-      <c r="C19">
-        <v>142000</v>
-      </c>
-      <c r="D19">
-        <v>142000</v>
-      </c>
-      <c r="E19">
-        <f>C19-D19</f>
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>142000</v>
-      </c>
-      <c r="G19">
-        <f>D19-F19</f>
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>142000</v>
-      </c>
-      <c r="I19">
-        <f>F19-H19</f>
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>142000</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>142000</v>
-      </c>
-      <c r="M19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>142000</v>
-      </c>
-      <c r="O19">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <f t="shared" si="3"/>
-        <v>9000</v>
-      </c>
-      <c r="Q19" s="2">
-        <f>P19/B19</f>
-        <v>6.7669172932330823E-2</v>
-      </c>
-      <c r="R19">
-        <f>C19-J19</f>
-        <v>0</v>
-      </c>
-      <c r="S19" t="b">
-        <f>J19&lt;B19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>55</v>
-      </c>
-      <c r="B20">
-        <v>197000</v>
-      </c>
-      <c r="C20">
-        <v>210000</v>
-      </c>
-      <c r="D20">
-        <v>210000</v>
-      </c>
-      <c r="E20">
-        <f>C20-D20</f>
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>210000</v>
-      </c>
-      <c r="G20">
-        <f>D20-F20</f>
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>210000</v>
-      </c>
-      <c r="I20">
-        <f>F20-H20</f>
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>207500</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="L20">
-        <v>207500</v>
-      </c>
-      <c r="M20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>207500</v>
-      </c>
-      <c r="O20">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <f t="shared" si="3"/>
-        <v>10500</v>
-      </c>
-      <c r="Q20" s="2">
-        <f>P20/B20</f>
-        <v>5.3299492385786802E-2</v>
-      </c>
-      <c r="R20">
-        <f>C20-J20</f>
-        <v>2500</v>
-      </c>
-      <c r="S20" t="b">
-        <f>J20&lt;B20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21">
-        <v>363000</v>
-      </c>
-      <c r="C21">
-        <v>385500</v>
-      </c>
-      <c r="D21">
-        <v>385500</v>
-      </c>
-      <c r="E21">
-        <f>C21-D21</f>
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>385500</v>
-      </c>
-      <c r="G21">
-        <f>D21-F21</f>
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>382500</v>
-      </c>
-      <c r="I21">
-        <f>F21-H21</f>
-        <v>3000</v>
-      </c>
-      <c r="J21">
-        <v>382500</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>381500</v>
-      </c>
-      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>145500</v>
+      </c>
+      <c r="G31">
         <f t="shared" si="1"/>
         <v>1000</v>
       </c>
-      <c r="N21">
-        <v>381500</v>
-      </c>
-      <c r="O21">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <f t="shared" si="3"/>
-        <v>18500</v>
-      </c>
-      <c r="Q21" s="2">
-        <f>P21/B21</f>
-        <v>5.0964187327823693E-2</v>
-      </c>
-      <c r="R21">
-        <f>C21-J21</f>
-        <v>3000</v>
-      </c>
-      <c r="S21" t="b">
-        <f>J21&lt;B21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22">
-        <v>435500</v>
-      </c>
-      <c r="C22">
-        <v>463000</v>
-      </c>
-      <c r="D22">
-        <v>463000</v>
-      </c>
-      <c r="E22">
-        <f>C22-D22</f>
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>463000</v>
-      </c>
-      <c r="G22">
-        <f>D22-F22</f>
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>463000</v>
-      </c>
-      <c r="I22">
-        <f>F22-H22</f>
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>463000</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>459000</v>
-      </c>
-      <c r="M22">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="N22">
-        <v>459000</v>
-      </c>
-      <c r="O22">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P22">
-        <f t="shared" si="3"/>
-        <v>23500</v>
-      </c>
-      <c r="Q22" s="2">
-        <f>P22/B22</f>
-        <v>5.3960964408725602E-2</v>
-      </c>
-      <c r="R22">
-        <f>C22-J22</f>
-        <v>0</v>
-      </c>
-      <c r="S22" t="b">
-        <f>J22&lt;B22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
-      <c r="B23">
-        <v>207000</v>
-      </c>
-      <c r="C23">
-        <v>219000</v>
-      </c>
-      <c r="D23">
-        <v>219000</v>
-      </c>
-      <c r="E23">
-        <f>C23-D23</f>
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>219000</v>
-      </c>
-      <c r="G23">
-        <f>D23-F23</f>
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>219000</v>
-      </c>
-      <c r="I23">
-        <f>F23-H23</f>
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>219000</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>219000</v>
-      </c>
-      <c r="M23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>219000</v>
-      </c>
-      <c r="O23">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <f t="shared" si="3"/>
-        <v>12000</v>
-      </c>
-      <c r="Q23" s="2">
-        <f>P23/B23</f>
-        <v>5.7971014492753624E-2</v>
-      </c>
-      <c r="R23">
-        <f>C23-J23</f>
-        <v>0</v>
-      </c>
-      <c r="S23" t="b">
-        <f>J23&lt;B23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B24">
-        <v>181500</v>
-      </c>
-      <c r="C24">
-        <v>197000</v>
-      </c>
-      <c r="D24">
-        <v>196500</v>
-      </c>
-      <c r="E24">
-        <f>C24-D24</f>
-        <v>500</v>
-      </c>
-      <c r="F24">
-        <v>194500</v>
-      </c>
-      <c r="G24">
-        <f>D24-F24</f>
-        <v>2000</v>
-      </c>
-      <c r="H24">
-        <v>194500</v>
-      </c>
-      <c r="I24">
-        <f>F24-H24</f>
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>194500</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>194500</v>
-      </c>
-      <c r="M24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>194500</v>
-      </c>
-      <c r="O24">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <f t="shared" si="3"/>
-        <v>13000</v>
-      </c>
-      <c r="Q24" s="2">
-        <f>P24/B24</f>
-        <v>7.1625344352617082E-2</v>
-      </c>
-      <c r="R24">
-        <f>C24-J24</f>
-        <v>2500</v>
-      </c>
-      <c r="S24" t="b">
-        <f>J24&lt;B24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>60</v>
-      </c>
-      <c r="B25">
-        <v>344500</v>
-      </c>
-      <c r="C25">
-        <v>364500</v>
-      </c>
-      <c r="D25">
-        <v>364500</v>
-      </c>
-      <c r="E25">
-        <f>C25-D25</f>
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>364500</v>
-      </c>
-      <c r="G25">
-        <f>D25-F25</f>
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>364500</v>
-      </c>
-      <c r="I25">
-        <f>F25-H25</f>
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>364500</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>364500</v>
-      </c>
-      <c r="M25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>364500</v>
-      </c>
-      <c r="O25">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <f t="shared" si="3"/>
-        <v>20000</v>
-      </c>
-      <c r="Q25" s="2">
-        <f>P25/B25</f>
-        <v>5.8055152394775038E-2</v>
-      </c>
-      <c r="R25">
-        <f>C25-J25</f>
-        <v>0</v>
-      </c>
-      <c r="S25" t="b">
-        <f>J25&lt;B25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26">
-        <v>183000</v>
-      </c>
-      <c r="C26">
-        <v>194000</v>
-      </c>
-      <c r="D26">
-        <v>194000</v>
-      </c>
-      <c r="E26">
-        <f>C26-D26</f>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>194000</v>
-      </c>
-      <c r="G26">
-        <f>D26-F26</f>
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>194000</v>
-      </c>
-      <c r="I26">
-        <f>F26-H26</f>
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>194000</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>194000</v>
-      </c>
-      <c r="M26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>194000</v>
-      </c>
-      <c r="O26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <f t="shared" si="3"/>
-        <v>11000</v>
-      </c>
-      <c r="Q26" s="2">
-        <f>P26/B26</f>
-        <v>6.0109289617486336E-2</v>
-      </c>
-      <c r="R26">
-        <f>C26-J26</f>
-        <v>0</v>
-      </c>
-      <c r="S26" t="b">
-        <f>J26&lt;B26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B27">
-        <v>163000</v>
-      </c>
-      <c r="C27">
-        <v>175000</v>
-      </c>
-      <c r="D27">
-        <v>175000</v>
-      </c>
-      <c r="E27">
-        <f>C27-D27</f>
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>175000</v>
-      </c>
-      <c r="G27">
-        <f>D27-F27</f>
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>173500</v>
-      </c>
-      <c r="I27">
-        <f>F27-H27</f>
-        <v>1500</v>
-      </c>
-      <c r="J27">
-        <v>173500</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>172000</v>
-      </c>
-      <c r="M27">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="N27">
-        <v>172000</v>
-      </c>
-      <c r="O27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <f t="shared" si="3"/>
-        <v>9000</v>
-      </c>
-      <c r="Q27" s="2">
-        <f>P27/B27</f>
-        <v>5.5214723926380369E-2</v>
-      </c>
-      <c r="R27">
-        <f>C27-J27</f>
-        <v>1500</v>
-      </c>
-      <c r="S27" t="b">
-        <f>J27&lt;B27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28">
-        <v>224000</v>
-      </c>
-      <c r="C28">
-        <v>237000</v>
-      </c>
-      <c r="D28">
-        <v>237000</v>
-      </c>
-      <c r="E28">
-        <f>C28-D28</f>
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>237000</v>
-      </c>
-      <c r="G28">
-        <f>D28-F28</f>
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>237000</v>
-      </c>
-      <c r="I28">
-        <f>F28-H28</f>
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>237000</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>237000</v>
-      </c>
-      <c r="M28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N28">
-        <v>237000</v>
-      </c>
-      <c r="O28">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <f t="shared" si="3"/>
-        <v>13000</v>
-      </c>
-      <c r="Q28" s="2">
-        <f>P28/B28</f>
-        <v>5.8035714285714288E-2</v>
-      </c>
-      <c r="R28">
-        <f>C28-J28</f>
-        <v>0</v>
-      </c>
-      <c r="S28" t="b">
-        <f>J28&lt;B28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B29">
-        <v>297500</v>
-      </c>
-      <c r="C29">
-        <v>317500</v>
-      </c>
-      <c r="D29">
-        <v>317500</v>
-      </c>
-      <c r="E29">
-        <f>C29-D29</f>
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>317500</v>
-      </c>
-      <c r="G29">
-        <f>D29-F29</f>
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>317500</v>
-      </c>
-      <c r="I29">
-        <f>F29-H29</f>
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>317500</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>316500</v>
-      </c>
-      <c r="M29">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-      <c r="N29">
-        <v>316500</v>
-      </c>
-      <c r="O29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <f t="shared" si="3"/>
-        <v>19000</v>
-      </c>
-      <c r="Q29" s="2">
-        <f>P29/B29</f>
-        <v>6.386554621848739E-2</v>
-      </c>
-      <c r="R29">
-        <f>C29-J29</f>
-        <v>0</v>
-      </c>
-      <c r="S29" t="b">
-        <f>J29&lt;B29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B30">
-        <v>192500</v>
-      </c>
-      <c r="C30">
-        <v>208000</v>
-      </c>
-      <c r="D30">
-        <v>206500</v>
-      </c>
-      <c r="E30">
-        <f>C30-D30</f>
-        <v>1500</v>
-      </c>
-      <c r="F30">
-        <v>205000</v>
-      </c>
-      <c r="G30">
-        <f>D30-F30</f>
-        <v>1500</v>
-      </c>
-      <c r="H30">
-        <v>205000</v>
-      </c>
-      <c r="I30">
-        <f>F30-H30</f>
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>205000</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>205000</v>
-      </c>
-      <c r="M30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="N30">
-        <v>205000</v>
-      </c>
-      <c r="O30">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <f t="shared" si="3"/>
-        <v>12500</v>
-      </c>
-      <c r="Q30" s="2">
-        <f>P30/B30</f>
-        <v>6.4935064935064929E-2</v>
-      </c>
-      <c r="R30">
-        <f>C30-J30</f>
-        <v>3000</v>
-      </c>
-      <c r="S30" t="b">
-        <f>J30&lt;B30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31">
-        <v>136500</v>
-      </c>
-      <c r="C31">
-        <v>146500</v>
-      </c>
-      <c r="D31">
-        <v>146500</v>
-      </c>
-      <c r="E31">
-        <f>C31-D31</f>
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>145500</v>
-      </c>
-      <c r="G31">
-        <f>D31-F31</f>
-        <v>1000</v>
-      </c>
       <c r="H31">
         <v>145500</v>
       </c>
       <c r="I31">
-        <f>F31-H31</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J31">
         <v>144500</v>
       </c>
       <c r="K31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>1000</v>
       </c>
       <c r="L31">
         <v>144500</v>
       </c>
       <c r="M31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N31">
         <v>144500</v>
       </c>
       <c r="O31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P31">
+        <f t="shared" si="8"/>
+        <v>8000</v>
+      </c>
+      <c r="Q31">
+        <v>144500</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="2">
         <f t="shared" si="3"/>
-        <v>8000</v>
-      </c>
-      <c r="Q31" s="2">
-        <f>P31/B31</f>
         <v>5.8608058608058608E-2</v>
       </c>
-      <c r="R31">
-        <f>C31-J31</f>
+      <c r="T31">
+        <f t="shared" si="10"/>
         <v>2000</v>
       </c>
-      <c r="S31" t="b">
-        <f>J31&lt;B31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U31" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>67</v>
       </c>
@@ -7890,62 +8108,69 @@
         <v>270000</v>
       </c>
       <c r="E32">
-        <f>C32-D32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F32">
         <v>270000</v>
       </c>
       <c r="G32">
-        <f>D32-F32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H32">
         <v>270000</v>
       </c>
       <c r="I32">
-        <f>F32-H32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J32">
         <v>270000</v>
       </c>
       <c r="K32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L32">
         <v>269000</v>
       </c>
       <c r="M32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1000</v>
       </c>
       <c r="N32">
         <v>269000</v>
       </c>
       <c r="O32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P32">
+        <f t="shared" si="8"/>
+        <v>13000</v>
+      </c>
+      <c r="Q32">
+        <v>269000</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="2">
         <f t="shared" si="3"/>
-        <v>13000</v>
-      </c>
-      <c r="Q32" s="2">
-        <f>P32/B32</f>
         <v>5.078125E-2</v>
       </c>
-      <c r="R32">
-        <f>C32-J32</f>
-        <v>0</v>
-      </c>
-      <c r="S32" t="b">
-        <f>J32&lt;B32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T32">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U32" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>68</v>
       </c>
@@ -7959,62 +8184,69 @@
         <v>345500</v>
       </c>
       <c r="E33">
-        <f>C33-D33</f>
+        <f t="shared" si="0"/>
         <v>500</v>
       </c>
       <c r="F33">
         <v>345500</v>
       </c>
       <c r="G33">
-        <f>D33-F33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H33">
         <v>344500</v>
       </c>
       <c r="I33">
-        <f>F33-H33</f>
+        <f t="shared" si="2"/>
         <v>1000</v>
       </c>
       <c r="J33">
         <v>344000</v>
       </c>
       <c r="K33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="L33">
         <v>342000</v>
       </c>
       <c r="M33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="N33">
         <v>342000</v>
       </c>
       <c r="O33">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P33">
+        <f t="shared" si="8"/>
+        <v>17000</v>
+      </c>
+      <c r="Q33">
+        <v>342000</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S33" s="2">
         <f t="shared" si="3"/>
-        <v>17000</v>
-      </c>
-      <c r="Q33" s="2">
-        <f>P33/B33</f>
         <v>5.2307692307692305E-2</v>
       </c>
-      <c r="R33">
-        <f>C33-J33</f>
+      <c r="T33">
+        <f t="shared" si="10"/>
         <v>2000</v>
       </c>
-      <c r="S33" t="b">
-        <f>J33&lt;B33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U33" t="b">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>69</v>
       </c>
@@ -8028,62 +8260,69 @@
         <v>174500</v>
       </c>
       <c r="E34">
-        <f>C34-D34</f>
+        <f t="shared" ref="E34:E65" si="11">C34-D34</f>
         <v>0</v>
       </c>
       <c r="F34">
         <v>174500</v>
       </c>
       <c r="G34">
-        <f>D34-F34</f>
+        <f t="shared" ref="G34:G65" si="12">D34-F34</f>
         <v>0</v>
       </c>
       <c r="H34">
         <v>174500</v>
       </c>
       <c r="I34">
-        <f>F34-H34</f>
+        <f t="shared" ref="I34:I65" si="13">F34-H34</f>
         <v>0</v>
       </c>
       <c r="J34">
         <v>174000</v>
       </c>
       <c r="K34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="L34">
         <v>172500</v>
       </c>
       <c r="M34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="N34">
         <v>172500</v>
       </c>
       <c r="O34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>9500</v>
       </c>
-      <c r="Q34" s="2">
-        <f>P34/B34</f>
+      <c r="Q34">
+        <v>172500</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S34" s="2">
+        <f t="shared" ref="S34:S65" si="14">P34/B34</f>
         <v>5.8282208588957052E-2</v>
       </c>
-      <c r="R34">
-        <f>C34-J34</f>
+      <c r="T34">
+        <f t="shared" si="10"/>
         <v>500</v>
       </c>
-      <c r="S34" t="b">
-        <f>J34&lt;B34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U34" t="b">
+        <f t="shared" ref="U34:U65" si="15">J34&lt;B34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>70</v>
       </c>
@@ -8097,62 +8336,69 @@
         <v>321000</v>
       </c>
       <c r="E35">
-        <f>C35-D35</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F35">
         <v>321000</v>
       </c>
       <c r="G35">
-        <f>D35-F35</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H35">
         <v>321000</v>
       </c>
       <c r="I35">
-        <f>F35-H35</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J35">
         <v>321000</v>
       </c>
       <c r="K35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L35">
         <v>321000</v>
       </c>
       <c r="M35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N35">
         <v>321000</v>
       </c>
       <c r="O35">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P35">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>16500</v>
       </c>
-      <c r="Q35" s="2">
-        <f>P35/B35</f>
+      <c r="Q35">
+        <v>321000</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="2">
+        <f t="shared" si="14"/>
         <v>5.4187192118226604E-2</v>
       </c>
-      <c r="R35">
-        <f>C35-J35</f>
-        <v>0</v>
-      </c>
-      <c r="S35" t="b">
-        <f>J35&lt;B35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35">
+        <f t="shared" ref="T35:T66" si="16">C35-J35</f>
+        <v>0</v>
+      </c>
+      <c r="U35" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>71</v>
       </c>
@@ -8166,62 +8412,69 @@
         <v>191000</v>
       </c>
       <c r="E36">
-        <f>C36-D36</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F36">
         <v>191000</v>
       </c>
       <c r="G36">
-        <f>D36-F36</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H36">
         <v>191000</v>
       </c>
       <c r="I36">
-        <f>F36-H36</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J36">
         <v>191000</v>
       </c>
       <c r="K36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L36">
         <v>191000</v>
       </c>
       <c r="M36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N36">
         <v>191000</v>
       </c>
       <c r="O36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P36">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>10500</v>
       </c>
-      <c r="Q36" s="2">
-        <f>P36/B36</f>
+      <c r="Q36">
+        <v>191000</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="2">
+        <f t="shared" si="14"/>
         <v>5.817174515235457E-2</v>
       </c>
-      <c r="R36">
-        <f>C36-J36</f>
-        <v>0</v>
-      </c>
-      <c r="S36" t="b">
-        <f>J36&lt;B36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U36" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -8235,62 +8488,69 @@
         <v>383500</v>
       </c>
       <c r="E37">
-        <f>C37-D37</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F37">
         <v>383500</v>
       </c>
       <c r="G37">
-        <f>D37-F37</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H37">
         <v>383500</v>
       </c>
       <c r="I37">
-        <f>F37-H37</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J37">
         <v>383500</v>
       </c>
       <c r="K37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L37">
         <v>383500</v>
       </c>
       <c r="M37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N37">
         <v>382000</v>
       </c>
       <c r="O37">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1500</v>
       </c>
       <c r="P37">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>20000</v>
       </c>
-      <c r="Q37" s="2">
-        <f>P37/B37</f>
+      <c r="Q37">
+        <v>382000</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S37" s="2">
+        <f t="shared" si="14"/>
         <v>5.5248618784530384E-2</v>
       </c>
-      <c r="R37">
-        <f>C37-J37</f>
-        <v>0</v>
-      </c>
-      <c r="S37" t="b">
-        <f>J37&lt;B37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U37" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>73</v>
       </c>
@@ -8304,62 +8564,69 @@
         <v>485000</v>
       </c>
       <c r="E38">
-        <f>C38-D38</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F38">
         <v>485000</v>
       </c>
       <c r="G38">
-        <f>D38-F38</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H38">
         <v>485000</v>
       </c>
       <c r="I38">
-        <f>F38-H38</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J38">
         <v>485000</v>
       </c>
       <c r="K38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L38">
         <v>485000</v>
       </c>
       <c r="M38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N38">
         <v>485000</v>
       </c>
       <c r="O38">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P38">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26500</v>
       </c>
-      <c r="Q38" s="2">
-        <f>P38/B38</f>
+      <c r="Q38">
+        <v>485000</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S38" s="2">
+        <f t="shared" si="14"/>
         <v>5.7797164667393673E-2</v>
       </c>
-      <c r="R38">
-        <f>C38-J38</f>
-        <v>0</v>
-      </c>
-      <c r="S38" t="b">
-        <f>J38&lt;B38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T38">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U38" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>74</v>
       </c>
@@ -8373,62 +8640,69 @@
         <v>515000</v>
       </c>
       <c r="E39">
-        <f>C39-D39</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F39">
         <v>515000</v>
       </c>
       <c r="G39">
-        <f>D39-F39</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H39">
         <v>510500</v>
       </c>
       <c r="I39">
-        <f>F39-H39</f>
+        <f t="shared" si="13"/>
         <v>4500</v>
       </c>
       <c r="J39">
         <v>510500</v>
       </c>
       <c r="K39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L39">
         <v>510500</v>
       </c>
       <c r="M39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N39">
         <v>510500</v>
       </c>
       <c r="O39">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P39">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>26000</v>
       </c>
-      <c r="Q39" s="2">
-        <f>P39/B39</f>
+      <c r="Q39">
+        <v>510500</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="2">
+        <f t="shared" si="14"/>
         <v>5.3663570691434466E-2</v>
       </c>
-      <c r="R39">
-        <f>C39-J39</f>
+      <c r="T39">
+        <f t="shared" si="16"/>
         <v>4500</v>
       </c>
-      <c r="S39" t="b">
-        <f>J39&lt;B39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U39" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>75</v>
       </c>
@@ -8442,62 +8716,69 @@
         <v>343000</v>
       </c>
       <c r="E40">
-        <f>C40-D40</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F40">
         <v>343000</v>
       </c>
       <c r="G40">
-        <f>D40-F40</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H40">
         <v>343000</v>
       </c>
       <c r="I40">
-        <f>F40-H40</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J40">
         <v>340000</v>
       </c>
       <c r="K40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3000</v>
       </c>
       <c r="L40">
         <v>338500</v>
       </c>
       <c r="M40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>1500</v>
       </c>
       <c r="N40">
         <v>338500</v>
       </c>
       <c r="O40">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>17000</v>
       </c>
-      <c r="Q40" s="2">
-        <f>P40/B40</f>
+      <c r="Q40">
+        <v>338500</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S40" s="2">
+        <f t="shared" si="14"/>
         <v>5.2877138413685847E-2</v>
       </c>
-      <c r="R40">
-        <f>C40-J40</f>
+      <c r="T40">
+        <f t="shared" si="16"/>
         <v>3000</v>
       </c>
-      <c r="S40" t="b">
-        <f>J40&lt;B40</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U40" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -8511,62 +8792,69 @@
         <v>216000</v>
       </c>
       <c r="E41">
-        <f>C41-D41</f>
+        <f t="shared" si="11"/>
         <v>1000</v>
       </c>
       <c r="F41">
         <v>216000</v>
       </c>
       <c r="G41">
-        <f>D41-F41</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H41">
         <v>216000</v>
       </c>
       <c r="I41">
-        <f>F41-H41</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J41">
         <v>212500</v>
       </c>
       <c r="K41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3500</v>
       </c>
       <c r="L41">
         <v>212500</v>
       </c>
       <c r="M41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N41">
         <v>212500</v>
       </c>
       <c r="O41">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P41">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>13000</v>
       </c>
-      <c r="Q41" s="2">
-        <f>P41/B41</f>
+      <c r="Q41">
+        <v>212500</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S41" s="2">
+        <f t="shared" si="14"/>
         <v>6.5162907268170422E-2</v>
       </c>
-      <c r="R41">
-        <f>C41-J41</f>
+      <c r="T41">
+        <f t="shared" si="16"/>
         <v>4500</v>
       </c>
-      <c r="S41" t="b">
-        <f>J41&lt;B41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U41" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>77</v>
       </c>
@@ -8580,62 +8868,69 @@
         <v>451500</v>
       </c>
       <c r="E42">
-        <f>C42-D42</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F42">
         <v>451500</v>
       </c>
       <c r="G42">
-        <f>D42-F42</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H42">
         <v>451500</v>
       </c>
       <c r="I42">
-        <f>F42-H42</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J42">
         <v>449000</v>
       </c>
       <c r="K42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2500</v>
       </c>
       <c r="L42">
         <v>449000</v>
       </c>
       <c r="M42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N42">
         <v>449000</v>
       </c>
       <c r="O42">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P42">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>22000</v>
       </c>
-      <c r="Q42" s="2">
-        <f>P42/B42</f>
+      <c r="Q42">
+        <v>449000</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S42" s="2">
+        <f t="shared" si="14"/>
         <v>5.1522248243559721E-2</v>
       </c>
-      <c r="R42">
-        <f>C42-J42</f>
+      <c r="T42">
+        <f t="shared" si="16"/>
         <v>2500</v>
       </c>
-      <c r="S42" t="b">
-        <f>J42&lt;B42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U42" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -8649,62 +8944,69 @@
         <v>296000</v>
       </c>
       <c r="E43">
-        <f>C43-D43</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F43">
         <v>296000</v>
       </c>
       <c r="G43">
-        <f>D43-F43</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H43">
         <v>294500</v>
       </c>
       <c r="I43">
-        <f>F43-H43</f>
+        <f t="shared" si="13"/>
         <v>1500</v>
       </c>
       <c r="J43">
         <v>288500</v>
       </c>
       <c r="K43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="L43">
         <v>288500</v>
       </c>
       <c r="M43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N43">
         <v>288500</v>
       </c>
       <c r="O43">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P43">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
-      <c r="Q43" s="2">
-        <f>P43/B43</f>
+      <c r="Q43">
+        <v>288500</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S43" s="2">
+        <f t="shared" si="14"/>
         <v>4.3399638336347197E-2</v>
       </c>
-      <c r="R43">
-        <f>C43-J43</f>
+      <c r="T43">
+        <f t="shared" si="16"/>
         <v>7500</v>
       </c>
-      <c r="S43" t="b">
-        <f>J43&lt;B43</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U43" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -8718,62 +9020,69 @@
         <v>306500</v>
       </c>
       <c r="E44">
-        <f>C44-D44</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F44">
         <v>306500</v>
       </c>
       <c r="G44">
-        <f>D44-F44</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H44">
         <v>306500</v>
       </c>
       <c r="I44">
-        <f>F44-H44</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J44">
         <v>306500</v>
       </c>
       <c r="K44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L44">
         <v>306500</v>
       </c>
       <c r="M44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N44">
         <v>306500</v>
       </c>
       <c r="O44">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P44">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>19000</v>
       </c>
-      <c r="Q44" s="2">
-        <f>P44/B44</f>
+      <c r="Q44">
+        <v>306500</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S44" s="2">
+        <f t="shared" si="14"/>
         <v>6.6086956521739126E-2</v>
       </c>
-      <c r="R44">
-        <f>C44-J44</f>
-        <v>0</v>
-      </c>
-      <c r="S44" t="b">
-        <f>J44&lt;B44</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U44" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>80</v>
       </c>
@@ -8787,62 +9096,69 @@
         <v>147500</v>
       </c>
       <c r="E45">
-        <f>C45-D45</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F45">
         <v>146000</v>
       </c>
       <c r="G45">
-        <f>D45-F45</f>
+        <f t="shared" si="12"/>
         <v>1500</v>
       </c>
       <c r="H45">
         <v>146000</v>
       </c>
       <c r="I45">
-        <f>F45-H45</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J45">
         <v>146000</v>
       </c>
       <c r="K45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L45">
         <v>146000</v>
       </c>
       <c r="M45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N45">
         <v>146000</v>
       </c>
       <c r="O45">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>7000</v>
       </c>
-      <c r="Q45" s="2">
-        <f>P45/B45</f>
+      <c r="Q45">
+        <v>146000</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S45" s="2">
+        <f t="shared" si="14"/>
         <v>5.0359712230215826E-2</v>
       </c>
-      <c r="R45">
-        <f>C45-J45</f>
+      <c r="T45">
+        <f t="shared" si="16"/>
         <v>1500</v>
       </c>
-      <c r="S45" t="b">
-        <f>J45&lt;B45</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U45" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -8856,62 +9172,69 @@
         <v>277500</v>
       </c>
       <c r="E46">
-        <f>C46-D46</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F46">
         <v>277500</v>
       </c>
       <c r="G46">
-        <f>D46-F46</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H46">
         <v>277500</v>
       </c>
       <c r="I46">
-        <f>F46-H46</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J46">
         <v>275500</v>
       </c>
       <c r="K46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2000</v>
       </c>
       <c r="L46">
         <v>275500</v>
       </c>
       <c r="M46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N46">
         <v>275500</v>
       </c>
       <c r="O46">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>13000</v>
       </c>
-      <c r="Q46" s="2">
-        <f>P46/B46</f>
+      <c r="Q46">
+        <v>275500</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S46" s="2">
+        <f t="shared" si="14"/>
         <v>4.9523809523809526E-2</v>
       </c>
-      <c r="R46">
-        <f>C46-J46</f>
+      <c r="T46">
+        <f t="shared" si="16"/>
         <v>2000</v>
       </c>
-      <c r="S46" t="b">
-        <f>J46&lt;B46</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U46" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>82</v>
       </c>
@@ -8925,62 +9248,69 @@
         <v>254000</v>
       </c>
       <c r="E47">
-        <f>C47-D47</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F47">
         <v>252500</v>
       </c>
       <c r="G47">
-        <f>D47-F47</f>
+        <f t="shared" si="12"/>
         <v>1500</v>
       </c>
       <c r="H47">
         <v>252500</v>
       </c>
       <c r="I47">
-        <f>F47-H47</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J47">
         <v>250000</v>
       </c>
       <c r="K47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>2500</v>
       </c>
       <c r="L47">
         <v>250000</v>
       </c>
       <c r="M47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N47">
         <v>250000</v>
       </c>
       <c r="O47">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>12500</v>
       </c>
-      <c r="Q47" s="2">
-        <f>P47/B47</f>
+      <c r="Q47">
+        <v>250000</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S47" s="2">
+        <f t="shared" si="14"/>
         <v>5.2631578947368418E-2</v>
       </c>
-      <c r="R47">
-        <f>C47-J47</f>
+      <c r="T47">
+        <f t="shared" si="16"/>
         <v>4000</v>
       </c>
-      <c r="S47" t="b">
-        <f>J47&lt;B47</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U47" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>83</v>
       </c>
@@ -8994,62 +9324,69 @@
         <v>233000</v>
       </c>
       <c r="E48">
-        <f>C48-D48</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F48">
         <v>233000</v>
       </c>
       <c r="G48">
-        <f>D48-F48</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H48">
         <v>233000</v>
       </c>
       <c r="I48">
-        <f>F48-H48</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J48">
         <v>233000</v>
       </c>
       <c r="K48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L48">
         <v>233000</v>
       </c>
       <c r="M48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N48">
         <v>233000</v>
       </c>
       <c r="O48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>14500</v>
       </c>
-      <c r="Q48" s="2">
-        <f>P48/B48</f>
+      <c r="Q48">
+        <v>233000</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S48" s="2">
+        <f t="shared" si="14"/>
         <v>6.6361556064073221E-2</v>
       </c>
-      <c r="R48">
-        <f>C48-J48</f>
-        <v>0</v>
-      </c>
-      <c r="S48" t="b">
-        <f>J48&lt;B48</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U48" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>84</v>
       </c>
@@ -9063,62 +9400,69 @@
         <v>422500</v>
       </c>
       <c r="E49">
-        <f>C49-D49</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F49">
         <v>421000</v>
       </c>
       <c r="G49">
-        <f>D49-F49</f>
+        <f t="shared" si="12"/>
         <v>1500</v>
       </c>
       <c r="H49">
         <v>421000</v>
       </c>
       <c r="I49">
-        <f>F49-H49</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J49">
         <v>421000</v>
       </c>
       <c r="K49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L49">
         <v>421000</v>
       </c>
       <c r="M49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N49">
         <v>421000</v>
       </c>
       <c r="O49">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>23500</v>
       </c>
-      <c r="Q49" s="2">
-        <f>P49/B49</f>
+      <c r="Q49">
+        <v>421000</v>
+      </c>
+      <c r="R49">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S49" s="2">
+        <f t="shared" si="14"/>
         <v>5.9119496855345913E-2</v>
       </c>
-      <c r="R49">
-        <f>C49-J49</f>
+      <c r="T49">
+        <f t="shared" si="16"/>
         <v>1500</v>
       </c>
-      <c r="S49" t="b">
-        <f>J49&lt;B49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U49" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>85</v>
       </c>
@@ -9132,62 +9476,69 @@
         <v>390500</v>
       </c>
       <c r="E50">
-        <f>C50-D50</f>
+        <f t="shared" si="11"/>
         <v>2000</v>
       </c>
       <c r="F50">
         <v>390500</v>
       </c>
       <c r="G50">
-        <f>D50-F50</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H50">
         <v>390500</v>
       </c>
       <c r="I50">
-        <f>F50-H50</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J50">
         <v>387000</v>
       </c>
       <c r="K50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>3500</v>
       </c>
       <c r="L50">
         <v>387000</v>
       </c>
       <c r="M50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N50">
         <v>387000</v>
       </c>
       <c r="O50">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>20000</v>
       </c>
-      <c r="Q50" s="2">
-        <f>P50/B50</f>
+      <c r="Q50">
+        <v>387000</v>
+      </c>
+      <c r="R50">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S50" s="2">
+        <f t="shared" si="14"/>
         <v>5.4495912806539509E-2</v>
       </c>
-      <c r="R50">
-        <f>C50-J50</f>
+      <c r="T50">
+        <f t="shared" si="16"/>
         <v>5500</v>
       </c>
-      <c r="S50" t="b">
-        <f>J50&lt;B50</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U50" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>86</v>
       </c>
@@ -9201,62 +9552,69 @@
         <v>289500</v>
       </c>
       <c r="E51">
-        <f>C51-D51</f>
+        <f t="shared" si="11"/>
         <v>1500</v>
       </c>
       <c r="F51">
         <v>289500</v>
       </c>
       <c r="G51">
-        <f>D51-F51</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H51">
         <v>289500</v>
       </c>
       <c r="I51">
-        <f>F51-H51</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J51">
         <v>289500</v>
       </c>
       <c r="K51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L51">
         <v>289500</v>
       </c>
       <c r="M51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N51">
         <v>289500</v>
       </c>
       <c r="O51">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>15500</v>
       </c>
-      <c r="Q51" s="2">
-        <f>P51/B51</f>
+      <c r="Q51">
+        <v>289500</v>
+      </c>
+      <c r="R51">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S51" s="2">
+        <f t="shared" si="14"/>
         <v>5.6569343065693431E-2</v>
       </c>
-      <c r="R51">
-        <f>C51-J51</f>
+      <c r="T51">
+        <f t="shared" si="16"/>
         <v>1500</v>
       </c>
-      <c r="S51" t="b">
-        <f>J51&lt;B51</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U51" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>87</v>
       </c>
@@ -9270,62 +9628,69 @@
         <v>259000</v>
       </c>
       <c r="E52">
-        <f>C52-D52</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F52">
         <v>259000</v>
       </c>
       <c r="G52">
-        <f>D52-F52</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H52">
         <v>259000</v>
       </c>
       <c r="I52">
-        <f>F52-H52</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J52">
         <v>259000</v>
       </c>
       <c r="K52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L52">
         <v>259000</v>
       </c>
       <c r="M52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N52">
         <v>257500</v>
       </c>
       <c r="O52">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>1500</v>
       </c>
       <c r="P52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>14500</v>
       </c>
-      <c r="Q52" s="2">
-        <f>P52/B52</f>
+      <c r="Q52">
+        <v>257500</v>
+      </c>
+      <c r="R52">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S52" s="2">
+        <f t="shared" si="14"/>
         <v>5.9670781893004114E-2</v>
       </c>
-      <c r="R52">
-        <f>C52-J52</f>
-        <v>0</v>
-      </c>
-      <c r="S52" t="b">
-        <f>J52&lt;B52</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T52">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U52" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>88</v>
       </c>
@@ -9339,62 +9704,69 @@
         <v>432500</v>
       </c>
       <c r="E53">
-        <f>C53-D53</f>
+        <f t="shared" si="11"/>
         <v>1500</v>
       </c>
       <c r="F53">
         <v>432500</v>
       </c>
       <c r="G53">
-        <f>D53-F53</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H53">
         <v>432500</v>
       </c>
       <c r="I53">
-        <f>F53-H53</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J53">
         <v>432500</v>
       </c>
       <c r="K53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L53">
         <v>432500</v>
       </c>
       <c r="M53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N53">
         <v>432500</v>
       </c>
       <c r="O53">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>23500</v>
       </c>
-      <c r="Q53" s="2">
-        <f>P53/B53</f>
+      <c r="Q53">
+        <v>432500</v>
+      </c>
+      <c r="R53">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S53" s="2">
+        <f t="shared" si="14"/>
         <v>5.7457212713936431E-2</v>
       </c>
-      <c r="R53">
-        <f>C53-J53</f>
+      <c r="T53">
+        <f t="shared" si="16"/>
         <v>1500</v>
       </c>
-      <c r="S53" t="b">
-        <f>J53&lt;B53</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U53" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>89</v>
       </c>
@@ -9408,62 +9780,69 @@
         <v>139000</v>
       </c>
       <c r="E54">
-        <f>C54-D54</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F54">
         <v>139000</v>
       </c>
       <c r="G54">
-        <f>D54-F54</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H54">
         <v>139000</v>
       </c>
       <c r="I54">
-        <f>F54-H54</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J54">
         <v>139000</v>
       </c>
       <c r="K54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L54">
         <v>139000</v>
       </c>
       <c r="M54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N54">
         <v>139000</v>
       </c>
       <c r="O54">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8500</v>
       </c>
-      <c r="Q54" s="2">
-        <f>P54/B54</f>
+      <c r="Q54">
+        <v>139000</v>
+      </c>
+      <c r="R54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S54" s="2">
+        <f t="shared" si="14"/>
         <v>6.5134099616858232E-2</v>
       </c>
-      <c r="R54">
-        <f>C54-J54</f>
-        <v>0</v>
-      </c>
-      <c r="S54" t="b">
-        <f>J54&lt;B54</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T54">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U54" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>90</v>
       </c>
@@ -9477,62 +9856,69 @@
         <v>289500</v>
       </c>
       <c r="E55">
-        <f>C55-D55</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F55">
         <v>289500</v>
       </c>
       <c r="G55">
-        <f>D55-F55</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H55">
         <v>289500</v>
       </c>
       <c r="I55">
-        <f>F55-H55</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J55">
         <v>289000</v>
       </c>
       <c r="K55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="L55">
         <v>284000</v>
       </c>
       <c r="M55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>5000</v>
       </c>
       <c r="N55">
         <v>284000</v>
       </c>
       <c r="O55">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>12000</v>
       </c>
-      <c r="Q55" s="2">
-        <f>P55/B55</f>
+      <c r="Q55">
+        <v>284000</v>
+      </c>
+      <c r="R55">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S55" s="2">
+        <f t="shared" si="14"/>
         <v>4.4117647058823532E-2</v>
       </c>
-      <c r="R55">
-        <f>C55-J55</f>
+      <c r="T55">
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
-      <c r="S55" t="b">
-        <f>J55&lt;B55</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U55" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>91</v>
       </c>
@@ -9546,62 +9932,69 @@
         <v>123500</v>
       </c>
       <c r="E56">
-        <f>C56-D56</f>
+        <f t="shared" si="11"/>
         <v>500</v>
       </c>
       <c r="F56">
         <v>121500</v>
       </c>
       <c r="G56">
-        <f>D56-F56</f>
+        <f t="shared" si="12"/>
         <v>2000</v>
       </c>
       <c r="H56">
         <v>121000</v>
       </c>
       <c r="I56">
-        <f>F56-H56</f>
+        <f t="shared" si="13"/>
         <v>500</v>
       </c>
       <c r="J56">
         <v>121000</v>
       </c>
       <c r="K56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L56">
         <v>121000</v>
       </c>
       <c r="M56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N56">
         <v>121000</v>
       </c>
       <c r="O56">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>6500</v>
       </c>
-      <c r="Q56" s="2">
-        <f>P56/B56</f>
+      <c r="Q56">
+        <v>121000</v>
+      </c>
+      <c r="R56">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S56" s="2">
+        <f t="shared" si="14"/>
         <v>5.6768558951965066E-2</v>
       </c>
-      <c r="R56">
-        <f>C56-J56</f>
+      <c r="T56">
+        <f t="shared" si="16"/>
         <v>3000</v>
       </c>
-      <c r="S56" t="b">
-        <f>J56&lt;B56</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U56" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>92</v>
       </c>
@@ -9615,62 +10008,69 @@
         <v>285000</v>
       </c>
       <c r="E57">
-        <f>C57-D57</f>
+        <f t="shared" si="11"/>
         <v>2500</v>
       </c>
       <c r="F57">
         <v>284000</v>
       </c>
       <c r="G57">
-        <f>D57-F57</f>
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="H57">
         <v>284000</v>
       </c>
       <c r="I57">
-        <f>F57-H57</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J57">
         <v>284000</v>
       </c>
       <c r="K57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L57">
         <v>284000</v>
       </c>
       <c r="M57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N57">
         <v>284000</v>
       </c>
       <c r="O57">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>16000</v>
       </c>
-      <c r="Q57" s="2">
-        <f>P57/B57</f>
+      <c r="Q57">
+        <v>284000</v>
+      </c>
+      <c r="R57">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="2">
+        <f t="shared" si="14"/>
         <v>5.9701492537313432E-2</v>
       </c>
-      <c r="R57">
-        <f>C57-J57</f>
+      <c r="T57">
+        <f t="shared" si="16"/>
         <v>3500</v>
       </c>
-      <c r="S57" t="b">
-        <f>J57&lt;B57</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U57" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>93</v>
       </c>
@@ -9684,62 +10084,69 @@
         <v>421500</v>
       </c>
       <c r="E58">
-        <f>C58-D58</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F58">
         <v>420500</v>
       </c>
       <c r="G58">
-        <f>D58-F58</f>
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="H58">
         <v>420500</v>
       </c>
       <c r="I58">
-        <f>F58-H58</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J58">
         <v>420000</v>
       </c>
       <c r="K58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="L58">
         <v>420000</v>
       </c>
       <c r="M58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N58">
         <v>420000</v>
       </c>
       <c r="O58">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>22500</v>
       </c>
-      <c r="Q58" s="2">
-        <f>P58/B58</f>
+      <c r="Q58">
+        <v>420000</v>
+      </c>
+      <c r="R58">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="2">
+        <f t="shared" si="14"/>
         <v>5.6603773584905662E-2</v>
       </c>
-      <c r="R58">
-        <f>C58-J58</f>
+      <c r="T58">
+        <f t="shared" si="16"/>
         <v>1500</v>
       </c>
-      <c r="S58" t="b">
-        <f>J58&lt;B58</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U58" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -9753,62 +10160,69 @@
         <v>308500</v>
       </c>
       <c r="E59">
-        <f>C59-D59</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F59">
         <v>308500</v>
       </c>
       <c r="G59">
-        <f>D59-F59</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H59">
         <v>308500</v>
       </c>
       <c r="I59">
-        <f>F59-H59</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J59">
         <v>308500</v>
       </c>
       <c r="K59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L59">
         <v>308500</v>
       </c>
       <c r="M59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N59">
         <v>308500</v>
       </c>
       <c r="O59">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>17500</v>
       </c>
-      <c r="Q59" s="2">
-        <f>P59/B59</f>
+      <c r="Q59">
+        <v>308500</v>
+      </c>
+      <c r="R59">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="2">
+        <f t="shared" si="14"/>
         <v>6.0137457044673541E-2</v>
       </c>
-      <c r="R59">
-        <f>C59-J59</f>
-        <v>0</v>
-      </c>
-      <c r="S59" t="b">
-        <f>J59&lt;B59</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U59" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>95</v>
       </c>
@@ -9822,62 +10236,69 @@
         <v>150000</v>
       </c>
       <c r="E60">
-        <f>C60-D60</f>
+        <f t="shared" si="11"/>
         <v>1500</v>
       </c>
       <c r="F60">
         <v>149000</v>
       </c>
       <c r="G60">
-        <f>D60-F60</f>
+        <f t="shared" si="12"/>
         <v>1000</v>
       </c>
       <c r="H60">
         <v>149000</v>
       </c>
       <c r="I60">
-        <f>F60-H60</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J60">
         <v>149000</v>
       </c>
       <c r="K60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L60">
         <v>149000</v>
       </c>
       <c r="M60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N60">
         <v>149000</v>
       </c>
       <c r="O60">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>8500</v>
       </c>
-      <c r="Q60" s="2">
-        <f>P60/B60</f>
+      <c r="Q60">
+        <v>149000</v>
+      </c>
+      <c r="R60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="2">
+        <f t="shared" si="14"/>
         <v>6.0498220640569395E-2</v>
       </c>
-      <c r="R60">
-        <f>C60-J60</f>
+      <c r="T60">
+        <f t="shared" si="16"/>
         <v>2500</v>
       </c>
-      <c r="S60" t="b">
-        <f>J60&lt;B60</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U60" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>96</v>
       </c>
@@ -9891,62 +10312,69 @@
         <v>345500</v>
       </c>
       <c r="E61">
-        <f>C61-D61</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F61">
         <v>345500</v>
       </c>
       <c r="G61">
-        <f>D61-F61</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H61">
         <v>345500</v>
       </c>
       <c r="I61">
-        <f>F61-H61</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J61">
         <v>345500</v>
       </c>
       <c r="K61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L61">
         <v>345500</v>
       </c>
       <c r="M61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N61">
         <v>345500</v>
       </c>
       <c r="O61">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>20500</v>
       </c>
-      <c r="Q61" s="2">
-        <f>P61/B61</f>
+      <c r="Q61">
+        <v>345500</v>
+      </c>
+      <c r="R61">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="2">
+        <f t="shared" si="14"/>
         <v>6.3076923076923072E-2</v>
       </c>
-      <c r="R61">
-        <f>C61-J61</f>
-        <v>0</v>
-      </c>
-      <c r="S61" t="b">
-        <f>J61&lt;B61</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T61">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="U61" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>97</v>
       </c>
@@ -9960,62 +10388,69 @@
         <v>319000</v>
       </c>
       <c r="E62">
-        <f>C62-D62</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F62">
         <v>319000</v>
       </c>
       <c r="G62">
-        <f>D62-F62</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H62">
         <v>319000</v>
       </c>
       <c r="I62">
-        <f>F62-H62</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J62">
         <v>313000</v>
       </c>
       <c r="K62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>6000</v>
       </c>
       <c r="L62">
         <v>313000</v>
       </c>
       <c r="M62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N62">
         <v>313000</v>
       </c>
       <c r="O62">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>14000</v>
       </c>
-      <c r="Q62" s="2">
-        <f>P62/B62</f>
+      <c r="Q62">
+        <v>313000</v>
+      </c>
+      <c r="R62">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S62" s="2">
+        <f t="shared" si="14"/>
         <v>4.6822742474916385E-2</v>
       </c>
-      <c r="R62">
-        <f>C62-J62</f>
+      <c r="T62">
+        <f t="shared" si="16"/>
         <v>6000</v>
       </c>
-      <c r="S62" t="b">
-        <f>J62&lt;B62</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U62" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>98</v>
       </c>
@@ -10029,62 +10464,69 @@
         <v>341000</v>
       </c>
       <c r="E63">
-        <f>C63-D63</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F63">
         <v>341000</v>
       </c>
       <c r="G63">
-        <f>D63-F63</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H63">
         <v>340000</v>
       </c>
       <c r="I63">
-        <f>F63-H63</f>
+        <f t="shared" si="13"/>
         <v>1000</v>
       </c>
       <c r="J63">
         <v>340000</v>
       </c>
       <c r="K63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L63">
         <v>340000</v>
       </c>
       <c r="M63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N63">
         <v>338000</v>
       </c>
       <c r="O63">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>2000</v>
       </c>
       <c r="P63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>17000</v>
       </c>
-      <c r="Q63" s="2">
-        <f>P63/B63</f>
+      <c r="Q63">
+        <v>338000</v>
+      </c>
+      <c r="R63">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="2">
+        <f t="shared" si="14"/>
         <v>5.2959501557632398E-2</v>
       </c>
-      <c r="R63">
-        <f>C63-J63</f>
+      <c r="T63">
+        <f t="shared" si="16"/>
         <v>1000</v>
       </c>
-      <c r="S63" t="b">
-        <f>J63&lt;B63</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U63" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>99</v>
       </c>
@@ -10098,62 +10540,69 @@
         <v>415500</v>
       </c>
       <c r="E64">
-        <f>C64-D64</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F64">
         <v>415500</v>
       </c>
       <c r="G64">
-        <f>D64-F64</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H64">
         <v>413500</v>
       </c>
       <c r="I64">
-        <f>F64-H64</f>
+        <f t="shared" si="13"/>
         <v>2000</v>
       </c>
       <c r="J64">
         <v>413500</v>
       </c>
       <c r="K64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L64">
         <v>413500</v>
       </c>
       <c r="M64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N64">
         <v>413500</v>
       </c>
       <c r="O64">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>22500</v>
       </c>
-      <c r="Q64" s="2">
-        <f>P64/B64</f>
+      <c r="Q64">
+        <v>413500</v>
+      </c>
+      <c r="R64">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="2">
+        <f t="shared" si="14"/>
         <v>5.754475703324808E-2</v>
       </c>
-      <c r="R64">
-        <f>C64-J64</f>
+      <c r="T64">
+        <f t="shared" si="16"/>
         <v>2000</v>
       </c>
-      <c r="S64" t="b">
-        <f>J64&lt;B64</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U64" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>100</v>
       </c>
@@ -10167,62 +10616,69 @@
         <v>230000</v>
       </c>
       <c r="E65">
-        <f>C65-D65</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="F65">
         <v>229500</v>
       </c>
       <c r="G65">
-        <f>D65-F65</f>
+        <f t="shared" si="12"/>
         <v>500</v>
       </c>
       <c r="H65">
         <v>229500</v>
       </c>
       <c r="I65">
-        <f>F65-H65</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J65">
         <v>229500</v>
       </c>
       <c r="K65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L65">
         <v>229500</v>
       </c>
       <c r="M65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N65">
         <v>229500</v>
       </c>
       <c r="O65">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P65">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>15500</v>
       </c>
-      <c r="Q65" s="2">
-        <f>P65/B65</f>
+      <c r="Q65">
+        <v>229500</v>
+      </c>
+      <c r="R65">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="2">
+        <f t="shared" si="14"/>
         <v>7.2429906542056069E-2</v>
       </c>
-      <c r="R65">
-        <f>C65-J65</f>
+      <c r="T65">
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
-      <c r="S65" t="b">
-        <f>J65&lt;B65</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U65" t="b">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>101</v>
       </c>
@@ -10236,62 +10692,69 @@
         <v>433500</v>
       </c>
       <c r="E66">
-        <f>C66-D66</f>
+        <f t="shared" ref="E66:E97" si="17">C66-D66</f>
         <v>0</v>
       </c>
       <c r="F66">
         <v>433500</v>
       </c>
       <c r="G66">
-        <f>D66-F66</f>
+        <f t="shared" ref="G66:G97" si="18">D66-F66</f>
         <v>0</v>
       </c>
       <c r="H66">
         <v>433500</v>
       </c>
       <c r="I66">
-        <f>F66-H66</f>
+        <f t="shared" ref="I66:I97" si="19">F66-H66</f>
         <v>0</v>
       </c>
       <c r="J66">
         <v>433000</v>
       </c>
       <c r="K66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>500</v>
       </c>
       <c r="L66">
         <v>431000</v>
       </c>
       <c r="M66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="6"/>
         <v>2000</v>
       </c>
       <c r="N66">
         <v>431000</v>
       </c>
       <c r="O66">
-        <f t="shared" si="2"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P66">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>24500</v>
       </c>
-      <c r="Q66" s="2">
-        <f>P66/B66</f>
+      <c r="Q66">
+        <v>431000</v>
+      </c>
+      <c r="R66">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="2">
+        <f t="shared" ref="S66:S97" si="20">P66/B66</f>
         <v>6.0270602706027063E-2</v>
       </c>
-      <c r="R66">
-        <f>C66-J66</f>
+      <c r="T66">
+        <f t="shared" si="16"/>
         <v>500</v>
       </c>
-      <c r="S66" t="b">
-        <f>J66&lt;B66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U66" t="b">
+        <f t="shared" ref="U66:U101" si="21">J66&lt;B66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>102</v>
       </c>
@@ -10305,62 +10768,69 @@
         <v>491500</v>
       </c>
       <c r="E67">
-        <f>C67-D67</f>
+        <f t="shared" si="17"/>
         <v>2500</v>
       </c>
       <c r="F67">
         <v>491500</v>
       </c>
       <c r="G67">
-        <f>D67-F67</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H67">
         <v>488000</v>
       </c>
       <c r="I67">
-        <f>F67-H67</f>
+        <f t="shared" si="19"/>
         <v>3500</v>
       </c>
       <c r="J67">
         <v>488000</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K101" si="4">H67-J67</f>
+        <f t="shared" ref="K67:K101" si="22">H67-J67</f>
         <v>0</v>
       </c>
       <c r="L67">
         <v>488000</v>
       </c>
       <c r="M67">
-        <f t="shared" ref="M67:M101" si="5">J67-L67</f>
+        <f t="shared" ref="M67:M101" si="23">J67-L67</f>
         <v>0</v>
       </c>
       <c r="N67">
         <v>488000</v>
       </c>
       <c r="O67">
-        <f t="shared" ref="O67:O101" si="6">L67-N67</f>
+        <f t="shared" ref="O67:O101" si="24">L67-N67</f>
         <v>0</v>
       </c>
       <c r="P67">
-        <f t="shared" ref="P67:P101" si="7">N67-B67</f>
+        <f t="shared" ref="P67:P101" si="25">N67-B67</f>
         <v>24500</v>
       </c>
-      <c r="Q67" s="2">
-        <f>P67/B67</f>
+      <c r="Q67">
+        <v>488000</v>
+      </c>
+      <c r="R67">
+        <f t="shared" ref="R67:R101" si="26">N67-Q67</f>
+        <v>0</v>
+      </c>
+      <c r="S67" s="2">
+        <f t="shared" si="20"/>
         <v>5.2858683926645091E-2</v>
       </c>
-      <c r="R67">
-        <f>C67-J67</f>
+      <c r="T67">
+        <f t="shared" ref="T67:T101" si="27">C67-J67</f>
         <v>6000</v>
       </c>
-      <c r="S67" t="b">
-        <f>J67&lt;B67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U67" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>103</v>
       </c>
@@ -10374,62 +10844,69 @@
         <v>259500</v>
       </c>
       <c r="E68">
-        <f>C68-D68</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F68">
         <v>259500</v>
       </c>
       <c r="G68">
-        <f>D68-F68</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H68">
         <v>259500</v>
       </c>
       <c r="I68">
-        <f>F68-H68</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J68">
         <v>255000</v>
       </c>
       <c r="K68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>4500</v>
       </c>
       <c r="L68">
         <v>255000</v>
       </c>
       <c r="M68">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N68">
         <v>255000</v>
       </c>
       <c r="O68">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P68">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>10000</v>
       </c>
-      <c r="Q68" s="2">
-        <f>P68/B68</f>
+      <c r="Q68">
+        <v>255000</v>
+      </c>
+      <c r="R68">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S68" s="2">
+        <f t="shared" si="20"/>
         <v>4.0816326530612242E-2</v>
       </c>
-      <c r="R68">
-        <f>C68-J68</f>
+      <c r="T68">
+        <f t="shared" si="27"/>
         <v>4500</v>
       </c>
-      <c r="S68" t="b">
-        <f>J68&lt;B68</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U68" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>104</v>
       </c>
@@ -10443,62 +10920,69 @@
         <v>381000</v>
       </c>
       <c r="E69">
-        <f>C69-D69</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F69">
         <v>381000</v>
       </c>
       <c r="G69">
-        <f>D69-F69</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H69">
         <v>381000</v>
       </c>
       <c r="I69">
-        <f>F69-H69</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J69">
         <v>381000</v>
       </c>
       <c r="K69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L69">
         <v>381000</v>
       </c>
       <c r="M69">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N69">
         <v>381000</v>
       </c>
       <c r="O69">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P69">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>20500</v>
       </c>
-      <c r="Q69" s="2">
-        <f>P69/B69</f>
+      <c r="Q69">
+        <v>381000</v>
+      </c>
+      <c r="R69">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S69" s="2">
+        <f t="shared" si="20"/>
         <v>5.6865464632454926E-2</v>
       </c>
-      <c r="R69">
-        <f>C69-J69</f>
-        <v>0</v>
-      </c>
-      <c r="S69" t="b">
-        <f>J69&lt;B69</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T69">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U69" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>105</v>
       </c>
@@ -10512,62 +10996,69 @@
         <v>481500</v>
       </c>
       <c r="E70">
-        <f>C70-D70</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F70">
         <v>479500</v>
       </c>
       <c r="G70">
-        <f>D70-F70</f>
+        <f t="shared" si="18"/>
         <v>2000</v>
       </c>
       <c r="H70">
         <v>479500</v>
       </c>
       <c r="I70">
-        <f>F70-H70</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J70">
         <v>479500</v>
       </c>
       <c r="K70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L70">
         <v>479500</v>
       </c>
       <c r="M70">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N70">
         <v>479500</v>
       </c>
       <c r="O70">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P70">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>26500</v>
       </c>
-      <c r="Q70" s="2">
-        <f>P70/B70</f>
+      <c r="Q70">
+        <v>479500</v>
+      </c>
+      <c r="R70">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S70" s="2">
+        <f t="shared" si="20"/>
         <v>5.8498896247240618E-2</v>
       </c>
-      <c r="R70">
-        <f>C70-J70</f>
+      <c r="T70">
+        <f t="shared" si="27"/>
         <v>2000</v>
       </c>
-      <c r="S70" t="b">
-        <f>J70&lt;B70</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U70" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>106</v>
       </c>
@@ -10581,62 +11072,69 @@
         <v>235500</v>
       </c>
       <c r="E71">
-        <f>C71-D71</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F71">
         <v>235500</v>
       </c>
       <c r="G71">
-        <f>D71-F71</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H71">
         <v>235500</v>
       </c>
       <c r="I71">
-        <f>F71-H71</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J71">
         <v>234500</v>
       </c>
       <c r="K71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="L71">
         <v>234500</v>
       </c>
       <c r="M71">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N71">
         <v>234500</v>
       </c>
       <c r="O71">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P71">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>14000</v>
       </c>
-      <c r="Q71" s="2">
-        <f>P71/B71</f>
+      <c r="Q71">
+        <v>234500</v>
+      </c>
+      <c r="R71">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S71" s="2">
+        <f t="shared" si="20"/>
         <v>6.3492063492063489E-2</v>
       </c>
-      <c r="R71">
-        <f>C71-J71</f>
+      <c r="T71">
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
-      <c r="S71" t="b">
-        <f>J71&lt;B71</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U71" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>107</v>
       </c>
@@ -10650,62 +11148,69 @@
         <v>359000</v>
       </c>
       <c r="E72">
-        <f>C72-D72</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F72">
         <v>359000</v>
       </c>
       <c r="G72">
-        <f>D72-F72</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H72">
         <v>359000</v>
       </c>
       <c r="I72">
-        <f>F72-H72</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J72">
         <v>353500</v>
       </c>
       <c r="K72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>5500</v>
       </c>
       <c r="L72">
         <v>352000</v>
       </c>
       <c r="M72">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1500</v>
       </c>
       <c r="N72">
         <v>352000</v>
       </c>
       <c r="O72">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P72">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>14500</v>
       </c>
-      <c r="Q72" s="2">
-        <f>P72/B72</f>
+      <c r="Q72">
+        <v>352000</v>
+      </c>
+      <c r="R72">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S72" s="2">
+        <f t="shared" si="20"/>
         <v>4.296296296296296E-2</v>
       </c>
-      <c r="R72">
-        <f>C72-J72</f>
+      <c r="T72">
+        <f t="shared" si="27"/>
         <v>5500</v>
       </c>
-      <c r="S72" t="b">
-        <f>J72&lt;B72</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U72" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>108</v>
       </c>
@@ -10719,62 +11224,69 @@
         <v>286000</v>
       </c>
       <c r="E73">
-        <f>C73-D73</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F73">
         <v>285000</v>
       </c>
       <c r="G73">
-        <f>D73-F73</f>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="H73">
         <v>285000</v>
       </c>
       <c r="I73">
-        <f>F73-H73</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J73">
         <v>285000</v>
       </c>
       <c r="K73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L73">
         <v>285000</v>
       </c>
       <c r="M73">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N73">
         <v>282500</v>
       </c>
       <c r="O73">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>2500</v>
       </c>
       <c r="P73">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>15500</v>
       </c>
-      <c r="Q73" s="2">
-        <f>P73/B73</f>
+      <c r="Q73">
+        <v>282500</v>
+      </c>
+      <c r="R73">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S73" s="2">
+        <f t="shared" si="20"/>
         <v>5.8052434456928842E-2</v>
       </c>
-      <c r="R73">
-        <f>C73-J73</f>
+      <c r="T73">
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
-      <c r="S73" t="b">
-        <f>J73&lt;B73</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U73" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>109</v>
       </c>
@@ -10788,62 +11300,69 @@
         <v>468500</v>
       </c>
       <c r="E74">
-        <f>C74-D74</f>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="F74">
         <v>468500</v>
       </c>
       <c r="G74">
-        <f>D74-F74</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H74">
         <v>468500</v>
       </c>
       <c r="I74">
-        <f>F74-H74</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J74">
         <v>465500</v>
       </c>
       <c r="K74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>3000</v>
       </c>
       <c r="L74">
         <v>465500</v>
       </c>
       <c r="M74">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N74">
         <v>465500</v>
       </c>
       <c r="O74">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P74">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>24500</v>
       </c>
-      <c r="Q74" s="2">
-        <f>P74/B74</f>
+      <c r="Q74">
+        <v>465500</v>
+      </c>
+      <c r="R74">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S74" s="2">
+        <f t="shared" si="20"/>
         <v>5.5555555555555552E-2</v>
       </c>
-      <c r="R74">
-        <f>C74-J74</f>
+      <c r="T74">
+        <f t="shared" si="27"/>
         <v>4000</v>
       </c>
-      <c r="S74" t="b">
-        <f>J74&lt;B74</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U74" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>110</v>
       </c>
@@ -10857,62 +11376,69 @@
         <v>372000</v>
       </c>
       <c r="E75">
-        <f>C75-D75</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F75">
         <v>372000</v>
       </c>
       <c r="G75">
-        <f>D75-F75</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H75">
         <v>372000</v>
       </c>
       <c r="I75">
-        <f>F75-H75</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J75">
         <v>369500</v>
       </c>
       <c r="K75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>2500</v>
       </c>
       <c r="L75">
         <v>369500</v>
       </c>
       <c r="M75">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N75">
         <v>369500</v>
       </c>
       <c r="O75">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P75">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>16500</v>
       </c>
-      <c r="Q75" s="2">
-        <f>P75/B75</f>
+      <c r="Q75">
+        <v>369500</v>
+      </c>
+      <c r="R75">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S75" s="2">
+        <f t="shared" si="20"/>
         <v>4.6742209631728045E-2</v>
       </c>
-      <c r="R75">
-        <f>C75-J75</f>
+      <c r="T75">
+        <f t="shared" si="27"/>
         <v>2500</v>
       </c>
-      <c r="S75" t="b">
-        <f>J75&lt;B75</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U75" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>111</v>
       </c>
@@ -10926,62 +11452,69 @@
         <v>234500</v>
       </c>
       <c r="E76">
-        <f>C76-D76</f>
+        <f t="shared" si="17"/>
         <v>1000</v>
       </c>
       <c r="F76">
         <v>234500</v>
       </c>
       <c r="G76">
-        <f>D76-F76</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H76">
         <v>234500</v>
       </c>
       <c r="I76">
-        <f>F76-H76</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J76">
         <v>234500</v>
       </c>
       <c r="K76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L76">
         <v>234500</v>
       </c>
       <c r="M76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N76">
         <v>231000</v>
       </c>
       <c r="O76">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>3500</v>
       </c>
       <c r="P76">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>13000</v>
       </c>
-      <c r="Q76" s="2">
-        <f>P76/B76</f>
+      <c r="Q76">
+        <v>231000</v>
+      </c>
+      <c r="R76">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S76" s="2">
+        <f t="shared" si="20"/>
         <v>5.9633027522935783E-2</v>
       </c>
-      <c r="R76">
-        <f>C76-J76</f>
+      <c r="T76">
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
-      <c r="S76" t="b">
-        <f>J76&lt;B76</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U76" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>112</v>
       </c>
@@ -10995,62 +11528,69 @@
         <v>292500</v>
       </c>
       <c r="E77">
-        <f>C77-D77</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F77">
         <v>292500</v>
       </c>
       <c r="G77">
-        <f>D77-F77</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H77">
         <v>292500</v>
       </c>
       <c r="I77">
-        <f>F77-H77</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J77">
         <v>290000</v>
       </c>
       <c r="K77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>2500</v>
       </c>
       <c r="L77">
         <v>288500</v>
       </c>
       <c r="M77">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1500</v>
       </c>
       <c r="N77">
         <v>288500</v>
       </c>
       <c r="O77">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P77">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>14000</v>
       </c>
-      <c r="Q77" s="2">
-        <f>P77/B77</f>
+      <c r="Q77">
+        <v>288500</v>
+      </c>
+      <c r="R77">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S77" s="2">
+        <f t="shared" si="20"/>
         <v>5.1001821493624776E-2</v>
       </c>
-      <c r="R77">
-        <f>C77-J77</f>
+      <c r="T77">
+        <f t="shared" si="27"/>
         <v>2500</v>
       </c>
-      <c r="S77" t="b">
-        <f>J77&lt;B77</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U77" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>113</v>
       </c>
@@ -11064,62 +11604,69 @@
         <v>358000</v>
       </c>
       <c r="E78">
-        <f>C78-D78</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F78">
         <v>358000</v>
       </c>
       <c r="G78">
-        <f>D78-F78</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H78">
         <v>358000</v>
       </c>
       <c r="I78">
-        <f>F78-H78</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J78">
         <v>358000</v>
       </c>
       <c r="K78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L78">
         <v>358000</v>
       </c>
       <c r="M78">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N78">
         <v>358000</v>
       </c>
       <c r="O78">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P78">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>19000</v>
       </c>
-      <c r="Q78" s="2">
-        <f>P78/B78</f>
+      <c r="Q78">
+        <v>358000</v>
+      </c>
+      <c r="R78">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S78" s="2">
+        <f t="shared" si="20"/>
         <v>5.6047197640117993E-2</v>
       </c>
-      <c r="R78">
-        <f>C78-J78</f>
-        <v>0</v>
-      </c>
-      <c r="S78" t="b">
-        <f>J78&lt;B78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T78">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U78" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>114</v>
       </c>
@@ -11133,62 +11680,69 @@
         <v>342000</v>
       </c>
       <c r="E79">
-        <f>C79-D79</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F79">
         <v>339000</v>
       </c>
       <c r="G79">
-        <f>D79-F79</f>
+        <f t="shared" si="18"/>
         <v>3000</v>
       </c>
       <c r="H79">
         <v>339000</v>
       </c>
       <c r="I79">
-        <f>F79-H79</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J79">
         <v>336500</v>
       </c>
       <c r="K79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>2500</v>
       </c>
       <c r="L79">
         <v>336500</v>
       </c>
       <c r="M79">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N79">
         <v>336500</v>
       </c>
       <c r="O79">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P79">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>17500</v>
       </c>
-      <c r="Q79" s="2">
-        <f>P79/B79</f>
+      <c r="Q79">
+        <v>336500</v>
+      </c>
+      <c r="R79">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S79" s="2">
+        <f t="shared" si="20"/>
         <v>5.4858934169278999E-2</v>
       </c>
-      <c r="R79">
-        <f>C79-J79</f>
+      <c r="T79">
+        <f t="shared" si="27"/>
         <v>5500</v>
       </c>
-      <c r="S79" t="b">
-        <f>J79&lt;B79</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U79" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>115</v>
       </c>
@@ -11202,62 +11756,69 @@
         <v>327000</v>
       </c>
       <c r="E80">
-        <f>C80-D80</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F80">
         <v>327000</v>
       </c>
       <c r="G80">
-        <f>D80-F80</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H80">
         <v>327000</v>
       </c>
       <c r="I80">
-        <f>F80-H80</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J80">
         <v>326500</v>
       </c>
       <c r="K80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>500</v>
       </c>
       <c r="L80">
         <v>326500</v>
       </c>
       <c r="M80">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N80">
         <v>326500</v>
       </c>
       <c r="O80">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P80">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>17500</v>
       </c>
-      <c r="Q80" s="2">
-        <f>P80/B80</f>
+      <c r="Q80">
+        <v>326500</v>
+      </c>
+      <c r="R80">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S80" s="2">
+        <f t="shared" si="20"/>
         <v>5.6634304207119741E-2</v>
       </c>
-      <c r="R80">
-        <f>C80-J80</f>
+      <c r="T80">
+        <f t="shared" si="27"/>
         <v>500</v>
       </c>
-      <c r="S80" t="b">
-        <f>J80&lt;B80</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U80" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>116</v>
       </c>
@@ -11271,62 +11832,69 @@
         <v>511000</v>
       </c>
       <c r="E81">
-        <f>C81-D81</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F81">
         <v>511000</v>
       </c>
       <c r="G81">
-        <f>D81-F81</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H81">
         <v>511000</v>
       </c>
       <c r="I81">
-        <f>F81-H81</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J81">
         <v>507500</v>
       </c>
       <c r="K81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>3500</v>
       </c>
       <c r="L81">
         <v>507500</v>
       </c>
       <c r="M81">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N81">
         <v>507500</v>
       </c>
       <c r="O81">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P81">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>22000</v>
       </c>
-      <c r="Q81" s="2">
-        <f>P81/B81</f>
+      <c r="Q81">
+        <v>507500</v>
+      </c>
+      <c r="R81">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S81" s="2">
+        <f t="shared" si="20"/>
         <v>4.5314109165808442E-2</v>
       </c>
-      <c r="R81">
-        <f>C81-J81</f>
+      <c r="T81">
+        <f t="shared" si="27"/>
         <v>3500</v>
       </c>
-      <c r="S81" t="b">
-        <f>J81&lt;B81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U81" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>117</v>
       </c>
@@ -11340,62 +11908,69 @@
         <v>243000</v>
       </c>
       <c r="E82">
-        <f>C82-D82</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F82">
         <v>243000</v>
       </c>
       <c r="G82">
-        <f>D82-F82</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H82">
         <v>243000</v>
       </c>
       <c r="I82">
-        <f>F82-H82</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J82">
         <v>243000</v>
       </c>
       <c r="K82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L82">
         <v>242000</v>
       </c>
       <c r="M82">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="N82">
         <v>242000</v>
       </c>
       <c r="O82">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P82">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>14000</v>
       </c>
-      <c r="Q82" s="2">
-        <f>P82/B82</f>
+      <c r="Q82">
+        <v>242000</v>
+      </c>
+      <c r="R82">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S82" s="2">
+        <f t="shared" si="20"/>
         <v>6.1403508771929821E-2</v>
       </c>
-      <c r="R82">
-        <f>C82-J82</f>
-        <v>0</v>
-      </c>
-      <c r="S82" t="b">
-        <f>J82&lt;B82</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T82">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U82" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>118</v>
       </c>
@@ -11409,62 +11984,69 @@
         <v>170000</v>
       </c>
       <c r="E83">
-        <f>C83-D83</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F83">
         <v>170000</v>
       </c>
       <c r="G83">
-        <f>D83-F83</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H83">
         <v>170000</v>
       </c>
       <c r="I83">
-        <f>F83-H83</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J83">
         <v>166000</v>
       </c>
       <c r="K83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>4000</v>
       </c>
       <c r="L83">
         <v>166000</v>
       </c>
       <c r="M83">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N83">
         <v>166000</v>
       </c>
       <c r="O83">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P83">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>8500</v>
       </c>
-      <c r="Q83" s="2">
-        <f>P83/B83</f>
+      <c r="Q83">
+        <v>166000</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S83" s="2">
+        <f t="shared" si="20"/>
         <v>5.3968253968253971E-2</v>
       </c>
-      <c r="R83">
-        <f>C83-J83</f>
+      <c r="T83">
+        <f t="shared" si="27"/>
         <v>4000</v>
       </c>
-      <c r="S83" t="b">
-        <f>J83&lt;B83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U83" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>119</v>
       </c>
@@ -11478,62 +12060,69 @@
         <v>219000</v>
       </c>
       <c r="E84">
-        <f>C84-D84</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F84">
         <v>217500</v>
       </c>
       <c r="G84">
-        <f>D84-F84</f>
+        <f t="shared" si="18"/>
         <v>1500</v>
       </c>
       <c r="H84">
         <v>217500</v>
       </c>
       <c r="I84">
-        <f>F84-H84</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J84">
         <v>216500</v>
       </c>
       <c r="K84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="L84">
         <v>215500</v>
       </c>
       <c r="M84">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="N84">
         <v>215500</v>
       </c>
       <c r="O84">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P84">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>11500</v>
       </c>
-      <c r="Q84" s="2">
-        <f>P84/B84</f>
+      <c r="Q84">
+        <v>215500</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S84" s="2">
+        <f t="shared" si="20"/>
         <v>5.6372549019607844E-2</v>
       </c>
-      <c r="R84">
-        <f>C84-J84</f>
+      <c r="T84">
+        <f t="shared" si="27"/>
         <v>2500</v>
       </c>
-      <c r="S84" t="b">
-        <f>J84&lt;B84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U84" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>120</v>
       </c>
@@ -11547,62 +12136,69 @@
         <v>172000</v>
       </c>
       <c r="E85">
-        <f>C85-D85</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F85">
         <v>172000</v>
       </c>
       <c r="G85">
-        <f>D85-F85</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H85">
         <v>172000</v>
       </c>
       <c r="I85">
-        <f>F85-H85</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J85">
         <v>169000</v>
       </c>
       <c r="K85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>3000</v>
       </c>
       <c r="L85">
         <v>169000</v>
       </c>
       <c r="M85">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N85">
         <v>169000</v>
       </c>
       <c r="O85">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P85">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>8500</v>
       </c>
-      <c r="Q85" s="2">
-        <f>P85/B85</f>
+      <c r="Q85">
+        <v>169000</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S85" s="2">
+        <f t="shared" si="20"/>
         <v>5.2959501557632398E-2</v>
       </c>
-      <c r="R85">
-        <f>C85-J85</f>
+      <c r="T85">
+        <f t="shared" si="27"/>
         <v>3000</v>
       </c>
-      <c r="S85" t="b">
-        <f>J85&lt;B85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U85" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>121</v>
       </c>
@@ -11616,62 +12212,69 @@
         <v>478500</v>
       </c>
       <c r="E86">
-        <f>C86-D86</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F86">
         <v>478500</v>
       </c>
       <c r="G86">
-        <f>D86-F86</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H86">
         <v>478500</v>
       </c>
       <c r="I86">
-        <f>F86-H86</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J86">
         <v>476500</v>
       </c>
       <c r="K86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>2000</v>
       </c>
       <c r="L86">
         <v>476500</v>
       </c>
       <c r="M86">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N86">
         <v>476500</v>
       </c>
       <c r="O86">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P86">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>24500</v>
       </c>
-      <c r="Q86" s="2">
-        <f>P86/B86</f>
+      <c r="Q86">
+        <v>476500</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S86" s="2">
+        <f t="shared" si="20"/>
         <v>5.4203539823008851E-2</v>
       </c>
-      <c r="R86">
-        <f>C86-J86</f>
+      <c r="T86">
+        <f t="shared" si="27"/>
         <v>2000</v>
       </c>
-      <c r="S86" t="b">
-        <f>J86&lt;B86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U86" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>122</v>
       </c>
@@ -11685,62 +12288,69 @@
         <v>458000</v>
       </c>
       <c r="E87">
-        <f>C87-D87</f>
+        <f t="shared" si="17"/>
         <v>2000</v>
       </c>
       <c r="F87">
         <v>453000</v>
       </c>
       <c r="G87">
-        <f>D87-F87</f>
+        <f t="shared" si="18"/>
         <v>5000</v>
       </c>
       <c r="H87">
         <v>453000</v>
       </c>
       <c r="I87">
-        <f>F87-H87</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J87">
         <v>453000</v>
       </c>
       <c r="K87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L87">
         <v>453000</v>
       </c>
       <c r="M87">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N87">
         <v>453000</v>
       </c>
       <c r="O87">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P87">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>23000</v>
       </c>
-      <c r="Q87" s="2">
-        <f>P87/B87</f>
+      <c r="Q87">
+        <v>453000</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S87" s="2">
+        <f t="shared" si="20"/>
         <v>5.3488372093023255E-2</v>
       </c>
-      <c r="R87">
-        <f>C87-J87</f>
+      <c r="T87">
+        <f t="shared" si="27"/>
         <v>7000</v>
       </c>
-      <c r="S87" t="b">
-        <f>J87&lt;B87</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U87" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>123</v>
       </c>
@@ -11754,62 +12364,69 @@
         <v>386500</v>
       </c>
       <c r="E88">
-        <f>C88-D88</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F88">
         <v>386500</v>
       </c>
       <c r="G88">
-        <f>D88-F88</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H88">
         <v>386500</v>
       </c>
       <c r="I88">
-        <f>F88-H88</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J88">
         <v>383500</v>
       </c>
       <c r="K88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>3000</v>
       </c>
       <c r="L88">
         <v>383500</v>
       </c>
       <c r="M88">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N88">
         <v>383500</v>
       </c>
       <c r="O88">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P88">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>17500</v>
       </c>
-      <c r="Q88" s="2">
-        <f>P88/B88</f>
+      <c r="Q88">
+        <v>383500</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S88" s="2">
+        <f t="shared" si="20"/>
         <v>4.7814207650273222E-2</v>
       </c>
-      <c r="R88">
-        <f>C88-J88</f>
+      <c r="T88">
+        <f t="shared" si="27"/>
         <v>3000</v>
       </c>
-      <c r="S88" t="b">
-        <f>J88&lt;B88</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U88" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>124</v>
       </c>
@@ -11823,62 +12440,69 @@
         <v>240000</v>
       </c>
       <c r="E89">
-        <f>C89-D89</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F89">
         <v>240000</v>
       </c>
       <c r="G89">
-        <f>D89-F89</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H89">
         <v>240000</v>
       </c>
       <c r="I89">
-        <f>F89-H89</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J89">
         <v>239000</v>
       </c>
       <c r="K89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1000</v>
       </c>
       <c r="L89">
         <v>239000</v>
       </c>
       <c r="M89">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N89">
         <v>239000</v>
       </c>
       <c r="O89">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P89">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>17000</v>
       </c>
-      <c r="Q89" s="2">
-        <f>P89/B89</f>
+      <c r="Q89">
+        <v>239000</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S89" s="2">
+        <f t="shared" si="20"/>
         <v>7.6576576576576572E-2</v>
       </c>
-      <c r="R89">
-        <f>C89-J89</f>
+      <c r="T89">
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
-      <c r="S89" t="b">
-        <f>J89&lt;B89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U89" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>125</v>
       </c>
@@ -11892,62 +12516,69 @@
         <v>526000</v>
       </c>
       <c r="E90">
-        <f>C90-D90</f>
+        <f t="shared" si="17"/>
         <v>1500</v>
       </c>
       <c r="F90">
         <v>523500</v>
       </c>
       <c r="G90">
-        <f>D90-F90</f>
+        <f t="shared" si="18"/>
         <v>2500</v>
       </c>
       <c r="H90">
         <v>523500</v>
       </c>
       <c r="I90">
-        <f>F90-H90</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J90">
         <v>523500</v>
       </c>
       <c r="K90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L90">
         <v>523500</v>
       </c>
       <c r="M90">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N90">
         <v>523500</v>
       </c>
       <c r="O90">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P90">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>27500</v>
       </c>
-      <c r="Q90" s="2">
-        <f>P90/B90</f>
+      <c r="Q90">
+        <v>523500</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S90" s="2">
+        <f t="shared" si="20"/>
         <v>5.5443548387096774E-2</v>
       </c>
-      <c r="R90">
-        <f>C90-J90</f>
+      <c r="T90">
+        <f t="shared" si="27"/>
         <v>4000</v>
       </c>
-      <c r="S90" t="b">
-        <f>J90&lt;B90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U90" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>126</v>
       </c>
@@ -11961,62 +12592,69 @@
         <v>360500</v>
       </c>
       <c r="E91">
-        <f>C91-D91</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F91">
         <v>360500</v>
       </c>
       <c r="G91">
-        <f>D91-F91</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H91">
         <v>360500</v>
       </c>
       <c r="I91">
-        <f>F91-H91</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J91">
         <v>360500</v>
       </c>
       <c r="K91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L91">
         <v>360500</v>
       </c>
       <c r="M91">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N91">
         <v>360500</v>
       </c>
       <c r="O91">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P91">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>21000</v>
       </c>
-      <c r="Q91" s="2">
-        <f>P91/B91</f>
+      <c r="Q91">
+        <v>360500</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S91" s="2">
+        <f t="shared" si="20"/>
         <v>6.1855670103092786E-2</v>
       </c>
-      <c r="R91">
-        <f>C91-J91</f>
-        <v>0</v>
-      </c>
-      <c r="S91" t="b">
-        <f>J91&lt;B91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T91">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U91" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>127</v>
       </c>
@@ -12030,62 +12668,69 @@
         <v>149500</v>
       </c>
       <c r="E92">
-        <f>C92-D92</f>
+        <f t="shared" si="17"/>
         <v>2500</v>
       </c>
       <c r="F92">
         <v>149500</v>
       </c>
       <c r="G92">
-        <f>D92-F92</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H92">
         <v>149500</v>
       </c>
       <c r="I92">
-        <f>F92-H92</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J92">
         <v>149500</v>
       </c>
       <c r="K92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L92">
         <v>149500</v>
       </c>
       <c r="M92">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N92">
         <v>149500</v>
       </c>
       <c r="O92">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P92">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>7500</v>
       </c>
-      <c r="Q92" s="2">
-        <f>P92/B92</f>
+      <c r="Q92">
+        <v>149500</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S92" s="2">
+        <f t="shared" si="20"/>
         <v>5.2816901408450703E-2</v>
       </c>
-      <c r="R92">
-        <f>C92-J92</f>
+      <c r="T92">
+        <f t="shared" si="27"/>
         <v>2500</v>
       </c>
-      <c r="S92" t="b">
-        <f>J92&lt;B92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U92" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>128</v>
       </c>
@@ -12099,62 +12744,69 @@
         <v>272000</v>
       </c>
       <c r="E93">
-        <f>C93-D93</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F93">
         <v>272000</v>
       </c>
       <c r="G93">
-        <f>D93-F93</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H93">
         <v>272000</v>
       </c>
       <c r="I93">
-        <f>F93-H93</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J93">
         <v>270500</v>
       </c>
       <c r="K93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>1500</v>
       </c>
       <c r="L93">
         <v>270500</v>
       </c>
       <c r="M93">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N93">
         <v>270500</v>
       </c>
       <c r="O93">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P93">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>16000</v>
       </c>
-      <c r="Q93" s="2">
-        <f>P93/B93</f>
+      <c r="Q93">
+        <v>270500</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S93" s="2">
+        <f t="shared" si="20"/>
         <v>6.2868369351669937E-2</v>
       </c>
-      <c r="R93">
-        <f>C93-J93</f>
+      <c r="T93">
+        <f t="shared" si="27"/>
         <v>1500</v>
       </c>
-      <c r="S93" t="b">
-        <f>J93&lt;B93</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U93" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>129</v>
       </c>
@@ -12168,62 +12820,69 @@
         <v>345000</v>
       </c>
       <c r="E94">
-        <f>C94-D94</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F94">
         <v>345000</v>
       </c>
       <c r="G94">
-        <f>D94-F94</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H94">
         <v>345000</v>
       </c>
       <c r="I94">
-        <f>F94-H94</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J94">
         <v>345000</v>
       </c>
       <c r="K94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L94">
         <v>344000</v>
       </c>
       <c r="M94">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>1000</v>
       </c>
       <c r="N94">
         <v>342000</v>
       </c>
       <c r="O94">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>2000</v>
       </c>
       <c r="P94">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>18500</v>
       </c>
-      <c r="Q94" s="2">
-        <f>P94/B94</f>
+      <c r="Q94">
+        <v>342000</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S94" s="2">
+        <f t="shared" si="20"/>
         <v>5.7187017001545597E-2</v>
       </c>
-      <c r="R94">
-        <f>C94-J94</f>
-        <v>0</v>
-      </c>
-      <c r="S94" t="b">
-        <f>J94&lt;B94</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T94">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U94" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>130</v>
       </c>
@@ -12237,62 +12896,69 @@
         <v>344000</v>
       </c>
       <c r="E95">
-        <f>C95-D95</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F95">
         <v>343000</v>
       </c>
       <c r="G95">
-        <f>D95-F95</f>
+        <f t="shared" si="18"/>
         <v>1000</v>
       </c>
       <c r="H95">
         <v>343000</v>
       </c>
       <c r="I95">
-        <f>F95-H95</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J95">
         <v>343000</v>
       </c>
       <c r="K95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L95">
         <v>343000</v>
       </c>
       <c r="M95">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N95">
         <v>342500</v>
       </c>
       <c r="O95">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>500</v>
       </c>
       <c r="P95">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>19500</v>
       </c>
-      <c r="Q95" s="2">
-        <f>P95/B95</f>
+      <c r="Q95">
+        <v>342500</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S95" s="2">
+        <f t="shared" si="20"/>
         <v>6.037151702786378E-2</v>
       </c>
-      <c r="R95">
-        <f>C95-J95</f>
+      <c r="T95">
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
-      <c r="S95" t="b">
-        <f>J95&lt;B95</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U95" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>131</v>
       </c>
@@ -12306,62 +12972,69 @@
         <v>465000</v>
       </c>
       <c r="E96">
-        <f>C96-D96</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F96">
         <v>461000</v>
       </c>
       <c r="G96">
-        <f>D96-F96</f>
+        <f t="shared" si="18"/>
         <v>4000</v>
       </c>
       <c r="H96">
         <v>461000</v>
       </c>
       <c r="I96">
-        <f>F96-H96</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J96">
         <v>452000</v>
       </c>
       <c r="K96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>9000</v>
       </c>
       <c r="L96">
         <v>452000</v>
       </c>
       <c r="M96">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N96">
         <v>452000</v>
       </c>
       <c r="O96">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P96">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>16000</v>
       </c>
-      <c r="Q96" s="2">
-        <f>P96/B96</f>
+      <c r="Q96">
+        <v>452000</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S96" s="2">
+        <f t="shared" si="20"/>
         <v>3.669724770642202E-2</v>
       </c>
-      <c r="R96">
-        <f>C96-J96</f>
+      <c r="T96">
+        <f t="shared" si="27"/>
         <v>13000</v>
       </c>
-      <c r="S96" t="b">
-        <f>J96&lt;B96</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U96" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>132</v>
       </c>
@@ -12375,62 +13048,69 @@
         <v>378500</v>
       </c>
       <c r="E97">
-        <f>C97-D97</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="F97">
         <v>378500</v>
       </c>
       <c r="G97">
-        <f>D97-F97</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H97">
         <v>378500</v>
       </c>
       <c r="I97">
-        <f>F97-H97</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="J97">
         <v>378500</v>
       </c>
       <c r="K97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L97">
         <v>378500</v>
       </c>
       <c r="M97">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N97">
         <v>378500</v>
       </c>
       <c r="O97">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P97">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>19500</v>
       </c>
-      <c r="Q97" s="2">
-        <f>P97/B97</f>
+      <c r="Q97">
+        <v>378500</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S97" s="2">
+        <f t="shared" si="20"/>
         <v>5.4317548746518104E-2</v>
       </c>
-      <c r="R97">
-        <f>C97-J97</f>
-        <v>0</v>
-      </c>
-      <c r="S97" t="b">
-        <f>J97&lt;B97</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T97">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U97" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>133</v>
       </c>
@@ -12444,62 +13124,69 @@
         <v>196500</v>
       </c>
       <c r="E98">
-        <f>C98-D98</f>
+        <f t="shared" ref="E98:E129" si="28">C98-D98</f>
         <v>1000</v>
       </c>
       <c r="F98">
         <v>196500</v>
       </c>
       <c r="G98">
-        <f>D98-F98</f>
+        <f t="shared" ref="G98:G129" si="29">D98-F98</f>
         <v>0</v>
       </c>
       <c r="H98">
         <v>196500</v>
       </c>
       <c r="I98">
-        <f>F98-H98</f>
+        <f t="shared" ref="I98:I129" si="30">F98-H98</f>
         <v>0</v>
       </c>
       <c r="J98">
         <v>196500</v>
       </c>
       <c r="K98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L98">
         <v>196500</v>
       </c>
       <c r="M98">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N98">
         <v>196500</v>
       </c>
       <c r="O98">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P98">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>10500</v>
       </c>
-      <c r="Q98" s="2">
-        <f>P98/B98</f>
+      <c r="Q98">
+        <v>196500</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S98" s="2">
+        <f t="shared" ref="S98:S129" si="31">P98/B98</f>
         <v>5.6451612903225805E-2</v>
       </c>
-      <c r="R98">
-        <f>C98-J98</f>
+      <c r="T98">
+        <f t="shared" si="27"/>
         <v>1000</v>
       </c>
-      <c r="S98" t="b">
-        <f>J98&lt;B98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U98" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>134</v>
       </c>
@@ -12513,62 +13200,69 @@
         <v>362000</v>
       </c>
       <c r="E99">
-        <f>C99-D99</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F99">
         <v>362000</v>
       </c>
       <c r="G99">
-        <f>D99-F99</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H99">
         <v>354500</v>
       </c>
       <c r="I99">
-        <f>F99-H99</f>
+        <f t="shared" si="30"/>
         <v>7500</v>
       </c>
       <c r="J99">
         <v>354500</v>
       </c>
       <c r="K99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L99">
         <v>354500</v>
       </c>
       <c r="M99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N99">
         <v>354500</v>
       </c>
       <c r="O99">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P99">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>16500</v>
       </c>
-      <c r="Q99" s="2">
-        <f>P99/B99</f>
+      <c r="Q99">
+        <v>354500</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S99" s="2">
+        <f t="shared" si="31"/>
         <v>4.8816568047337278E-2</v>
       </c>
-      <c r="R99">
-        <f>C99-J99</f>
+      <c r="T99">
+        <f t="shared" si="27"/>
         <v>7500</v>
       </c>
-      <c r="S99" t="b">
-        <f>J99&lt;B99</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="U99" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>135</v>
       </c>
@@ -12582,62 +13276,69 @@
         <v>282500</v>
       </c>
       <c r="E100">
-        <f>C100-D100</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F100">
         <v>282500</v>
       </c>
       <c r="G100">
-        <f>D100-F100</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="H100">
         <v>282500</v>
       </c>
       <c r="I100">
-        <f>F100-H100</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J100">
         <v>282500</v>
       </c>
       <c r="K100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="L100">
         <v>282500</v>
       </c>
       <c r="M100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N100">
         <v>281000</v>
       </c>
       <c r="O100">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>1500</v>
       </c>
       <c r="P100">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>17000</v>
       </c>
-      <c r="Q100" s="2">
-        <f>P100/B100</f>
+      <c r="Q100">
+        <v>281000</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S100" s="2">
+        <f t="shared" si="31"/>
         <v>6.4393939393939392E-2</v>
       </c>
-      <c r="R100">
-        <f>C100-J100</f>
-        <v>0</v>
-      </c>
-      <c r="S100" t="b">
-        <f>J100&lt;B100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T100">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U100" t="b">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>136</v>
       </c>
@@ -12651,63 +13352,70 @@
         <v>340000</v>
       </c>
       <c r="E101">
-        <f>C101-D101</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="F101">
         <v>339000</v>
       </c>
       <c r="G101">
-        <f>D101-F101</f>
+        <f t="shared" si="29"/>
         <v>1000</v>
       </c>
       <c r="H101">
         <v>339000</v>
       </c>
       <c r="I101">
-        <f>F101-H101</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="J101">
         <v>334500</v>
       </c>
       <c r="K101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="22"/>
         <v>4500</v>
       </c>
       <c r="L101">
         <v>334500</v>
       </c>
       <c r="M101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="N101">
         <v>334500</v>
       </c>
       <c r="O101">
-        <f t="shared" si="6"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P101">
-        <f t="shared" si="7"/>
+        <f t="shared" si="25"/>
         <v>16500</v>
       </c>
-      <c r="Q101" s="2">
-        <f>P101/B101</f>
+      <c r="Q101">
+        <v>334500</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="S101" s="2">
+        <f t="shared" si="31"/>
         <v>5.1886792452830191E-2</v>
       </c>
-      <c r="R101">
-        <f>C101-J101</f>
+      <c r="T101">
+        <f t="shared" si="27"/>
         <v>5500</v>
       </c>
-      <c r="S101" t="b">
-        <f>J101&lt;B101</f>
+      <c r="U101" t="b">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:Q1 E1:E101 S1:S101">
+  <conditionalFormatting sqref="F1:S1 E1:E101 U1:U101">
     <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
@@ -12715,7 +13423,7 @@
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1">
+  <conditionalFormatting sqref="T1">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
